--- a/nrel-crest-solar.xlsx
+++ b/nrel-crest-solar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\way\crest_model_solar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387A7003-3789-4DFD-9A76-396CD4A3A43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC94AC4-9C8B-4E8D-AA32-7DFF9D939BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="725" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17388" yWindow="-13980" windowWidth="17496" windowHeight="30480" tabRatio="725" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="6" r:id="rId1"/>
@@ -9752,21 +9752,54 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9794,36 +9827,6 @@
     <xf numFmtId="164" fontId="24" fillId="0" borderId="66" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9895,9 +9898,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9908,47 +9908,7 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="150">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="146">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
@@ -13238,26 +13198,26 @@
     </row>
     <row r="2" spans="2:32" s="286" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="617"/>
-      <c r="C2" s="692" t="s">
+      <c r="C2" s="706" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="692"/>
-      <c r="E2" s="692"/>
-      <c r="F2" s="692"/>
-      <c r="G2" s="692"/>
-      <c r="H2" s="692"/>
-      <c r="I2" s="692"/>
-      <c r="J2" s="692"/>
-      <c r="K2" s="692"/>
-      <c r="L2" s="692"/>
-      <c r="M2" s="692"/>
-      <c r="N2" s="692"/>
-      <c r="O2" s="692"/>
-      <c r="P2" s="692"/>
-      <c r="Q2" s="692"/>
-      <c r="R2" s="692"/>
-      <c r="S2" s="692"/>
-      <c r="T2" s="692"/>
+      <c r="D2" s="706"/>
+      <c r="E2" s="706"/>
+      <c r="F2" s="706"/>
+      <c r="G2" s="706"/>
+      <c r="H2" s="706"/>
+      <c r="I2" s="706"/>
+      <c r="J2" s="706"/>
+      <c r="K2" s="706"/>
+      <c r="L2" s="706"/>
+      <c r="M2" s="706"/>
+      <c r="N2" s="706"/>
+      <c r="O2" s="706"/>
+      <c r="P2" s="706"/>
+      <c r="Q2" s="706"/>
+      <c r="R2" s="706"/>
+      <c r="S2" s="706"/>
+      <c r="T2" s="706"/>
       <c r="U2" s="362"/>
       <c r="V2" s="363"/>
       <c r="W2" s="363"/>
@@ -13266,10 +13226,10 @@
       <c r="Z2" s="363"/>
       <c r="AA2" s="363"/>
       <c r="AB2" s="364"/>
-      <c r="AD2" s="711" t="s">
+      <c r="AD2" s="701" t="s">
         <v>491</v>
       </c>
-      <c r="AE2" s="712"/>
+      <c r="AE2" s="702"/>
     </row>
     <row r="3" spans="2:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="439"/>
@@ -13299,8 +13259,8 @@
       <c r="Z3" s="301"/>
       <c r="AA3" s="301"/>
       <c r="AB3" s="329"/>
-      <c r="AD3" s="713"/>
-      <c r="AE3" s="714"/>
+      <c r="AD3" s="703"/>
+      <c r="AE3" s="704"/>
     </row>
     <row r="4" spans="2:32" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
@@ -13320,10 +13280,10 @@
         <v>21</v>
       </c>
       <c r="N4" s="15"/>
-      <c r="O4" s="691" t="s">
+      <c r="O4" s="705" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="691"/>
+      <c r="P4" s="705"/>
       <c r="Q4" s="449"/>
       <c r="R4" s="339"/>
       <c r="S4" s="450" t="s">
@@ -15993,11 +15953,11 @@
       <c r="Q72" s="681" t="s">
         <v>136</v>
       </c>
-      <c r="R72" s="696" t="s">
+      <c r="R72" s="707" t="s">
         <v>23</v>
       </c>
-      <c r="S72" s="697"/>
-      <c r="T72" s="698"/>
+      <c r="S72" s="708"/>
+      <c r="T72" s="709"/>
       <c r="U72" s="587" t="s">
         <v>137</v>
       </c>
@@ -16052,11 +16012,11 @@
       <c r="Q73" s="682">
         <v>0</v>
       </c>
-      <c r="R73" s="699">
+      <c r="R73" s="710">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S73" s="700"/>
-      <c r="T73" s="701"/>
+      <c r="S73" s="711"/>
+      <c r="T73" s="712"/>
       <c r="U73" s="590">
         <v>0.01</v>
       </c>
@@ -16119,11 +16079,11 @@
       <c r="Q74" s="683">
         <v>0</v>
       </c>
-      <c r="R74" s="702">
+      <c r="R74" s="713">
         <v>0.02</v>
       </c>
-      <c r="S74" s="703"/>
-      <c r="T74" s="704"/>
+      <c r="S74" s="714"/>
+      <c r="T74" s="715"/>
       <c r="U74" s="593">
         <v>0</v>
       </c>
@@ -16180,11 +16140,11 @@
       <c r="Q75" s="679">
         <v>0</v>
       </c>
-      <c r="R75" s="693">
-        <v>0</v>
-      </c>
-      <c r="S75" s="694"/>
-      <c r="T75" s="695"/>
+      <c r="R75" s="692">
+        <v>0</v>
+      </c>
+      <c r="S75" s="693"/>
+      <c r="T75" s="694"/>
       <c r="U75" s="399">
         <v>0</v>
       </c>
@@ -16247,11 +16207,11 @@
       <c r="Q76" s="679">
         <v>0</v>
       </c>
-      <c r="R76" s="693">
+      <c r="R76" s="692">
         <v>1</v>
       </c>
-      <c r="S76" s="694"/>
-      <c r="T76" s="695"/>
+      <c r="S76" s="693"/>
+      <c r="T76" s="694"/>
       <c r="U76" s="399">
         <v>0</v>
       </c>
@@ -16308,11 +16268,11 @@
       <c r="Q77" s="679">
         <v>0</v>
       </c>
-      <c r="R77" s="693">
-        <v>0</v>
-      </c>
-      <c r="S77" s="694"/>
-      <c r="T77" s="695"/>
+      <c r="R77" s="692">
+        <v>0</v>
+      </c>
+      <c r="S77" s="693"/>
+      <c r="T77" s="694"/>
       <c r="U77" s="399">
         <v>0</v>
       </c>
@@ -16371,11 +16331,11 @@
       <c r="Q78" s="680">
         <v>0</v>
       </c>
-      <c r="R78" s="705">
-        <v>0</v>
-      </c>
-      <c r="S78" s="706"/>
-      <c r="T78" s="707"/>
+      <c r="R78" s="695">
+        <v>0</v>
+      </c>
+      <c r="S78" s="696"/>
+      <c r="T78" s="697"/>
       <c r="U78" s="598">
         <v>0</v>
       </c>
@@ -16425,9 +16385,9 @@
       </c>
       <c r="P79" s="601"/>
       <c r="Q79" s="602"/>
-      <c r="R79" s="708"/>
-      <c r="S79" s="709"/>
-      <c r="T79" s="710"/>
+      <c r="R79" s="698"/>
+      <c r="S79" s="699"/>
+      <c r="T79" s="700"/>
       <c r="U79" s="601"/>
       <c r="V79" s="601"/>
       <c r="W79" s="601"/>
@@ -16960,675 +16920,675 @@
     <protectedRange sqref="G5 G51:G55 G14:G15 G18:G23 G46:G47 G58 G62 G64 G73:G77 G30:G36 G38:G42 G8:G11" name="Column G Inputs"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="R76:T76"/>
-    <mergeCell ref="R77:T77"/>
-    <mergeCell ref="R78:T78"/>
-    <mergeCell ref="R79:T79"/>
-    <mergeCell ref="AD2:AE3"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="C2:T2"/>
     <mergeCell ref="R75:T75"/>
     <mergeCell ref="R72:T72"/>
     <mergeCell ref="R73:T73"/>
     <mergeCell ref="R74:T74"/>
+    <mergeCell ref="R76:T76"/>
+    <mergeCell ref="R77:T77"/>
+    <mergeCell ref="R78:T78"/>
+    <mergeCell ref="R79:T79"/>
+    <mergeCell ref="AD2:AE3"/>
   </mergeCells>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="149" priority="567">
+    <cfRule type="expression" dxfId="145" priority="567">
       <formula>$G$18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="148" priority="561">
+    <cfRule type="expression" dxfId="144" priority="561">
       <formula>$G$31&gt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="147" priority="388">
+    <cfRule type="expression" dxfId="143" priority="388">
       <formula>AND($G$18="Simple",$G$19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="558">
+    <cfRule type="expression" dxfId="142" priority="558">
       <formula>AND($G$18="Simple",$G$19&lt;=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="145" priority="387">
+    <cfRule type="expression" dxfId="141" priority="387">
       <formula>AND($G$18="Intermediate",$G$20&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="557">
+    <cfRule type="expression" dxfId="140" priority="557">
       <formula>AND($G$18="Intermediate",$G$20&lt;=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="expression" dxfId="143" priority="141">
+    <cfRule type="expression" dxfId="139" priority="141">
       <formula>$G$73="No"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="142">
+    <cfRule type="expression" dxfId="138" priority="142">
       <formula>$D$74=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="141" priority="379">
+    <cfRule type="expression" dxfId="137" priority="379">
       <formula>$D$62=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29 G25:H25 K25">
-    <cfRule type="expression" dxfId="140" priority="721">
+    <cfRule type="expression" dxfId="136" priority="721">
       <formula>$G$18="Complex"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="139" priority="381">
+    <cfRule type="expression" dxfId="135" priority="381">
       <formula>$D$51=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="138" priority="404">
+    <cfRule type="expression" dxfId="134" priority="404">
       <formula>$Q$10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="137" priority="403">
+    <cfRule type="expression" dxfId="133" priority="403">
       <formula>$Q$9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:G43">
-    <cfRule type="expression" dxfId="136" priority="399">
+    <cfRule type="expression" dxfId="132" priority="399">
       <formula>$G$30="Simple"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="135" priority="385">
+    <cfRule type="expression" dxfId="131" priority="385">
       <formula>AND($G$18="Complex",$G$25&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="386">
+    <cfRule type="expression" dxfId="130" priority="386">
       <formula>$G$18="Complex"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="133" priority="384">
+    <cfRule type="expression" dxfId="129" priority="384">
       <formula>$G$33&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="132" priority="383">
+    <cfRule type="expression" dxfId="128" priority="383">
       <formula>AND($G$34&gt;0,$G$34&lt;=$G$15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="131" priority="382">
+    <cfRule type="expression" dxfId="127" priority="382">
       <formula>$G$35&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="expression" dxfId="130" priority="366">
+    <cfRule type="expression" dxfId="126" priority="366">
       <formula>$G$57="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O58:Q58 S58">
-    <cfRule type="expression" dxfId="129" priority="361">
+    <cfRule type="expression" dxfId="125" priority="361">
       <formula>$Q$57="Salvage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:G48">
-    <cfRule type="expression" dxfId="128" priority="339">
+    <cfRule type="expression" dxfId="124" priority="339">
       <formula>$G$18="Simple"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="expression" dxfId="127" priority="307">
+    <cfRule type="expression" dxfId="123" priority="307">
       <formula>$G$60="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="126" priority="271">
+    <cfRule type="expression" dxfId="122" priority="271">
       <formula>$G$18="Simple"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24 E20:F24">
-    <cfRule type="expression" dxfId="125" priority="270">
+    <cfRule type="expression" dxfId="121" priority="270">
       <formula>$G$18="Intermediate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20 G22:G23">
-    <cfRule type="expression" dxfId="124" priority="259">
+    <cfRule type="expression" dxfId="120" priority="259">
       <formula>$G$18="Intermediate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="123" priority="257">
+    <cfRule type="expression" dxfId="119" priority="257">
       <formula>$G$18="Intermediate"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="258">
+    <cfRule type="expression" dxfId="118" priority="258">
       <formula>$G$18="Intermediate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:G60 I52:I60">
-    <cfRule type="expression" dxfId="121" priority="253">
+    <cfRule type="expression" dxfId="117" priority="253">
       <formula>$G$51=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:P14">
-    <cfRule type="expression" dxfId="120" priority="246">
+    <cfRule type="expression" dxfId="116" priority="246">
       <formula>$T$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:P15">
-    <cfRule type="expression" dxfId="119" priority="245">
+    <cfRule type="expression" dxfId="115" priority="245">
       <formula>$T$15=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="118" priority="244">
+    <cfRule type="expression" dxfId="114" priority="244">
       <formula>$T$16=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="117" priority="241">
+    <cfRule type="expression" dxfId="113" priority="241">
       <formula>$T$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="116" priority="240">
+    <cfRule type="expression" dxfId="112" priority="240">
       <formula>$T$15=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:Q16">
-    <cfRule type="expression" dxfId="115" priority="239">
+    <cfRule type="expression" dxfId="111" priority="239">
       <formula>$T$16=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:P13">
-    <cfRule type="expression" dxfId="114" priority="237">
+    <cfRule type="expression" dxfId="110" priority="237">
       <formula>$T$13=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="expression" dxfId="113" priority="236">
+    <cfRule type="expression" dxfId="109" priority="236">
       <formula>$T$13=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:Q23 S23 O20:Q21 S20:S21">
-    <cfRule type="expression" dxfId="112" priority="224">
+    <cfRule type="expression" dxfId="108" priority="224">
       <formula>$R$19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38:S39 S43:S44 S41 O38:Q39 O43:Q44 O41:Q41">
-    <cfRule type="expression" dxfId="111" priority="220">
+    <cfRule type="expression" dxfId="107" priority="220">
       <formula>$R$38=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="110" priority="212">
+    <cfRule type="expression" dxfId="106" priority="212">
       <formula>$G$18="Simple"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="109" priority="211">
+    <cfRule type="expression" dxfId="105" priority="211">
       <formula>$G$18="Complex"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I24">
-    <cfRule type="expression" dxfId="108" priority="210">
+    <cfRule type="expression" dxfId="104" priority="210">
       <formula>$G$18="Intermediate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:I43">
-    <cfRule type="expression" dxfId="107" priority="209">
+    <cfRule type="expression" dxfId="103" priority="209">
       <formula>$G$30="Intermediate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="expression" dxfId="106" priority="203">
+    <cfRule type="expression" dxfId="102" priority="203">
       <formula>$G$18="Simple"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="105" priority="200">
+    <cfRule type="expression" dxfId="101" priority="200">
       <formula>$G$18="Complex"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="104" priority="199">
+    <cfRule type="expression" dxfId="100" priority="199">
       <formula>$G$18="Complex"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40:Q40 S40">
-    <cfRule type="expression" dxfId="103" priority="2101">
+    <cfRule type="expression" dxfId="99" priority="2101">
       <formula>$T$41=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="expression" dxfId="102" priority="188">
+    <cfRule type="expression" dxfId="98" priority="188">
       <formula>$T$13=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="expression" dxfId="101" priority="187">
+    <cfRule type="expression" dxfId="97" priority="187">
       <formula>$T$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="100" priority="186">
+    <cfRule type="expression" dxfId="96" priority="186">
       <formula>$T$15=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="expression" dxfId="99" priority="185">
+    <cfRule type="expression" dxfId="95" priority="185">
       <formula>$T$16=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="98" priority="184">
+    <cfRule type="expression" dxfId="94" priority="184">
       <formula>$G$57="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="expression" dxfId="97" priority="183">
+    <cfRule type="expression" dxfId="93" priority="183">
       <formula>$G$60="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:G63">
-    <cfRule type="expression" dxfId="96" priority="182">
+    <cfRule type="expression" dxfId="92" priority="182">
       <formula>$G$51=0%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="95" priority="178">
+    <cfRule type="expression" dxfId="91" priority="178">
       <formula>$D$12=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="94" priority="177">
+    <cfRule type="expression" dxfId="90" priority="177">
       <formula>$D$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="93" priority="176">
+    <cfRule type="expression" dxfId="89" priority="176">
       <formula>$N$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="92" priority="167">
+    <cfRule type="expression" dxfId="88" priority="167">
       <formula>$G$30&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="91" priority="148">
+    <cfRule type="expression" dxfId="87" priority="148">
       <formula>$G$18="Simple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="166">
+    <cfRule type="expression" dxfId="86" priority="166">
       <formula>$G$46&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="89" priority="147">
+    <cfRule type="expression" dxfId="85" priority="147">
       <formula>$G$18="Simple"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="163">
+    <cfRule type="expression" dxfId="84" priority="163">
       <formula>AND($G$18="Intermediate",$G$47&gt;=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="87" priority="146">
+    <cfRule type="expression" dxfId="83" priority="146">
       <formula>$G$51=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="162">
+    <cfRule type="expression" dxfId="82" priority="162">
       <formula>$D$52=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="85" priority="159">
+    <cfRule type="expression" dxfId="81" priority="159">
       <formula>$D$53=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="84" priority="158">
+    <cfRule type="expression" dxfId="80" priority="158">
       <formula>$G$55&lt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="83" priority="157">
+    <cfRule type="expression" dxfId="79" priority="157">
       <formula>$G$58&lt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="82" priority="156">
+    <cfRule type="expression" dxfId="78" priority="156">
       <formula>$D$54=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:C58 C60 C52:C55">
-    <cfRule type="expression" dxfId="81" priority="145">
+    <cfRule type="expression" dxfId="77" priority="145">
       <formula>$G$51=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="80" priority="144">
+    <cfRule type="expression" dxfId="76" priority="144">
       <formula>$G$64&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="expression" dxfId="79" priority="143">
+    <cfRule type="expression" dxfId="75" priority="143">
       <formula>$G$73=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76">
-    <cfRule type="expression" dxfId="78" priority="134">
+    <cfRule type="expression" dxfId="74" priority="134">
       <formula>$G$73="No"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="135">
+    <cfRule type="expression" dxfId="73" priority="135">
       <formula>$D$76=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="76" priority="133">
+    <cfRule type="expression" dxfId="72" priority="133">
       <formula>$G$75=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="75" priority="132">
+    <cfRule type="expression" dxfId="71" priority="132">
       <formula>$G$77=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="74" priority="130">
+    <cfRule type="expression" dxfId="70" priority="130">
       <formula>$Q$13=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="73" priority="129">
+    <cfRule type="expression" dxfId="69" priority="129">
       <formula>$N$14=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="72" priority="128">
+    <cfRule type="expression" dxfId="68" priority="128">
       <formula>$N$15=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="expression" dxfId="71" priority="127">
+    <cfRule type="expression" dxfId="67" priority="127">
       <formula>$Q$19=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="expression" dxfId="70" priority="126">
+    <cfRule type="expression" dxfId="66" priority="126">
       <formula>$Q$20=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
-    <cfRule type="expression" dxfId="69" priority="125">
+    <cfRule type="expression" dxfId="65" priority="125">
       <formula>$Q$24=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21 M52 M57 M50 M47 M30 M33:M34 M38">
-    <cfRule type="expression" dxfId="68" priority="124">
+    <cfRule type="expression" dxfId="64" priority="124">
       <formula>$N21=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="expression" dxfId="67" priority="116">
+    <cfRule type="expression" dxfId="63" priority="116">
       <formula>$Q$25&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="expression" dxfId="66" priority="115">
+    <cfRule type="expression" dxfId="62" priority="115">
       <formula>$N$27=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="65" priority="114">
+    <cfRule type="expression" dxfId="61" priority="114">
       <formula>$Q$28=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M62 M65 M45 M29">
-    <cfRule type="expression" dxfId="64" priority="112">
+    <cfRule type="expression" dxfId="60" priority="112">
       <formula>$Q29&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="expression" dxfId="63" priority="108">
+    <cfRule type="expression" dxfId="59" priority="108">
       <formula>$N$36=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41">
-    <cfRule type="expression" dxfId="62" priority="107">
+    <cfRule type="expression" dxfId="58" priority="107">
       <formula>$Q$41&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43">
-    <cfRule type="expression" dxfId="61" priority="106">
+    <cfRule type="expression" dxfId="57" priority="106">
       <formula>$N$43=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44">
-    <cfRule type="expression" dxfId="60" priority="105">
+    <cfRule type="expression" dxfId="56" priority="105">
       <formula>$Q$44=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51 M53">
-    <cfRule type="expression" dxfId="59" priority="101">
+    <cfRule type="expression" dxfId="55" priority="101">
       <formula>$Q51&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M58">
-    <cfRule type="expression" dxfId="58" priority="89">
+    <cfRule type="expression" dxfId="54" priority="89">
       <formula>$Q$57="Salvage"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="99">
+    <cfRule type="expression" dxfId="53" priority="99">
       <formula>$Q$58&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67">
-    <cfRule type="expression" dxfId="56" priority="96">
+    <cfRule type="expression" dxfId="52" priority="96">
       <formula>$Q$67&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M28 M24:M25">
-    <cfRule type="expression" dxfId="55" priority="93">
+    <cfRule type="expression" dxfId="51" priority="93">
       <formula>$Q$19="Cost-Based"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M73">
-    <cfRule type="expression" dxfId="54" priority="85">
+    <cfRule type="expression" dxfId="50" priority="85">
       <formula>$N$73=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="86">
+    <cfRule type="expression" dxfId="49" priority="86">
       <formula>$N$73=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:M78">
-    <cfRule type="expression" dxfId="52" priority="81">
+    <cfRule type="expression" dxfId="48" priority="81">
       <formula>$N74=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="82">
+    <cfRule type="expression" dxfId="47" priority="82">
       <formula>$N74=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB73:AB79 O73:R78 U73:Z78">
-    <cfRule type="expression" dxfId="50" priority="80">
+    <cfRule type="expression" dxfId="46" priority="80">
       <formula>$L73=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O79:R79 U79:Z79">
-    <cfRule type="expression" dxfId="49" priority="75">
+    <cfRule type="expression" dxfId="45" priority="75">
       <formula>$L$79=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="48" priority="74">
+    <cfRule type="expression" dxfId="44" priority="74">
       <formula>$G$5=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C23">
-    <cfRule type="expression" dxfId="47" priority="73">
+    <cfRule type="expression" dxfId="43" priority="73">
       <formula>$G21&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36 C38:C42">
-    <cfRule type="expression" dxfId="46" priority="70">
+    <cfRule type="expression" dxfId="42" priority="70">
       <formula>$G$30="Simple"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36 C38:C39 C41:C42">
-    <cfRule type="expression" dxfId="45" priority="67">
+    <cfRule type="expression" dxfId="41" priority="67">
       <formula>$G36&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="68">
+    <cfRule type="expression" dxfId="40" priority="68">
       <formula>$G36&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="43" priority="56">
+    <cfRule type="expression" dxfId="39" priority="56">
       <formula>$G$40=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="42" priority="55">
+    <cfRule type="expression" dxfId="38" priority="55">
       <formula>$G$32&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="41" priority="54">
+    <cfRule type="expression" dxfId="37" priority="54">
       <formula>$D$15=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G79 I74:I79">
-    <cfRule type="expression" dxfId="40" priority="2359">
+    <cfRule type="expression" dxfId="36" priority="2359">
       <formula>$G$73="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57 I60">
-    <cfRule type="expression" dxfId="39" priority="42">
+    <cfRule type="expression" dxfId="35" priority="42">
       <formula>$G57="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="38" priority="37">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>$G$57="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$G$60="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M71">
-    <cfRule type="expression" dxfId="36" priority="21">
+    <cfRule type="expression" dxfId="32" priority="21">
       <formula>$P$70="No"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>$P$71&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O71:P71 S71">
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="30" priority="20">
       <formula>$P$70="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70">
-    <cfRule type="expression" dxfId="33" priority="18">
+    <cfRule type="expression" dxfId="29" priority="18">
       <formula>$P$70=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M15">
-    <cfRule type="expression" dxfId="32" priority="3188">
+    <cfRule type="expression" dxfId="28" priority="3188">
       <formula>$G$15=$Q$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24 K19">
-    <cfRule type="expression" dxfId="31" priority="3189">
+    <cfRule type="expression" dxfId="27" priority="3189">
       <formula>$G$18="Simple"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L28 L25 K20:K24">
-    <cfRule type="expression" dxfId="30" priority="3191">
+    <cfRule type="expression" dxfId="26" priority="3191">
       <formula>$G$18="Intermediate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="29" priority="15">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>$G$9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10 E10:G10">
-    <cfRule type="expression" dxfId="28" priority="14">
+    <cfRule type="expression" dxfId="24" priority="14">
       <formula>$G$9="Custom"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="27" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>$G$10=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>$G$11=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:G11 I11">
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>$G$9="State Average"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39:Q39 O43:Q44 O41:Q41">
-    <cfRule type="expression" dxfId="24" priority="3216">
+    <cfRule type="expression" dxfId="20" priority="3216">
       <formula>$Q$38="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="23" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>ISERROR($G$13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:G12 I12">
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>$G$9="custom"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S36:S37 O36:Q37 S34 O34:Q34">
-    <cfRule type="expression" dxfId="21" priority="4697">
+    <cfRule type="expression" dxfId="17" priority="4697">
       <formula>$R$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36 M34">
-    <cfRule type="expression" dxfId="20" priority="4762">
+    <cfRule type="expression" dxfId="16" priority="4762">
       <formula>$Q$33="Performance-Based"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38 M43:M44 M41">
-    <cfRule type="expression" dxfId="19" priority="4800">
+    <cfRule type="expression" dxfId="15" priority="4800">
       <formula>$Q$33="Cost-Based"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40">
-    <cfRule type="expression" dxfId="18" priority="4944">
+    <cfRule type="expression" dxfId="14" priority="4944">
       <formula>$Q$38="Tax Credit"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4945">
+    <cfRule type="expression" dxfId="13" priority="4945">
       <formula>$Q40=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:Q42">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$R$38=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42:Q42">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$Q$38="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35:Q35">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>$R$34=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:Q22">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$R$19=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:Q28 S24:S25 S27:S28">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>OR($R$19=2,$Q$19="Neither")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17692,7 +17652,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:O59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -18292,17 +18252,17 @@
       <c r="J2" s="173"/>
     </row>
     <row r="3" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="715" t="s">
+      <c r="B3" s="716" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="716"/>
-      <c r="D3" s="716"/>
-      <c r="E3" s="716"/>
-      <c r="F3" s="716"/>
-      <c r="G3" s="716"/>
-      <c r="H3" s="716"/>
-      <c r="I3" s="716"/>
-      <c r="J3" s="717"/>
+      <c r="C3" s="717"/>
+      <c r="D3" s="717"/>
+      <c r="E3" s="717"/>
+      <c r="F3" s="717"/>
+      <c r="G3" s="717"/>
+      <c r="H3" s="717"/>
+      <c r="I3" s="717"/>
+      <c r="J3" s="718"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="278"/>
@@ -18316,19 +18276,19 @@
       <c r="J4" s="278"/>
     </row>
     <row r="5" spans="2:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="720" t="s">
+      <c r="B5" s="721" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="721"/>
-      <c r="D5" s="722"/>
+      <c r="C5" s="722"/>
+      <c r="D5" s="723"/>
       <c r="E5" s="278"/>
-      <c r="F5" s="715" t="s">
+      <c r="F5" s="716" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="716"/>
-      <c r="H5" s="716"/>
-      <c r="I5" s="716"/>
-      <c r="J5" s="717"/>
+      <c r="G5" s="717"/>
+      <c r="H5" s="717"/>
+      <c r="I5" s="717"/>
+      <c r="J5" s="718"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="430" t="s">
@@ -18455,7 +18415,7 @@
         <f>IF(Inputs!$G$57="Pass","Yes","No, see Inputs Worksheet")</f>
         <v>Yes</v>
       </c>
-      <c r="F10" s="739" t="s">
+      <c r="F10" s="691" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="684"/>
@@ -18477,7 +18437,7 @@
         <f>IF(Inputs!$G$60="Pass","Yes","No, see Inputs Worksheet")</f>
         <v>Yes</v>
       </c>
-      <c r="F11" s="739" t="s">
+      <c r="F11" s="691" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="684"/>
@@ -19267,12 +19227,12 @@
       <c r="J48" s="213"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D49" s="719"/>
-      <c r="E49" s="719"/>
-      <c r="F49" s="719"/>
-      <c r="G49" s="719"/>
-      <c r="H49" s="719"/>
-      <c r="I49" s="719"/>
+      <c r="D49" s="720"/>
+      <c r="E49" s="720"/>
+      <c r="F49" s="720"/>
+      <c r="G49" s="720"/>
+      <c r="H49" s="720"/>
+      <c r="I49" s="720"/>
     </row>
     <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C50" s="210"/>
@@ -19285,23 +19245,23 @@
       <c r="J50" s="211"/>
     </row>
     <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="718"/>
+      <c r="B51" s="719"/>
       <c r="C51" s="212"/>
     </row>
     <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="718"/>
+      <c r="B52" s="719"/>
       <c r="C52" s="212"/>
     </row>
     <row r="53" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="718"/>
+      <c r="B53" s="719"/>
       <c r="C53" s="212"/>
     </row>
     <row r="54" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" s="718"/>
+      <c r="B54" s="719"/>
       <c r="C54" s="212"/>
     </row>
     <row r="55" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="718"/>
+      <c r="B55" s="719"/>
       <c r="C55" s="212"/>
     </row>
     <row r="59" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19318,22 +19278,22 @@
     <mergeCell ref="B5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$D10="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$D11="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:C10">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$D$10="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$D$11="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19972,10 +19932,10 @@
       <c r="N3" s="165"/>
       <c r="O3" s="165"/>
       <c r="P3" s="165"/>
-      <c r="R3" s="727" t="s">
+      <c r="R3" s="728" t="s">
         <v>289</v>
       </c>
-      <c r="S3" s="728"/>
+      <c r="S3" s="729"/>
     </row>
     <row r="4" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="139" t="s">
@@ -20023,10 +19983,10 @@
       <c r="P4" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="723" t="s">
+      <c r="R4" s="724" t="s">
         <v>382</v>
       </c>
-      <c r="S4" s="725" t="s">
+      <c r="S4" s="726" t="s">
         <v>288</v>
       </c>
     </row>
@@ -20076,8 +20036,8 @@
       <c r="P5" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="724"/>
-      <c r="S5" s="726"/>
+      <c r="R5" s="725"/>
+      <c r="S5" s="727"/>
     </row>
     <row r="6" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="146">
@@ -22208,7 +22168,7 @@
     <mergeCell ref="R3:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="N7:N36">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$N7=$N6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22224,7 +22184,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AJ228"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -29663,10 +29623,10 @@
       <c r="AJ69" s="31"/>
     </row>
     <row r="70" spans="2:36" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="730" t="s">
+      <c r="B70" s="731" t="s">
         <v>383</v>
       </c>
-      <c r="C70" s="731"/>
+      <c r="C70" s="732"/>
       <c r="D70" s="467">
         <f>IRR(F54:AJ54)</f>
         <v>0.17106284054280474</v>
@@ -29745,11 +29705,11 @@
       <c r="AJ71" s="31"/>
     </row>
     <row r="72" spans="2:36" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="732">
+      <c r="B72" s="733">
         <f>Inputs!$G$62</f>
         <v>0.15</v>
       </c>
-      <c r="C72" s="733"/>
+      <c r="C72" s="734"/>
       <c r="D72" s="470">
         <f>NPV(Inputs!$G$62,'Cash Flow'!F67:AJ67)</f>
         <v>2801.411742365422</v>
@@ -31274,11 +31234,11 @@
       <c r="B96" s="220" t="s">
         <v>155</v>
       </c>
-      <c r="C96" s="729" t="s">
+      <c r="C96" s="730" t="s">
         <v>358</v>
       </c>
-      <c r="D96" s="729"/>
-      <c r="E96" s="729"/>
+      <c r="D96" s="730"/>
+      <c r="E96" s="730"/>
       <c r="F96" s="221"/>
       <c r="G96" s="221"/>
       <c r="H96" s="221"/>
@@ -43694,12 +43654,12 @@
       <c r="E125" s="272"/>
     </row>
     <row r="126" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="734" t="s">
+      <c r="B126" s="735" t="s">
         <v>242</v>
       </c>
-      <c r="C126" s="735"/>
-      <c r="D126" s="735"/>
-      <c r="E126" s="736"/>
+      <c r="C126" s="736"/>
+      <c r="D126" s="736"/>
+      <c r="E126" s="737"/>
     </row>
     <row r="127" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="2:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -44021,10 +43981,10 @@
       <c r="F158" s="333"/>
     </row>
     <row r="159" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="737" t="s">
+      <c r="C159" s="738" t="s">
         <v>244</v>
       </c>
-      <c r="D159" s="738"/>
+      <c r="D159" s="739"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -44036,17 +43996,17 @@
     <mergeCell ref="C159:D159"/>
   </mergeCells>
   <conditionalFormatting sqref="D106:E110 D6:E26 D56:E76 D31:E51 D81:E101 D116:N121">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$C$123="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>#REF!="100% Equity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>#REF!="(use dropdown)"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/nrel-crest-solar.xlsx
+++ b/nrel-crest-solar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\way\crest_model_solar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC94AC4-9C8B-4E8D-AA32-7DFF9D939BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D315F2-EA14-4813-B71C-E3BB65D1D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17388" yWindow="-13980" windowWidth="17496" windowHeight="30480" tabRatio="725" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11264,97 +11264,97 @@
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-3371652.866580395</c:v>
+                  <c:v>-3371851.5683789058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2867750.5217397083</c:v>
+                  <c:v>-2868293.0251887487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2345096.2304085908</c:v>
+                  <c:v>-2345986.3332186574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1804003.8526287798</c:v>
+                  <c:v>-1805245.393981368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1244734.5012862345</c:v>
+                  <c:v>-1246331.3622867013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-667501.50159978797</c:v>
+                  <c:v>-669457.60573516123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-72474.850012921961</c:v>
+                  <c:v>-74794.1636147073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>524498.01722182729</c:v>
+                  <c:v>522033.19489778299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1090850.5552774838</c:v>
+                  <c:v>1088046.225984517</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1672527.2436587797</c:v>
+                  <c:v>1669379.6580146102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2330422.3537154272</c:v>
+                  <c:v>2326927.7213815469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2930103.3641585</c:v>
+                  <c:v>2927579.8369851792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3313525.4717793455</c:v>
+                  <c:v>3310772.2097802297</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3686973.279103552</c:v>
+                  <c:v>3683987.7369976547</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4066249.8893961716</c:v>
+                  <c:v>4063029.494046187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4439029.7904226948</c:v>
+                  <c:v>4435571.9406545097</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4795543.2978416113</c:v>
+                  <c:v>4791845.3350258647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5147563.61201376</c:v>
+                  <c:v>5143622.8488365076</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5504228.1958785923</c:v>
+                  <c:v>5500041.9449855518</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6233532.7529167123</c:v>
+                  <c:v>6229098.2976076901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6950013.3704228168</c:v>
+                  <c:v>6945327.9643312553</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7092691.0285706455</c:v>
+                  <c:v>7087577.4460442793</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7236000.3399270093</c:v>
+                  <c:v>7230803.2766891392</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7352491.054761475</c:v>
+                  <c:v>7347033.6895907205</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7472290.8778127525</c:v>
+                  <c:v>7466570.3424019553</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7663025.3167378008</c:v>
+                  <c:v>7657236.2314774524</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7663025.3167378008</c:v>
+                  <c:v>7657236.2314774524</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7663025.3167378008</c:v>
+                  <c:v>7657236.2314774524</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7663025.3167378008</c:v>
+                  <c:v>7657236.2314774524</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7663025.3167378008</c:v>
+                  <c:v>7657236.2314774524</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7663025.3167378008</c:v>
+                  <c:v>7657236.2314774524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11641,79 +11641,79 @@
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="1">
-                  <c:v>476255.95756786544</c:v>
+                  <c:v>476603.73325436545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>473188.01089574816</c:v>
+                  <c:v>473539.58429274475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470650.49741821637</c:v>
+                  <c:v>471005.9099967081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>468593.89691946929</c:v>
+                  <c:v>468953.19060331822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>466973.69675376447</c:v>
+                  <c:v>467336.91392464103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>465749.89196495194</c:v>
+                  <c:v>466117.07546733442</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>464886.53540789697</c:v>
+                  <c:v>465257.72855412547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>464351.33287182258</c:v>
+                  <c:v>464726.57944720791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>464115.27870560042</c:v>
+                  <c:v>464494.62297358894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>406707.88345057692</c:v>
+                  <c:v>407091.37015797192</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>466883.5453915227</c:v>
+                  <c:v>467271.21977376239</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>467399.06274523539</c:v>
+                  <c:v>467790.97053172917</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>468124.50575660146</c:v>
+                  <c:v>468520.69317612378</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>469043.00160050025</c:v>
+                  <c:v>469443.51538664376</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>470139.42969809845</c:v>
+                  <c:v>470544.31709478667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>471400.24751745595</c:v>
+                  <c:v>471809.55628451594</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>472813.33381026355</c:v>
+                  <c:v>473227.1122290598</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>474367.84754135483</c:v>
+                  <c:v>474786.14442048443</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>106984.81728530662</c:v>
+                  <c:v>107407.68196635631</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>171928.36728136329</c:v>
+                  <c:v>172355.84964473004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>143037.61689708984</c:v>
+                  <c:v>143469.76736786455</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>144696.50343225291</c:v>
+                  <c:v>145133.37298616848</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>146454.32102878782</c:v>
+                  <c:v>146895.96119823214</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>148305.64771697632</c:v>
+                  <c:v>148752.11059707098</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>69615.909049504204</c:v>
+                  <c:v>69868.545505738322</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -11879,79 +11879,79 @@
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="1">
-                  <c:v>980158.30240855238</c:v>
+                  <c:v>980162.27644452266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>995842.30222686566</c:v>
+                  <c:v>995846.27626283583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1011742.8751980274</c:v>
+                  <c:v>1011746.8492339975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1027863.2482620147</c:v>
+                  <c:v>1027867.2222979849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1044206.696440211</c:v>
+                  <c:v>1044210.6704761812</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1060776.543551818</c:v>
+                  <c:v>1060780.5175877884</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1061859.4026426463</c:v>
+                  <c:v>1062085.0870666157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1030703.8709274791</c:v>
+                  <c:v>1030739.6105339421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1045791.9670868965</c:v>
+                  <c:v>1045828.0550036822</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1064602.9935072248</c:v>
+                  <c:v>1064639.4335249087</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1066564.5558345953</c:v>
+                  <c:v>1067923.3353773947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>850821.17036608106</c:v>
+                  <c:v>850983.34332677978</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>841572.31308080815</c:v>
+                  <c:v>841736.22039354872</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>848319.61189311976</c:v>
+                  <c:v>848485.2724351763</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>842919.33072462201</c:v>
+                  <c:v>843086.763703109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>827913.75493637251</c:v>
+                  <c:v>828082.95065587107</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>824833.64798241225</c:v>
+                  <c:v>825004.62603970256</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>831032.43140618759</c:v>
+                  <c:v>831205.24056952808</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>836289.37432342651</c:v>
+                  <c:v>836464.03458849492</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>888408.98478746763</c:v>
+                  <c:v>888585.5163682953</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>285715.27504491864</c:v>
+                  <c:v>285719.24908088887</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>288005.81478861661</c:v>
+                  <c:v>288359.20363102865</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>262945.03586325317</c:v>
+                  <c:v>263126.37409981381</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>268105.47076825402</c:v>
+                  <c:v>268288.76340830565</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260350.34797455298</c:v>
+                  <c:v>260534.43458123517</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -13160,8 +13160,8 @@
   <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U60" sqref="U60"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14114,7 +14114,7 @@
       </c>
       <c r="G24" s="498">
         <f>($G$54*$G$51*SUM($G$20:$G$23)+$G$48+$G$64+$Q$63+$Q$66)</f>
-        <v>346652.86658039485</v>
+        <v>346851.568378906</v>
       </c>
       <c r="H24" s="309"/>
       <c r="I24" s="398" t="s">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="G26" s="503">
         <f>IF($G$18="Simple",($G$19*$G$8*1000),IF($G$18="Intermediate",SUM($G$20:$G$24),IF($G$18="Complex",$G$25,0)))</f>
-        <v>5846652.866580395</v>
+        <v>5846851.5683789058</v>
       </c>
       <c r="H26" s="310"/>
       <c r="I26" s="12" t="s">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="G27" s="504">
         <f>G26/G8/1000</f>
-        <v>2.6575694848092701</v>
+        <v>2.6576598038085937</v>
       </c>
       <c r="H27" s="316"/>
       <c r="I27" s="12" t="s">
@@ -14428,7 +14428,7 @@
         <v>106</v>
       </c>
       <c r="G32" s="507">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H32" s="319"/>
       <c r="I32" s="12" t="s">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="G63" s="532">
         <f>(G62*F68)+(F67*G53*(1-G78))</f>
-        <v>0.10412596427041323</v>
+        <v>0.10412752327243299</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>8</v>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="Q66" s="582">
         <f>-(AVERAGE('Cash Flow'!G36:AJ36)/12*$Q$65)</f>
-        <v>80629.772028171865</v>
+        <v>80828.473826683039</v>
       </c>
       <c r="R66" s="15"/>
       <c r="S66" s="12" t="s">
@@ -15793,7 +15793,7 @@
       </c>
       <c r="F67" s="626">
         <f>G67/$G$70</f>
-        <v>0.42331912916314191</v>
+        <v>0.42330474291246917</v>
       </c>
       <c r="G67" s="534">
         <f>'Cash Flow'!F82</f>
@@ -15830,11 +15830,11 @@
       </c>
       <c r="F68" s="625">
         <f>G68/$G$70</f>
-        <v>0.57668087083685815</v>
+        <v>0.57669525708753078</v>
       </c>
       <c r="G68" s="514">
         <f>-'Cash Flow'!$F$52</f>
-        <v>3371652.866580395</v>
+        <v>3371851.5683789058</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>8</v>
@@ -15889,7 +15889,7 @@
       </c>
       <c r="G70" s="538">
         <f>SUM(G67:G69)</f>
-        <v>5846652.866580395</v>
+        <v>5846851.5683789058</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>8</v>
@@ -18728,7 +18728,7 @@
       </c>
       <c r="D25" s="184">
         <f>Inputs!$G26-Inputs!G69</f>
-        <v>5846652.866580395</v>
+        <v>5846851.5683789058</v>
       </c>
       <c r="E25" s="185"/>
       <c r="F25" s="184">
@@ -18753,7 +18753,7 @@
       </c>
       <c r="D26" s="186">
         <f>D25/D18/1000</f>
-        <v>2.6575694848092701</v>
+        <v>2.6576598038085937</v>
       </c>
       <c r="E26" s="187"/>
       <c r="F26" s="186">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="D28" s="645">
         <f>'Cash Flow'!G37</f>
-        <v>-4.9677228951131687</v>
+        <v>-4.9777228951131693</v>
       </c>
       <c r="E28" s="137"/>
       <c r="F28" s="645">
@@ -20054,11 +20054,11 @@
       <c r="K6" s="148"/>
       <c r="M6" s="149">
         <f>'Cash Flow'!F67</f>
-        <v>-3371652.866580395</v>
+        <v>-3371851.5683789058</v>
       </c>
       <c r="N6" s="149">
         <f>M6</f>
-        <v>-3371652.866580395</v>
+        <v>-3371851.5683789058</v>
       </c>
       <c r="O6" s="166"/>
       <c r="P6" s="167"/>
@@ -20075,11 +20075,11 @@
       </c>
       <c r="D7" s="149">
         <f>IF($B7&gt;Inputs!$G$15,"",LOOKUP($B7,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>980158.30240855238</v>
+        <v>980162.27644452266</v>
       </c>
       <c r="E7" s="149">
         <f>IF($B7&gt;Inputs!$G$15,"",LOOKUP($B7,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-172765.32401897499</v>
+        <v>-173113.099705475</v>
       </c>
       <c r="F7" s="149">
         <f>IF($B7&gt;Inputs!$G$15,"",LOOKUP($B7,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20091,7 +20091,7 @@
       </c>
       <c r="H7" s="149">
         <f>IF($B7&gt;Inputs!$G$15,"",SUM(D7:G7))</f>
-        <v>503902.34484068694</v>
+        <v>503558.54319015722</v>
       </c>
       <c r="I7" s="149">
         <f>IF($B7&gt;Inputs!$G$15,"",LOOKUP($B7,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
@@ -20111,27 +20111,27 @@
       </c>
       <c r="M7" s="149">
         <f>IF($B7&gt;Inputs!$G$15,"",H7+K7+L7)</f>
-        <v>503902.34484068694</v>
+        <v>503558.54319015722</v>
       </c>
       <c r="N7" s="149">
         <f>IF($B7&gt;Inputs!$G$15,N6,N6+M7)</f>
-        <v>-2867750.5217397083</v>
+        <v>-2868293.0251887487</v>
       </c>
       <c r="O7" s="152">
         <f>IF($B7&gt;Inputs!$G$15,"",LOOKUP($B7,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>-0.85054738290666443</v>
+        <v>-0.85065815235981623</v>
       </c>
       <c r="P7" s="153">
         <f>IF($B7&gt;Inputs!$G$15,"",LOOKUP($B7,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.0479989821211237</v>
+        <v>3.046601676794912</v>
       </c>
       <c r="R7" s="343">
         <f>IF($B7&gt;Inputs!$G$15,"",D7+K7+L7)</f>
-        <v>980158.30240855238</v>
+        <v>980162.27644452266</v>
       </c>
       <c r="S7" s="344">
         <f>IF($B7&gt;Inputs!$G$15,"",-(E7+F7+G7))</f>
-        <v>476255.95756786544</v>
+        <v>476603.73325436545</v>
       </c>
     </row>
     <row r="8" spans="2:19" s="154" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20144,11 +20144,11 @@
       </c>
       <c r="D8" s="149">
         <f>IF($B8&gt;Inputs!$G$15,"",LOOKUP($B8,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>995842.30222686566</v>
+        <v>995846.27626283583</v>
       </c>
       <c r="E8" s="149">
         <f>IF($B8&gt;Inputs!$G$15,"",LOOKUP($B8,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-169697.37734685774</v>
+        <v>-170048.95074385434</v>
       </c>
       <c r="F8" s="149">
         <f>IF($B8&gt;Inputs!$G$15,"",LOOKUP($B8,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20160,7 +20160,7 @@
       </c>
       <c r="H8" s="149">
         <f>IF($B8&gt;Inputs!$G$15,"",SUM(D8:G8))</f>
-        <v>522654.29133111757</v>
+        <v>522306.69197009114</v>
       </c>
       <c r="I8" s="149">
         <f>IF($B8&gt;Inputs!$G$15,"",LOOKUP($B8,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
@@ -20180,27 +20180,27 @@
       </c>
       <c r="M8" s="149">
         <f>IF($B8&gt;Inputs!$G$15,"",H8+K8+L8)</f>
-        <v>522654.29133111757</v>
+        <v>522306.69197009114</v>
       </c>
       <c r="N8" s="149">
         <f>IF($B8&gt;Inputs!$G$15,N7,N7+M8)</f>
-        <v>-2345096.2304085908</v>
+        <v>-2345986.3332186574</v>
       </c>
       <c r="O8" s="152">
         <f>IF($B8&gt;Inputs!$G$15,"",LOOKUP($B8,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>-0.52452653138527872</v>
+        <v>-0.52473228577743258</v>
       </c>
       <c r="P8" s="153">
         <f>IF($B8&gt;Inputs!$G$15,"",LOOKUP($B8,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.1242120970597602</v>
+        <v>3.1227993567840762</v>
       </c>
       <c r="R8" s="343">
         <f>IF($B8&gt;Inputs!$G$15,"",D8+K8+L8)</f>
-        <v>995842.30222686566</v>
+        <v>995846.27626283583</v>
       </c>
       <c r="S8" s="344">
         <f>IF($B8&gt;Inputs!$G$15,"",-(E8+F8+G8))</f>
-        <v>473188.01089574816</v>
+        <v>473539.58429274475</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
@@ -20213,11 +20213,11 @@
       </c>
       <c r="D9" s="149">
         <f>IF($B9&gt;Inputs!$G$15,"",LOOKUP($B9,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1011742.8751980274</v>
+        <v>1011746.8492339975</v>
       </c>
       <c r="E9" s="149">
         <f>IF($B9&gt;Inputs!$G$15,"",LOOKUP($B9,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-167159.86386932593</v>
+        <v>-167515.27644781771</v>
       </c>
       <c r="F9" s="149">
         <f>IF($B9&gt;Inputs!$G$15,"",LOOKUP($B9,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20229,7 +20229,7 @@
       </c>
       <c r="H9" s="149">
         <f>IF($B9&gt;Inputs!$G$15,"",SUM(D9:G9))</f>
-        <v>541092.37777981092</v>
+        <v>540740.93923728936</v>
       </c>
       <c r="I9" s="149">
         <f>IF($B9&gt;Inputs!$G$15,"",LOOKUP($B9,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
@@ -20249,27 +20249,27 @@
       </c>
       <c r="M9" s="149">
         <f>IF($B9&gt;Inputs!$G$15,"",H9+K9+L9)</f>
-        <v>541092.37777981092</v>
+        <v>540740.93923728936</v>
       </c>
       <c r="N9" s="149">
         <f>IF($B9&gt;Inputs!$G$15,N8,N8+M9)</f>
-        <v>-1804003.8526287798</v>
+        <v>-1805245.393981368</v>
       </c>
       <c r="O9" s="152">
         <f>IF($B9&gt;Inputs!$G$15,"",LOOKUP($B9,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>-0.3007021176193545</v>
+        <v>-0.30092547618662713</v>
       </c>
       <c r="P9" s="153">
         <f>IF($B9&gt;Inputs!$G$15,"",LOOKUP($B9,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.1991495976802899</v>
+        <v>3.197721253905486</v>
       </c>
       <c r="R9" s="343">
         <f>IF($B9&gt;Inputs!$G$15,"",D9+K9+L9)</f>
-        <v>1011742.8751980274</v>
+        <v>1011746.8492339975</v>
       </c>
       <c r="S9" s="344">
         <f>IF($B9&gt;Inputs!$G$15,"",-(E9+F9+G9))</f>
-        <v>470650.49741821637</v>
+        <v>471005.9099967081</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
@@ -20282,11 +20282,11 @@
       </c>
       <c r="D10" s="149">
         <f>IF($B10&gt;Inputs!$G$15,"",LOOKUP($B10,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1027863.2482620147</v>
+        <v>1027867.2222979849</v>
       </c>
       <c r="E10" s="149">
         <f>IF($B10&gt;Inputs!$G$15,"",LOOKUP($B10,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-165103.26337057885</v>
+        <v>-165462.55705442777</v>
       </c>
       <c r="F10" s="149">
         <f>IF($B10&gt;Inputs!$G$15,"",LOOKUP($B10,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20298,7 +20298,7 @@
       </c>
       <c r="H10" s="149">
         <f>IF($B10&gt;Inputs!$G$15,"",SUM(D10:G10))</f>
-        <v>559269.35134254536</v>
+        <v>558914.0316946666</v>
       </c>
       <c r="I10" s="149">
         <f>IF($B10&gt;Inputs!$G$15,"",LOOKUP($B10,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
@@ -20318,27 +20318,27 @@
       </c>
       <c r="M10" s="149">
         <f>IF($B10&gt;Inputs!$G$15,"",H10+K10+L10)</f>
-        <v>559269.35134254536</v>
+        <v>558914.0316946666</v>
       </c>
       <c r="N10" s="149">
         <f>IF($B10&gt;Inputs!$G$15,N9,N9+M10)</f>
-        <v>-1244734.5012862345</v>
+        <v>-1246331.3622867013</v>
       </c>
       <c r="O10" s="152">
         <f>IF($B10&gt;Inputs!$G$15,"",LOOKUP($B10,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>-0.15953073376141436</v>
+        <v>-0.15974807726122853</v>
       </c>
       <c r="P10" s="153">
         <f>IF($B10&gt;Inputs!$G$15,"",LOOKUP($B10,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.2730258630632028</v>
+        <v>3.2715817453990681</v>
       </c>
       <c r="R10" s="343">
         <f>IF($B10&gt;Inputs!$G$15,"",D10+K10+L10)</f>
-        <v>1027863.2482620147</v>
+        <v>1027867.2222979849</v>
       </c>
       <c r="S10" s="344">
         <f>IF($B10&gt;Inputs!$G$15,"",-(E10+F10+G10))</f>
-        <v>468593.89691946929</v>
+        <v>468953.19060331822</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
@@ -20351,11 +20351,11 @@
       </c>
       <c r="D11" s="149">
         <f>IF($B11&gt;Inputs!$G$15,"",LOOKUP($B11,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1044206.696440211</v>
+        <v>1044210.6704761812</v>
       </c>
       <c r="E11" s="149">
         <f>IF($B11&gt;Inputs!$G$15,"",LOOKUP($B11,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-163483.06320487408</v>
+        <v>-163846.28037575062</v>
       </c>
       <c r="F11" s="149">
         <f>IF($B11&gt;Inputs!$G$15,"",LOOKUP($B11,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20367,7 +20367,7 @@
       </c>
       <c r="H11" s="149">
         <f>IF($B11&gt;Inputs!$G$15,"",SUM(D11:G11))</f>
-        <v>577232.99968644651</v>
+        <v>576873.75655154011</v>
       </c>
       <c r="I11" s="149">
         <f>IF($B11&gt;Inputs!$G$15,"",LOOKUP($B11,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
@@ -20387,27 +20387,27 @@
       </c>
       <c r="M11" s="149">
         <f>IF($B11&gt;Inputs!$G$15,"",H11+K11+L11)</f>
-        <v>577232.99968644651</v>
+        <v>576873.75655154011</v>
       </c>
       <c r="N11" s="149">
         <f>IF($B11&gt;Inputs!$G$15,N10,N10+M11)</f>
-        <v>-667501.50159978797</v>
+        <v>-669457.60573516123</v>
       </c>
       <c r="O11" s="152">
         <f>IF($B11&gt;Inputs!$G$15,"",LOOKUP($B11,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>-6.7896493708758499E-2</v>
+        <v>-6.8101909925190829E-2</v>
       </c>
       <c r="P11" s="153">
         <f>IF($B11&gt;Inputs!$G$15,"",LOOKUP($B11,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.3460351155506523</v>
+        <v>3.3445750517463151</v>
       </c>
       <c r="R11" s="343">
         <f>IF($B11&gt;Inputs!$G$15,"",D11+K11+L11)</f>
-        <v>1044206.696440211</v>
+        <v>1044210.6704761812</v>
       </c>
       <c r="S11" s="344">
         <f>IF($B11&gt;Inputs!$G$15,"",-(E11+F11+G11))</f>
-        <v>466973.69675376447</v>
+        <v>467336.91392464103</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
@@ -20420,11 +20420,11 @@
       </c>
       <c r="D12" s="149">
         <f>IF($B12&gt;Inputs!$G$15,"",LOOKUP($B12,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1060776.543551818</v>
+        <v>1060780.5175877884</v>
       </c>
       <c r="E12" s="149">
         <f>IF($B12&gt;Inputs!$G$15,"",LOOKUP($B12,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-162259.25841606149</v>
+        <v>-162626.44191844403</v>
       </c>
       <c r="F12" s="149">
         <f>IF($B12&gt;Inputs!$G$15,"",LOOKUP($B12,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H12" s="149">
         <f>IF($B12&gt;Inputs!$G$15,"",SUM(D12:G12))</f>
-        <v>595026.65158686601</v>
+        <v>594663.44212045392</v>
       </c>
       <c r="I12" s="149">
         <f>IF($B12&gt;Inputs!$G$15,"",LOOKUP($B12,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
@@ -20456,27 +20456,27 @@
       </c>
       <c r="M12" s="149">
         <f>IF($B12&gt;Inputs!$G$15,"",H12+K12+L12)</f>
-        <v>595026.65158686601</v>
+        <v>594663.44212045392</v>
       </c>
       <c r="N12" s="149">
         <f>IF($B12&gt;Inputs!$G$15,N11,N11+M12)</f>
-        <v>-72474.850012921961</v>
+        <v>-74794.1636147073</v>
       </c>
       <c r="O12" s="152">
         <f>IF($B12&gt;Inputs!$G$15,"",LOOKUP($B12,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>-6.0089129658231766E-3</v>
+        <v>-6.201853358988707E-3</v>
       </c>
       <c r="P12" s="153">
         <f>IF($B12&gt;Inputs!$G$15,"",LOOKUP($B12,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.4183534553111032</v>
+        <v>3.4168772712347146</v>
       </c>
       <c r="R12" s="343">
         <f>IF($B12&gt;Inputs!$G$15,"",D12+K12+L12)</f>
-        <v>1060776.543551818</v>
+        <v>1060780.5175877884</v>
       </c>
       <c r="S12" s="344">
         <f>IF($B12&gt;Inputs!$G$15,"",-(E12+F12+G12))</f>
-        <v>465749.89196495194</v>
+        <v>466117.07546733442</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
@@ -20489,11 +20489,11 @@
       </c>
       <c r="D13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,"",LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1077576.1629409438</v>
+        <v>1077580.136976914</v>
       </c>
       <c r="E13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,"",LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-161395.90185900655</v>
+        <v>-161767.09500523508</v>
       </c>
       <c r="F13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,"",LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20505,15 +20505,15 @@
       </c>
       <c r="H13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,"",SUM(D13:G13))</f>
-        <v>612689.62753304676</v>
+        <v>612322.40842278849</v>
       </c>
       <c r="I13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,"",LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>184903.06233291165</v>
+        <v>182294.70482703811</v>
       </c>
       <c r="J13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,"",LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>184903.06233291165</v>
+        <v>182294.70482703811</v>
       </c>
       <c r="K13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,"",LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
@@ -20521,31 +20521,31 @@
       </c>
       <c r="L13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,"",LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-15716.760298297491</v>
+        <v>-15495.049910298239</v>
       </c>
       <c r="M13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,"",H13+K13+L13)</f>
-        <v>596972.86723474925</v>
+        <v>596827.35851249029</v>
       </c>
       <c r="N13" s="149">
         <f>IF($B13&gt;Inputs!$G$15,N12,N12+M13)</f>
-        <v>524498.01722182729</v>
+        <v>522033.19489778299</v>
       </c>
       <c r="O13" s="152">
         <f>IF($B13&gt;Inputs!$G$15,"",LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>3.637075460553163E-2</v>
+        <v>3.6201859870044428E-2</v>
       </c>
       <c r="P13" s="153">
         <f>IF($B13&gt;Inputs!$G$15,"",LOOKUP($B13,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.4901406917258191</v>
+        <v>3.4886482113440058</v>
       </c>
       <c r="R13" s="343">
         <f>IF($B13&gt;Inputs!$G$15,"",D13+K13+L13)</f>
-        <v>1061859.4026426463</v>
+        <v>1062085.0870666157</v>
       </c>
       <c r="S13" s="344">
         <f>IF($B13&gt;Inputs!$G$15,"",-(E13+F13+G13))</f>
-        <v>464886.53540789697</v>
+        <v>465257.72855412547</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
@@ -20558,11 +20558,11 @@
       </c>
       <c r="D14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,"",LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1094608.9782145231</v>
+        <v>1094612.9522504932</v>
       </c>
       <c r="E14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,"",LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-160860.69932293223</v>
+        <v>-161235.94589831759</v>
       </c>
       <c r="F14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,"",LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20574,15 +20574,15 @@
       </c>
       <c r="H14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,"",SUM(D14:G14))</f>
-        <v>630257.64534270042</v>
+        <v>629886.37280328525</v>
       </c>
       <c r="I14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,"",LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>751824.79161228216</v>
+        <v>751451.07901824825</v>
       </c>
       <c r="J14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,"",LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>751824.79161228216</v>
+        <v>751451.07901824825</v>
       </c>
       <c r="K14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,"",LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
@@ -20590,31 +20590,31 @@
       </c>
       <c r="L14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,"",LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-63905.107287043989</v>
+        <v>-63873.341716551105</v>
       </c>
       <c r="M14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,"",H14+K14+L14)</f>
-        <v>566352.53805565648</v>
+        <v>566013.03108673415</v>
       </c>
       <c r="N14" s="149">
         <f>IF($B14&gt;Inputs!$G$15,N13,N13+M14)</f>
-        <v>1090850.5552774838</v>
+        <v>1088046.225984517</v>
       </c>
       <c r="O14" s="152">
         <f>IF($B14&gt;Inputs!$G$15,"",LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>6.5032465700804121E-2</v>
+        <v>6.4870011562908836E-2</v>
       </c>
       <c r="P14" s="153">
         <f>IF($B14&gt;Inputs!$G$15,"",LOOKUP($B14,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.5615419919190776</v>
+        <v>3.5600330372761846</v>
       </c>
       <c r="R14" s="343">
         <f>IF($B14&gt;Inputs!$G$15,"",D14+K14+L14)</f>
-        <v>1030703.8709274791</v>
+        <v>1030739.6105339421</v>
       </c>
       <c r="S14" s="344">
         <f>IF($B14&gt;Inputs!$G$15,"",-(E14+F14+G14))</f>
-        <v>464351.33287182258</v>
+        <v>464726.57944720791</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
@@ -20627,11 +20627,11 @@
       </c>
       <c r="D15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,"",LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1111878.4639912338</v>
+        <v>1111882.438027204</v>
       </c>
       <c r="E15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,"",LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-160624.64515671003</v>
+        <v>-161003.98942469858</v>
       </c>
       <c r="F15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,"",LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20643,15 +20643,15 @@
       </c>
       <c r="H15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,"",SUM(D15:G15))</f>
-        <v>647763.18528563331</v>
+        <v>647387.81505361502</v>
       </c>
       <c r="I15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,"",LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>777488.19887455611</v>
+        <v>777110.38851202256</v>
       </c>
       <c r="J15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,"",LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>777488.19887455611</v>
+        <v>777110.38851202256</v>
       </c>
       <c r="K15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,"",LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
@@ -20659,31 +20659,31 @@
       </c>
       <c r="L15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,"",LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-66086.496904337269</v>
+        <v>-66054.383023521921</v>
       </c>
       <c r="M15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,"",H15+K15+L15)</f>
-        <v>581676.688381296</v>
+        <v>581333.43203009316</v>
       </c>
       <c r="N15" s="149">
         <f>IF($B15&gt;Inputs!$G$15,N14,N14+M15)</f>
-        <v>1672527.2436587797</v>
+        <v>1669379.6580146102</v>
       </c>
       <c r="O15" s="152">
         <f>IF($B15&gt;Inputs!$G$15,"",LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>8.666611882549069E-2</v>
+        <v>8.6510220369468316E-2</v>
       </c>
       <c r="P15" s="153">
         <f>IF($B15&gt;Inputs!$G$15,"",LOOKUP($B15,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.6326893647219207</v>
+        <v>3.6311637559190184</v>
       </c>
       <c r="R15" s="343">
         <f>IF($B15&gt;Inputs!$G$15,"",D15+K15+L15)</f>
-        <v>1045791.9670868965</v>
+        <v>1045828.0550036822</v>
       </c>
       <c r="S15" s="344">
         <f>IF($B15&gt;Inputs!$G$15,"",-(E15+F15+G15))</f>
-        <v>464115.27870560042</v>
+        <v>464494.62297358894</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
@@ -20696,11 +20696,11 @@
       </c>
       <c r="D16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,"",LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1123643.7022171291</v>
+        <v>1123647.6762530992</v>
       </c>
       <c r="E16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,"",LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-160661.69434613094</v>
+        <v>-161045.18105352594</v>
       </c>
       <c r="F16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,"",LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20712,15 +20712,15 @@
       </c>
       <c r="H16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,"",SUM(D16:G16))</f>
-        <v>716935.81876655214</v>
+        <v>716556.30609512725</v>
       </c>
       <c r="I16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,"",LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>694596.5730576975</v>
+        <v>694214.62033165398</v>
       </c>
       <c r="J16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,"",LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>694596.5730576975</v>
+        <v>694214.62033165398</v>
       </c>
       <c r="K16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,"",LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
@@ -20728,31 +20728,31 @@
       </c>
       <c r="L16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,"",LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-59040.708709904291</v>
+        <v>-59008.242728190591</v>
       </c>
       <c r="M16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,"",H16+K16+L16)</f>
-        <v>657895.1100566478</v>
+        <v>657548.06336693664</v>
       </c>
       <c r="N16" s="149">
         <f>IF($B16&gt;Inputs!$G$15,N15,N15+M16)</f>
-        <v>2330422.3537154272</v>
+        <v>2326927.7213815469</v>
       </c>
       <c r="O16" s="152">
         <f>IF($B16&gt;Inputs!$G$15,"",LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.10477092525838883</v>
+        <v>0.10462254560186612</v>
       </c>
       <c r="P16" s="153">
         <f>IF($B16&gt;Inputs!$G$15,"",LOOKUP($B16,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.9138261453105243</v>
+        <v>3.9122837004841839</v>
       </c>
       <c r="R16" s="343">
         <f>IF($B16&gt;Inputs!$G$15,"",D16+K16+L16)</f>
-        <v>1064602.9935072248</v>
+        <v>1064639.4335249087</v>
       </c>
       <c r="S16" s="344">
         <f>IF($B16&gt;Inputs!$G$15,"",-(E16+F16+G16))</f>
-        <v>406707.88345057692</v>
+        <v>407091.37015797192</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
@@ -20765,11 +20765,11 @@
       </c>
       <c r="D17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,"",LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1135677.1607148123</v>
+        <v>1135681.1347507825</v>
       </c>
       <c r="E17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,"",LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-160948.46739818781</v>
+        <v>-161336.14178042757</v>
       </c>
       <c r="F17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,"",LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20781,47 +20781,47 @@
       </c>
       <c r="H17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,"",SUM(D17:G17))</f>
-        <v>668793.61532328965</v>
+        <v>668409.91497702012</v>
       </c>
       <c r="I17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,"",LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>653646.7894952856</v>
+        <v>653260.6490185007</v>
       </c>
       <c r="J17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,"",LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>653646.7894952856</v>
+        <v>653260.6490185007</v>
       </c>
       <c r="K17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,"",LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-13552.627773117652</v>
+        <v>-12230.644206815166</v>
       </c>
       <c r="L17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,"",LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-55559.977107099279</v>
+        <v>-55527.155166572564</v>
       </c>
       <c r="M17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,"",H17+K17+L17)</f>
-        <v>599681.01044307277</v>
+        <v>600652.11560363241</v>
       </c>
       <c r="N17" s="149">
         <f>IF($B17&gt;Inputs!$G$15,N16,N16+M17)</f>
-        <v>2930103.3641585</v>
+        <v>2927579.8369851792</v>
       </c>
       <c r="O17" s="152">
         <f>IF($B17&gt;Inputs!$G$15,"",LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.11719880854922615</v>
+        <v>0.11708082561430722</v>
       </c>
       <c r="P17" s="153">
         <f>IF($B17&gt;Inputs!$G$15,"",LOOKUP($B17,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.7181628691651407</v>
+        <v>3.7166034044659875</v>
       </c>
       <c r="R17" s="343">
         <f>IF($B17&gt;Inputs!$G$15,"",D17+K17+L17)</f>
-        <v>1066564.5558345953</v>
+        <v>1067923.3353773947</v>
       </c>
       <c r="S17" s="344">
         <f>IF($B17&gt;Inputs!$G$15,"",-(E17+F17+G17))</f>
-        <v>466883.5453915227</v>
+        <v>467271.21977376239</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.2">
@@ -20834,11 +20834,11 @@
       </c>
       <c r="D18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,"",LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1153726.9161885555</v>
+        <v>1153730.8902245257</v>
       </c>
       <c r="E18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,"",LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-161463.98475190054</v>
+        <v>-161855.89253839434</v>
       </c>
       <c r="F18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,"",LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20850,47 +20850,47 @@
       </c>
       <c r="H18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,"",SUM(D18:G18))</f>
-        <v>686327.85344332014</v>
+        <v>685939.91969279654</v>
       </c>
       <c r="I18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,"",LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>747454.030407093</v>
+        <v>747063.65674952755</v>
       </c>
       <c r="J18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,"",LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>747454.030407093</v>
+        <v>747063.65674952755</v>
       </c>
       <c r="K18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,"",LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-239372.15323787153</v>
+        <v>-239247.13607403619</v>
       </c>
       <c r="L18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,"",LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-63533.592584602913</v>
+        <v>-63500.410823709848</v>
       </c>
       <c r="M18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,"",H18+K18+L18)</f>
-        <v>383422.10762084567</v>
+        <v>383192.3727950505</v>
       </c>
       <c r="N18" s="149">
         <f>IF($B18&gt;Inputs!$G$15,N17,N17+M18)</f>
-        <v>3313525.4717793455</v>
+        <v>3310772.2097802297</v>
       </c>
       <c r="O18" s="152">
         <f>IF($B18&gt;Inputs!$G$15,"",LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.12348588784606185</v>
+        <v>0.12336876655400308</v>
       </c>
       <c r="P18" s="153">
         <f>IF($B18&gt;Inputs!$G$15,"",LOOKUP($B18,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.7894268793245796</v>
+        <v>3.7878502088956023</v>
       </c>
       <c r="R18" s="343">
         <f>IF($B18&gt;Inputs!$G$15,"",D18+K18+L18)</f>
-        <v>850821.17036608106</v>
+        <v>850983.34332677978</v>
       </c>
       <c r="S18" s="344">
         <f>IF($B18&gt;Inputs!$G$15,"",-(E18+F18+G18))</f>
-        <v>467399.06274523539</v>
+        <v>467790.97053172917</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
@@ -20903,11 +20903,11 @@
       </c>
       <c r="D19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,"",LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1172027.7661299685</v>
+        <v>1172031.7401659386</v>
       </c>
       <c r="E19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,"",LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-162189.42776326663</v>
+        <v>-162585.61518278896</v>
       </c>
       <c r="F19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,"",LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20919,47 +20919,47 @@
       </c>
       <c r="H19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,"",SUM(D19:G19))</f>
-        <v>703903.260373367</v>
+        <v>703511.04698981484</v>
       </c>
       <c r="I19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,"",LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>815436.03466788481</v>
+        <v>815041.3813013942</v>
       </c>
       <c r="J19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,"",LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>815436.03466788481</v>
+        <v>815041.3813013942</v>
       </c>
       <c r="K19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,"",LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-261143.39010239008</v>
+        <v>-261017.00236177148</v>
       </c>
       <c r="L19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,"",LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-69312.062946770209</v>
+        <v>-69278.517410618515</v>
       </c>
       <c r="M19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,"",H19+K19+L19)</f>
-        <v>373447.80732420669</v>
+        <v>373215.52721742482</v>
       </c>
       <c r="N19" s="149">
         <f>IF($B19&gt;Inputs!$G$15,N18,N18+M19)</f>
-        <v>3686973.279103552</v>
+        <v>3683987.7369976547</v>
       </c>
       <c r="O19" s="152">
         <f>IF($B19&gt;Inputs!$G$15,"",LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.12849834907149127</v>
+        <v>0.12838225573080542</v>
       </c>
       <c r="P19" s="153">
         <f>IF($B19&gt;Inputs!$G$15,"",LOOKUP($B19,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.8608582109538867</v>
+        <v>3.8592641469085147</v>
       </c>
       <c r="R19" s="343">
         <f>IF($B19&gt;Inputs!$G$15,"",D19+K19+L19)</f>
-        <v>841572.31308080815</v>
+        <v>841736.22039354872</v>
       </c>
       <c r="S19" s="344">
         <f>IF($B19&gt;Inputs!$G$15,"",-(E19+F19+G19))</f>
-        <v>468124.50575660146</v>
+        <v>468520.69317612378</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
@@ -20972,11 +20972,11 @@
       </c>
       <c r="D20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,"",LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1190583.4518466196</v>
+        <v>1190587.4258825898</v>
       </c>
       <c r="E20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,"",LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-163107.92360716546</v>
+        <v>-163508.43739330897</v>
       </c>
       <c r="F20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,"",LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -20988,47 +20988,47 @@
       </c>
       <c r="H20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,"",SUM(D20:G20))</f>
-        <v>721540.45024611929</v>
+        <v>721143.91049594607</v>
       </c>
       <c r="I20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,"",LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>844574.55879950628</v>
+        <v>844175.5791422911</v>
       </c>
       <c r="J20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,"",LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>844574.55879950628</v>
+        <v>844175.5791422911</v>
       </c>
       <c r="K20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,"",LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-270475.00245554186</v>
+        <v>-270347.22922031872</v>
       </c>
       <c r="L20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,"",LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-71788.83749795804</v>
+        <v>-71754.924227094743</v>
       </c>
       <c r="M20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,"",H20+K20+L20)</f>
-        <v>379276.61029261939</v>
+        <v>379041.7570485326</v>
       </c>
       <c r="N20" s="149">
         <f>IF($B20&gt;Inputs!$G$15,N19,N19+M20)</f>
-        <v>4066249.8893961716</v>
+        <v>4063029.494046187</v>
       </c>
       <c r="O20" s="152">
         <f>IF($B20&gt;Inputs!$G$15,"",LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.13268351093242692</v>
+        <v>0.13256864023169501</v>
       </c>
       <c r="P20" s="153">
         <f>IF($B20&gt;Inputs!$G$15,"",LOOKUP($B20,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>3.9325406456095422</v>
+        <v>3.9309289980094855</v>
       </c>
       <c r="R20" s="343">
         <f>IF($B20&gt;Inputs!$G$15,"",D20+K20+L20)</f>
-        <v>848319.61189311976</v>
+        <v>848485.2724351763</v>
       </c>
       <c r="S20" s="344">
         <f>IF($B20&gt;Inputs!$G$15,"",-(E20+F20+G20))</f>
-        <v>469043.00160050025</v>
+        <v>469443.51538664376</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
@@ -21041,11 +21041,11 @@
       </c>
       <c r="D21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,"",LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1209397.7703915602</v>
+        <v>1209401.7444275303</v>
       </c>
       <c r="E21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,"",LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-164204.35170476363</v>
+        <v>-164609.23910145182</v>
       </c>
       <c r="F21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,"",LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21057,47 +21057,47 @@
       </c>
       <c r="H21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,"",SUM(D21:G21))</f>
-        <v>739258.34069346171</v>
+        <v>738857.42733274365</v>
       </c>
       <c r="I21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,"",LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>904326.80978886655</v>
+        <v>903923.45644521003</v>
       </c>
       <c r="J21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,"",LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>904326.80978886655</v>
+        <v>903923.45644521003</v>
       </c>
       <c r="K21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,"",LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-289610.6608348845</v>
+        <v>-289481.48692657851</v>
       </c>
       <c r="L21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,"",LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-76867.778832053664</v>
+        <v>-76833.493797842864</v>
       </c>
       <c r="M21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,"",H21+K21+L21)</f>
-        <v>372779.90102652356</v>
+        <v>372542.44660832227</v>
       </c>
       <c r="N21" s="149">
         <f>IF($B21&gt;Inputs!$G$15,N20,N20+M21)</f>
-        <v>4439029.7904226948</v>
+        <v>4435571.9406545097</v>
       </c>
       <c r="O21" s="152">
         <f>IF($B21&gt;Inputs!$G$15,"",LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.13607891962268859</v>
+        <v>0.13596524984509628</v>
       </c>
       <c r="P21" s="153">
         <f>IF($B21&gt;Inputs!$G$15,"",LOOKUP($B21,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>4.004551069797909</v>
+        <v>4.0029216466307496</v>
       </c>
       <c r="R21" s="343">
         <f>IF($B21&gt;Inputs!$G$15,"",D21+K21+L21)</f>
-        <v>842919.33072462201</v>
+        <v>843086.763703109</v>
       </c>
       <c r="S21" s="344">
         <f>IF($B21&gt;Inputs!$G$15,"",-(E21+F21+G21))</f>
-        <v>470139.42969809845</v>
+        <v>470544.31709478667</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
@@ -21110,11 +21110,11 @@
       </c>
       <c r="D22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,"",LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1228474.575393931</v>
+        <v>1228478.5494299012</v>
       </c>
       <c r="E22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,"",LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-165465.1695241211</v>
+        <v>-165874.47829118112</v>
       </c>
       <c r="F22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,"",LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21126,47 +21126,47 @@
       </c>
       <c r="H22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,"",SUM(D22:G22))</f>
-        <v>757074.32787647506</v>
+        <v>756668.99314538518</v>
       </c>
       <c r="I22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,"",LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>988428.92154857132</v>
+        <v>988021.2184430107</v>
       </c>
       <c r="J22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,"",LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>988428.92154857132</v>
+        <v>988021.2184430107</v>
       </c>
       <c r="K22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,"",LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-316544.36212592991</v>
+        <v>-316413.7952063742</v>
       </c>
       <c r="L22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,"",LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-84016.458331628572</v>
+        <v>-83981.803567655908</v>
       </c>
       <c r="M22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,"",H22+K22+L22)</f>
-        <v>356513.50741891656</v>
+        <v>356273.39437135507</v>
       </c>
       <c r="N22" s="149">
         <f>IF($B22&gt;Inputs!$G$15,N21,N21+M22)</f>
-        <v>4795543.2978416113</v>
+        <v>4791845.3350258647</v>
       </c>
       <c r="O22" s="152">
         <f>IF($B22&gt;Inputs!$G$15,"",LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.13877489160113154</v>
+        <v>0.13866228607410536</v>
       </c>
       <c r="P22" s="153">
         <f>IF($B22&gt;Inputs!$G$15,"",LOOKUP($B22,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>4.0769601863457394</v>
+        <v>4.0753127935022855</v>
       </c>
       <c r="R22" s="343">
         <f>IF($B22&gt;Inputs!$G$15,"",D22+K22+L22)</f>
-        <v>827913.75493637251</v>
+        <v>828082.95065587107</v>
       </c>
       <c r="S22" s="344">
         <f>IF($B22&gt;Inputs!$G$15,"",-(E22+F22+G22))</f>
-        <v>471400.24751745595</v>
+        <v>471809.55628451594</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
@@ -21179,11 +21179,11 @@
       </c>
       <c r="D23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,"",LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1247817.7779019484</v>
+        <v>1247821.7519379186</v>
       </c>
       <c r="E23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,"",LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-166878.25581692869</v>
+        <v>-167292.034235725</v>
       </c>
       <c r="F23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,"",LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21195,47 +21195,47 @@
       </c>
       <c r="H23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,"",SUM(D23:G23))</f>
-        <v>775004.444091685</v>
+        <v>774594.6397088588</v>
       </c>
       <c r="I23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,"",LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>1043760.9621703546</v>
+        <v>1043348.8609456287</v>
       </c>
       <c r="J23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,"",LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>1043760.9621703546</v>
+        <v>1043348.8609456287</v>
       </c>
       <c r="K23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,"",LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-334264.44813505601</v>
+        <v>-334132.47271783755</v>
       </c>
       <c r="L23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,"",LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-88719.681784480141</v>
+        <v>-88684.653180378446</v>
       </c>
       <c r="M23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,"",H23+K23+L23)</f>
-        <v>352020.31417214882</v>
+        <v>351777.51381064282</v>
       </c>
       <c r="N23" s="149">
         <f>IF($B23&gt;Inputs!$G$15,N22,N22+M23)</f>
-        <v>5147563.61201376</v>
+        <v>5143622.8488365076</v>
       </c>
       <c r="O23" s="152">
         <f>IF($B23&gt;Inputs!$G$15,"",LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.14099651931398793</v>
+        <v>0.14088492497081706</v>
       </c>
       <c r="P23" s="153">
         <f>IF($B23&gt;Inputs!$G$15,"",LOOKUP($B23,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>4.1498331549557053</v>
+        <v>4.1481675962070907</v>
       </c>
       <c r="R23" s="343">
         <f>IF($B23&gt;Inputs!$G$15,"",D23+K23+L23)</f>
-        <v>824833.64798241225</v>
+        <v>825004.62603970256</v>
       </c>
       <c r="S23" s="344">
         <f>IF($B23&gt;Inputs!$G$15,"",-(E23+F23+G23))</f>
-        <v>472813.33381026355</v>
+        <v>473227.1122290598</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
@@ -21248,11 +21248,11 @@
       </c>
       <c r="D24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,"",LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1267431.3472384464</v>
+        <v>1267435.3212744168</v>
       </c>
       <c r="E24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,"",LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-168432.76954801998</v>
+        <v>-168851.06642714958</v>
       </c>
       <c r="F24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,"",LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21264,47 +21264,47 @@
       </c>
       <c r="H24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,"",SUM(D24:G24))</f>
-        <v>793063.49969709141</v>
+        <v>792649.17685393232</v>
       </c>
       <c r="I24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,"",LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>1076863.4567113109</v>
+        <v>1076446.8370262522</v>
       </c>
       <c r="J24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,"",LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>1076863.4567113109</v>
+        <v>1076446.8370262522</v>
       </c>
       <c r="K24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,"",LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-344865.52201179729</v>
+        <v>-344732.09955765726</v>
       </c>
       <c r="L24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,"",LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-91533.393820461439</v>
+        <v>-91497.981147231447</v>
       </c>
       <c r="M24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,"",H24+K24+L24)</f>
-        <v>356664.58386483265</v>
+        <v>356419.09614904365</v>
       </c>
       <c r="N24" s="149">
         <f>IF($B24&gt;Inputs!$G$15,N23,N23+M24)</f>
-        <v>5504228.1958785923</v>
+        <v>5500041.9449855518</v>
       </c>
       <c r="O24" s="152">
         <f>IF($B24&gt;Inputs!$G$15,"",LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.14288140018472451</v>
+        <v>0.1427708072771916</v>
       </c>
       <c r="P24" s="153">
         <f>IF($B24&gt;Inputs!$G$15,"",LOOKUP($B24,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
-        <v>4.2232301690331733</v>
+        <v>4.2215462460077156</v>
       </c>
       <c r="R24" s="343">
         <f>IF($B24&gt;Inputs!$G$15,"",D24+K24+L24)</f>
-        <v>831032.43140618759</v>
+        <v>831205.24056952808</v>
       </c>
       <c r="S24" s="344">
         <f>IF($B24&gt;Inputs!$G$15,"",-(E24+F24+G24))</f>
-        <v>474367.84754135483</v>
+        <v>474786.14442048443</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.2">
@@ -21317,11 +21317,11 @@
       </c>
       <c r="D25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,"",LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1286089.0809236474</v>
+        <v>1286093.0549596176</v>
       </c>
       <c r="E25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,"",LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-170119.02294864072</v>
+        <v>-170541.88762969041</v>
       </c>
       <c r="F25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,"",LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21333,35 +21333,35 @@
       </c>
       <c r="H25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,"",SUM(D25:G25))</f>
-        <v>1179104.2636383409</v>
+        <v>1178685.3729932613</v>
       </c>
       <c r="I25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,"",LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>1109931.41665693</v>
+        <v>1109510.2291699508</v>
       </c>
       <c r="J25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,"",LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>1109931.41665693</v>
+        <v>1109510.2291699508</v>
       </c>
       <c r="K25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,"",LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-355455.53618438181</v>
+        <v>-355320.65089167672</v>
       </c>
       <c r="L25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,"",LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-94344.170415839064</v>
+        <v>-94308.369479445828</v>
       </c>
       <c r="M25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,"",H25+K25+L25)</f>
-        <v>729304.55703811999</v>
+        <v>729056.35262213869</v>
       </c>
       <c r="N25" s="149">
         <f>IF($B25&gt;Inputs!$G$15,N24,N24+M25)</f>
-        <v>6233532.7529167123</v>
+        <v>6229098.2976076901</v>
       </c>
       <c r="O25" s="152">
         <f>IF($B25&gt;Inputs!$G$15,"",LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.14605519286323898</v>
+        <v>0.14594754414249134</v>
       </c>
       <c r="P25" s="153" t="str">
         <f>IF($B25&gt;Inputs!$G$15,"",LOOKUP($B25,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
@@ -21369,11 +21369,11 @@
       </c>
       <c r="R25" s="343">
         <f>IF($B25&gt;Inputs!$G$15,"",D25+K25+L25)</f>
-        <v>836289.37432342651</v>
+        <v>836464.03458849492</v>
       </c>
       <c r="S25" s="344">
         <f>IF($B25&gt;Inputs!$G$15,"",-(E25+F25+G25))</f>
-        <v>106984.81728530662</v>
+        <v>107407.68196635631</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
@@ -21386,11 +21386,11 @@
       </c>
       <c r="D26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,"",LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>1299036.4095040683</v>
+        <v>1299040.3835400385</v>
       </c>
       <c r="E26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,"",LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-171928.36728136329</v>
+        <v>-172355.84964473004</v>
       </c>
       <c r="F26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,"",LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21402,35 +21402,35 @@
       </c>
       <c r="H26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,"",SUM(D26:G26))</f>
-        <v>1127108.042222705</v>
+        <v>1126684.5338953084</v>
       </c>
       <c r="I26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,"",LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>1013269.4009046282</v>
+        <v>1012843.595735332</v>
       </c>
       <c r="J26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,"",LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>1013269.4009046282</v>
+        <v>1012843.595735332</v>
       </c>
       <c r="K26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,"",LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-324499.52563970716</v>
+        <v>-324363.16153424006</v>
       </c>
       <c r="L26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,"",LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-86127.899076893402</v>
+        <v>-86091.705637503226</v>
       </c>
       <c r="M26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,"",H26+K26+L26)</f>
-        <v>716480.61750610429</v>
+        <v>716229.6667235652</v>
       </c>
       <c r="N26" s="149">
         <f>IF($B26&gt;Inputs!$G$15,N25,N25+M26)</f>
-        <v>6950013.3704228168</v>
+        <v>6945327.9643312553</v>
       </c>
       <c r="O26" s="152">
         <f>IF($B26&gt;Inputs!$G$15,"",LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.14858888330759368</v>
+        <v>0.14848362806738247</v>
       </c>
       <c r="P26" s="153" t="str">
         <f>IF($B26&gt;Inputs!$G$15,"",LOOKUP($B26,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
@@ -21438,11 +21438,11 @@
       </c>
       <c r="R26" s="343">
         <f>IF($B26&gt;Inputs!$G$15,"",D26+K26+L26)</f>
-        <v>888408.98478746763</v>
+        <v>888585.5163682953</v>
       </c>
       <c r="S26" s="344">
         <f>IF($B26&gt;Inputs!$G$15,"",-(E26+F26+G26))</f>
-        <v>171928.36728136329</v>
+        <v>172355.84964473004</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
@@ -21455,11 +21455,11 @@
       </c>
       <c r="D27" s="149">
         <f>IF($B27&gt;Inputs!$G$15,"",LOOKUP($B27,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>285715.27504491864</v>
+        <v>285719.24908088887</v>
       </c>
       <c r="E27" s="149">
         <f>IF($B27&gt;Inputs!$G$15,"",LOOKUP($B27,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-143037.61689708984</v>
+        <v>-143469.76736786455</v>
       </c>
       <c r="F27" s="149">
         <f>IF($B27&gt;Inputs!$G$15,"",LOOKUP($B27,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21471,7 +21471,7 @@
       </c>
       <c r="H27" s="149">
         <f>IF($B27&gt;Inputs!$G$15,"",SUM(D27:G27))</f>
-        <v>142677.6581478288</v>
+        <v>142249.48171302432</v>
       </c>
       <c r="I27" s="149">
         <f>IF($B27&gt;Inputs!$G$15,"",LOOKUP($B27,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
@@ -21491,15 +21491,15 @@
       </c>
       <c r="M27" s="149">
         <f>IF($B27&gt;Inputs!$G$15,"",H27+K27+L27)</f>
-        <v>142677.6581478288</v>
+        <v>142249.48171302432</v>
       </c>
       <c r="N27" s="149">
         <f>IF($B27&gt;Inputs!$G$15,N26,N26+M27)</f>
-        <v>7092691.0285706455</v>
+        <v>7087577.4460442793</v>
       </c>
       <c r="O27" s="152">
         <f>IF($B27&gt;Inputs!$G$15,"",LOOKUP($B27,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.14901175569919389</v>
+        <v>0.1489058074056262</v>
       </c>
       <c r="P27" s="153" t="str">
         <f>IF($B27&gt;Inputs!$G$15,"",LOOKUP($B27,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
@@ -21507,11 +21507,11 @@
       </c>
       <c r="R27" s="343">
         <f>IF($B27&gt;Inputs!$G$15,"",D27+K27+L27)</f>
-        <v>285715.27504491864</v>
+        <v>285719.24908088887</v>
       </c>
       <c r="S27" s="344">
         <f>IF($B27&gt;Inputs!$G$15,"",-(E27+F27+G27))</f>
-        <v>143037.61689708984</v>
+        <v>143469.76736786455</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.2">
@@ -21524,11 +21524,11 @@
       </c>
       <c r="D28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,"",LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>292775.22663308692</v>
+        <v>292779.20066905714</v>
       </c>
       <c r="E28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,"",LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-144696.50343225291</v>
+        <v>-145133.37298616848</v>
       </c>
       <c r="F28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,"",LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21540,35 +21540,35 @@
       </c>
       <c r="H28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,"",SUM(D28:G28))</f>
-        <v>148078.72320083401</v>
+        <v>147645.82768288866</v>
       </c>
       <c r="I28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,"",LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>11769.060689624399</v>
+        <v>10906.840315924754</v>
       </c>
       <c r="J28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,"",LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>11769.060689624399</v>
+        <v>10906.840315924754</v>
       </c>
       <c r="K28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,"",LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-3769.0416858522135</v>
+        <v>-3492.9156111749016</v>
       </c>
       <c r="L28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,"",LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-1000.370158618074</v>
+        <v>-927.08142685360417</v>
       </c>
       <c r="M28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,"",H28+K28+L28)</f>
-        <v>143309.3113563637</v>
+        <v>143225.83064486017</v>
       </c>
       <c r="N28" s="149">
         <f>IF($B28&gt;Inputs!$G$15,N27,N27+M28)</f>
-        <v>7236000.3399270093</v>
+        <v>7230803.2766891392</v>
       </c>
       <c r="O28" s="152">
         <f>IF($B28&gt;Inputs!$G$15,"",LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.14937736194131102</v>
+        <v>0.14927173531825622</v>
       </c>
       <c r="P28" s="153" t="str">
         <f>IF($B28&gt;Inputs!$G$15,"",LOOKUP($B28,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
@@ -21576,11 +21576,11 @@
       </c>
       <c r="R28" s="343">
         <f>IF($B28&gt;Inputs!$G$15,"",D28+K28+L28)</f>
-        <v>288005.81478861661</v>
+        <v>288359.20363102865</v>
       </c>
       <c r="S28" s="344">
         <f>IF($B28&gt;Inputs!$G$15,"",-(E28+F28+G28))</f>
-        <v>144696.50343225291</v>
+        <v>145133.37298616848</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.2">
@@ -21593,11 +21593,11 @@
       </c>
       <c r="D29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,"",LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>300010.61801822105</v>
+        <v>300014.59205419128</v>
       </c>
       <c r="E29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,"",LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-146454.32102878782</v>
+        <v>-146895.96119823214</v>
       </c>
       <c r="F29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,"",LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21609,35 +21609,35 @@
       </c>
       <c r="H29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,"",SUM(D29:G29))</f>
-        <v>153556.29698943323</v>
+        <v>153118.63085595914</v>
       </c>
       <c r="I29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,"",LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>91463.496989433246</v>
+        <v>91025.830855959153</v>
       </c>
       <c r="J29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,"",LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>91463.496989433246</v>
+        <v>91025.830855959153</v>
       </c>
       <c r="K29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,"",LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-29291.184910865995</v>
+        <v>-29151.022331620919</v>
       </c>
       <c r="L29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,"",LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-7774.3972441018268</v>
+        <v>-7737.1956227565288</v>
       </c>
       <c r="M29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,"",H29+K29+L29)</f>
-        <v>116490.71483446541</v>
+        <v>116230.4129015817</v>
       </c>
       <c r="N29" s="149">
         <f>IF($B29&gt;Inputs!$G$15,N28,N28+M29)</f>
-        <v>7352491.054761475</v>
+        <v>7347033.6895907205</v>
       </c>
       <c r="O29" s="152">
         <f>IF($B29&gt;Inputs!$G$15,"",LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.14963356127419414</v>
+        <v>0.14952775920033456</v>
       </c>
       <c r="P29" s="153" t="str">
         <f>IF($B29&gt;Inputs!$G$15,"",LOOKUP($B29,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
@@ -21645,11 +21645,11 @@
       </c>
       <c r="R29" s="343">
         <f>IF($B29&gt;Inputs!$G$15,"",D29+K29+L29)</f>
-        <v>262945.03586325317</v>
+        <v>263126.37409981381</v>
       </c>
       <c r="S29" s="344">
         <f>IF($B29&gt;Inputs!$G$15,"",-(E29+F29+G29))</f>
-        <v>146454.32102878782</v>
+        <v>146895.96119823214</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.2">
@@ -21662,11 +21662,11 @@
       </c>
       <c r="D30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,"",LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>307425.80887927586</v>
+        <v>307429.78291524609</v>
       </c>
       <c r="E30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,"",LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-148305.64771697632</v>
+        <v>-148752.11059707098</v>
       </c>
       <c r="F30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,"",LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21678,35 +21678,35 @@
       </c>
       <c r="H30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,"",SUM(D30:G30))</f>
-        <v>159120.16116229954</v>
+        <v>158677.67231817511</v>
       </c>
       <c r="I30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,"",LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>97027.361162299552</v>
+        <v>96584.872318175127</v>
       </c>
       <c r="J30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,"",LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>97027.361162299552</v>
+        <v>96584.872318175127</v>
       </c>
       <c r="K30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,"",LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-31073.012412226428</v>
+        <v>-30931.305359895581</v>
       </c>
       <c r="L30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,"",LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-8247.3256987954628</v>
+        <v>-8209.714147044886</v>
       </c>
       <c r="M30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,"",H30+K30+L30)</f>
-        <v>119799.82305127765</v>
+        <v>119536.65281123466</v>
       </c>
       <c r="N30" s="149">
         <f>IF($B30&gt;Inputs!$G$15,N29,N29+M30)</f>
-        <v>7472290.8778127525</v>
+        <v>7466570.3424019553</v>
       </c>
       <c r="O30" s="152">
         <f>IF($B30&gt;Inputs!$G$15,"",LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.14986101492502568</v>
+        <v>0.14975508765074008</v>
       </c>
       <c r="P30" s="153" t="str">
         <f>IF($B30&gt;Inputs!$G$15,"",LOOKUP($B30,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
@@ -21714,11 +21714,11 @@
       </c>
       <c r="R30" s="343">
         <f>IF($B30&gt;Inputs!$G$15,"",D30+K30+L30)</f>
-        <v>268105.47076825402</v>
+        <v>268288.76340830565</v>
       </c>
       <c r="S30" s="344">
         <f>IF($B30&gt;Inputs!$G$15,"",-(E30+F30+G30))</f>
-        <v>148305.64771697632</v>
+        <v>148752.11059707098</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.2">
@@ -21731,11 +21731,11 @@
       </c>
       <c r="D31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$23:$AJ$23))</f>
-        <v>314218.96951294615</v>
+        <v>314220.95653093129</v>
       </c>
       <c r="E31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$35:$AJ$35))</f>
-        <v>-150245.68107767607</v>
+        <v>-150697.01933242136</v>
       </c>
       <c r="F31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$85:$AJ$85))</f>
@@ -21743,39 +21743,39 @@
       </c>
       <c r="G31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$47:$AJ$47)+LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$48:$AJ$48))</f>
-        <v>80629.772028171865</v>
+        <v>80828.473826683039</v>
       </c>
       <c r="H31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",SUM(D31:G31))</f>
-        <v>244603.06046344194</v>
+        <v>244352.41102519297</v>
       </c>
       <c r="I31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$60:$AJ$60))</f>
-        <v>132926.88843527008</v>
+        <v>132477.53719850993</v>
       </c>
       <c r="J31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$61:$AJ$61))</f>
-        <v>132926.88843527008</v>
+        <v>132477.53719850993</v>
       </c>
       <c r="K31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$63:$AJ$63)+LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$65:$AJ$65))</f>
-        <v>-42569.83602139524</v>
+        <v>-42425.931287822801</v>
       </c>
       <c r="L31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$64:$AJ$64)+LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$66:$AJ$66))</f>
-        <v>-11298.785516997958</v>
+        <v>-11260.590661873344</v>
       </c>
       <c r="M31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,"",H31+K31+L31)</f>
-        <v>190734.43892504877</v>
+        <v>190665.88907549682</v>
       </c>
       <c r="N31" s="149">
         <f>IF($B31&gt;Inputs!$G$15,N30,N30+M31)</f>
-        <v>7663025.3167378008</v>
+        <v>7657236.2314774524</v>
       </c>
       <c r="O31" s="152">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
-        <v>0.15017314138294102</v>
+        <v>0.15006764381260651</v>
       </c>
       <c r="P31" s="153" t="str">
         <f>IF($B31&gt;Inputs!$G$15,"",LOOKUP($B31,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$41:$AJ$41))</f>
@@ -21783,11 +21783,11 @@
       </c>
       <c r="R31" s="343">
         <f>IF($B31&gt;Inputs!$G$15,"",D31+K31+L31)</f>
-        <v>260350.34797455298</v>
+        <v>260534.43458123517</v>
       </c>
       <c r="S31" s="344">
         <f>IF($B31&gt;Inputs!$G$15,"",-(E31+F31+G31))</f>
-        <v>69615.909049504204</v>
+        <v>69868.545505738322</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.2">
@@ -21840,7 +21840,7 @@
       </c>
       <c r="N32" s="149">
         <f>IF($B32&gt;Inputs!$G$15,N31,N31+M32)</f>
-        <v>7663025.3167378008</v>
+        <v>7657236.2314774524</v>
       </c>
       <c r="O32" s="152" t="str">
         <f>IF($B32&gt;Inputs!$G$15,"",LOOKUP($B32,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="N33" s="149">
         <f>IF($B33&gt;Inputs!$G$15,N32,N32+M33)</f>
-        <v>7663025.3167378008</v>
+        <v>7657236.2314774524</v>
       </c>
       <c r="O33" s="152" t="str">
         <f>IF($B33&gt;Inputs!$G$15,"",LOOKUP($B33,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
@@ -21978,7 +21978,7 @@
       </c>
       <c r="N34" s="149">
         <f>IF($B34&gt;Inputs!$G$15,N33,N33+M34)</f>
-        <v>7663025.3167378008</v>
+        <v>7657236.2314774524</v>
       </c>
       <c r="O34" s="152" t="str">
         <f>IF($B34&gt;Inputs!$G$15,"",LOOKUP($B34,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
@@ -22047,7 +22047,7 @@
       </c>
       <c r="N35" s="149">
         <f>IF($B35&gt;Inputs!$G$15,N34,N34+M35)</f>
-        <v>7663025.3167378008</v>
+        <v>7657236.2314774524</v>
       </c>
       <c r="O35" s="152" t="str">
         <f>IF($B35&gt;Inputs!$G$15,"",LOOKUP($B35,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
@@ -22116,7 +22116,7 @@
       </c>
       <c r="N36" s="149">
         <f>IF($B36&gt;Inputs!$G$15,N35,N35+M36)</f>
-        <v>7663025.3167378008</v>
+        <v>7657236.2314774524</v>
       </c>
       <c r="O36" s="152" t="str">
         <f>IF($B36&gt;Inputs!$G$15,"",LOOKUP($B36,'Cash Flow'!$F$2:$AJ$2,'Cash Flow'!$F$68:$AJ$68))</f>
@@ -22188,7 +22188,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24761,107 +24761,107 @@
       <c r="F22" s="27"/>
       <c r="G22" s="127">
         <f>G199</f>
-        <v>4647.5017760523415</v>
+        <v>4651.4758120225652</v>
       </c>
       <c r="H22" s="127">
         <f t="shared" ref="H22:AJ22" si="3">H199</f>
-        <v>5796.3906649412311</v>
+        <v>5800.3647009114538</v>
       </c>
       <c r="I22" s="127">
         <f t="shared" si="3"/>
-        <v>6945.2795538301189</v>
+        <v>6949.2535898003425</v>
       </c>
       <c r="J22" s="127">
         <f t="shared" si="3"/>
-        <v>8094.1684427190085</v>
+        <v>8098.1424786892321</v>
       </c>
       <c r="K22" s="127">
         <f t="shared" si="3"/>
-        <v>9243.0573316078953</v>
+        <v>9247.0313675781199</v>
       </c>
       <c r="L22" s="127">
         <f t="shared" si="3"/>
-        <v>10391.946220496786</v>
+        <v>10395.92025646701</v>
       </c>
       <c r="M22" s="127">
         <f t="shared" si="3"/>
-        <v>11540.835109385676</v>
+        <v>11544.809145355901</v>
       </c>
       <c r="N22" s="127">
         <f t="shared" si="3"/>
-        <v>12689.723998274567</v>
+        <v>12693.69803424479</v>
       </c>
       <c r="O22" s="127">
         <f t="shared" si="3"/>
-        <v>13838.612887163456</v>
+        <v>13842.58692313368</v>
       </c>
       <c r="P22" s="127">
         <f t="shared" si="3"/>
-        <v>9243.0573316079008</v>
+        <v>9247.0313675781254</v>
       </c>
       <c r="Q22" s="127">
         <f t="shared" si="3"/>
-        <v>4671.9462204967895</v>
+        <v>4675.9202564670131</v>
       </c>
       <c r="R22" s="127">
         <f t="shared" si="3"/>
-        <v>5869.7239982745668</v>
+        <v>5873.6980342447914</v>
       </c>
       <c r="S22" s="127">
         <f t="shared" si="3"/>
-        <v>7067.5017760523442</v>
+        <v>7071.4758120225688</v>
       </c>
       <c r="T22" s="127">
         <f t="shared" si="3"/>
-        <v>8265.2795538301216</v>
+        <v>8269.2535898003462</v>
       </c>
       <c r="U22" s="127">
         <f t="shared" si="3"/>
-        <v>9463.057331607899</v>
+        <v>9467.0313675781235</v>
       </c>
       <c r="V22" s="127">
         <f t="shared" si="3"/>
-        <v>10660.835109385676</v>
+        <v>10664.809145355901</v>
       </c>
       <c r="W22" s="127">
         <f t="shared" si="3"/>
-        <v>11858.612887163456</v>
+        <v>11862.58692313368</v>
       </c>
       <c r="X22" s="127">
         <f t="shared" si="3"/>
-        <v>13056.390664941231</v>
+        <v>13060.364700911456</v>
       </c>
       <c r="Y22" s="127">
         <f t="shared" si="3"/>
-        <v>13023.937497196779</v>
+        <v>13027.911533167004</v>
       </c>
       <c r="Z22" s="127">
         <f t="shared" si="3"/>
-        <v>7002.5954405634384</v>
+        <v>7006.569476533663</v>
       </c>
       <c r="AA22" s="127">
         <f t="shared" si="3"/>
-        <v>1612.5954405634384</v>
+        <v>1616.5694765336625</v>
       </c>
       <c r="AB22" s="127">
         <f t="shared" si="3"/>
-        <v>1612.5954405634384</v>
+        <v>1616.5694765336625</v>
       </c>
       <c r="AC22" s="127">
         <f t="shared" si="3"/>
-        <v>1612.5954405634384</v>
+        <v>1616.5694765336625</v>
       </c>
       <c r="AD22" s="127">
         <f t="shared" si="3"/>
-        <v>1612.5954405634384</v>
+        <v>1616.5694765336625</v>
       </c>
       <c r="AE22" s="127">
         <f t="shared" si="3"/>
-        <v>806.29772028171988</v>
+        <v>808.28473826683216</v>
       </c>
       <c r="AF22" s="127">
         <f t="shared" si="3"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG22" s="127">
         <f t="shared" si="3"/>
@@ -24892,107 +24892,107 @@
       <c r="F23" s="24"/>
       <c r="G23" s="28">
         <f>G15+G17+G19+G21+G22</f>
-        <v>980158.30240855238</v>
+        <v>980162.27644452266</v>
       </c>
       <c r="H23" s="28">
         <f t="shared" ref="H23:AJ23" si="4">H15+H17+H19+H21+H22</f>
-        <v>995842.30222686566</v>
+        <v>995846.27626283583</v>
       </c>
       <c r="I23" s="28">
         <f t="shared" si="4"/>
-        <v>1011742.8751980274</v>
+        <v>1011746.8492339975</v>
       </c>
       <c r="J23" s="28">
         <f t="shared" si="4"/>
-        <v>1027863.2482620147</v>
+        <v>1027867.2222979849</v>
       </c>
       <c r="K23" s="28">
         <f t="shared" si="4"/>
-        <v>1044206.696440211</v>
+        <v>1044210.6704761812</v>
       </c>
       <c r="L23" s="28">
         <f t="shared" si="4"/>
-        <v>1060776.543551818</v>
+        <v>1060780.5175877884</v>
       </c>
       <c r="M23" s="28">
         <f t="shared" si="4"/>
-        <v>1077576.1629409438</v>
+        <v>1077580.136976914</v>
       </c>
       <c r="N23" s="28">
         <f t="shared" si="4"/>
-        <v>1094608.9782145231</v>
+        <v>1094612.9522504932</v>
       </c>
       <c r="O23" s="28">
         <f t="shared" si="4"/>
-        <v>1111878.4639912338</v>
+        <v>1111882.438027204</v>
       </c>
       <c r="P23" s="28">
         <f t="shared" si="4"/>
-        <v>1123643.7022171291</v>
+        <v>1123647.6762530992</v>
       </c>
       <c r="Q23" s="28">
         <f t="shared" si="4"/>
-        <v>1135677.1607148123</v>
+        <v>1135681.1347507825</v>
       </c>
       <c r="R23" s="28">
         <f t="shared" si="4"/>
-        <v>1153726.9161885555</v>
+        <v>1153730.8902245257</v>
       </c>
       <c r="S23" s="28">
         <f t="shared" si="4"/>
-        <v>1172027.7661299685</v>
+        <v>1172031.7401659386</v>
       </c>
       <c r="T23" s="28">
         <f t="shared" si="4"/>
-        <v>1190583.4518466196</v>
+        <v>1190587.4258825898</v>
       </c>
       <c r="U23" s="28">
         <f t="shared" si="4"/>
-        <v>1209397.7703915602</v>
+        <v>1209401.7444275303</v>
       </c>
       <c r="V23" s="28">
         <f t="shared" si="4"/>
-        <v>1228474.575393931</v>
+        <v>1228478.5494299012</v>
       </c>
       <c r="W23" s="28">
         <f t="shared" si="4"/>
-        <v>1247817.7779019484</v>
+        <v>1247821.7519379186</v>
       </c>
       <c r="X23" s="28">
         <f t="shared" si="4"/>
-        <v>1267431.3472384464</v>
+        <v>1267435.3212744168</v>
       </c>
       <c r="Y23" s="28">
         <f t="shared" si="4"/>
-        <v>1286089.0809236474</v>
+        <v>1286093.0549596176</v>
       </c>
       <c r="Z23" s="28">
         <f t="shared" si="4"/>
-        <v>1299036.4095040683</v>
+        <v>1299040.3835400385</v>
       </c>
       <c r="AA23" s="28">
         <f t="shared" si="4"/>
-        <v>285715.27504491864</v>
+        <v>285719.24908088887</v>
       </c>
       <c r="AB23" s="28">
         <f t="shared" si="4"/>
-        <v>292775.22663308692</v>
+        <v>292779.20066905714</v>
       </c>
       <c r="AC23" s="28">
         <f t="shared" si="4"/>
-        <v>300010.61801822105</v>
+        <v>300014.59205419128</v>
       </c>
       <c r="AD23" s="28">
         <f t="shared" si="4"/>
-        <v>307425.80887927586</v>
+        <v>307429.78291524609</v>
       </c>
       <c r="AE23" s="28">
         <f t="shared" si="4"/>
-        <v>314218.96951294615</v>
+        <v>314220.95653093129</v>
       </c>
       <c r="AF23" s="28">
         <f t="shared" si="4"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG23" s="28">
         <f t="shared" si="4"/>
@@ -25320,103 +25320,103 @@
       </c>
       <c r="G29" s="29">
         <f>-IF(G$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*G$5*G$26)</f>
-        <v>0</v>
+        <v>-347.77568650000006</v>
       </c>
       <c r="H29" s="29">
         <f>-IF(H$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*H$5*H$26)</f>
-        <v>0</v>
+        <v>-351.57339699658002</v>
       </c>
       <c r="I29" s="29">
         <f>-IF(I$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*I$5*I$26)</f>
-        <v>0</v>
+        <v>-355.41257849178277</v>
       </c>
       <c r="J29" s="29">
         <f>-IF(J$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*J$5*J$26)</f>
-        <v>0</v>
+        <v>-359.29368384891302</v>
       </c>
       <c r="K29" s="29">
         <f>-IF(K$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*K$5*K$26)</f>
-        <v>0</v>
+        <v>-363.21717087654315</v>
       </c>
       <c r="L29" s="29">
         <f>-IF(L$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*L$5*L$26)</f>
-        <v>0</v>
+        <v>-367.18350238251503</v>
       </c>
       <c r="M29" s="29">
         <f>-IF(M$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*M$5*M$26)</f>
-        <v>0</v>
+        <v>-371.19314622853204</v>
       </c>
       <c r="N29" s="29">
         <f>-IF(N$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*N$5*N$26)</f>
-        <v>0</v>
+        <v>-375.24657538534763</v>
       </c>
       <c r="O29" s="29">
         <f>-IF(O$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*O$5*O$26)</f>
-        <v>0</v>
+        <v>-379.3442679885556</v>
       </c>
       <c r="P29" s="29">
         <f>-IF(P$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*P$5*P$26)</f>
-        <v>0</v>
+        <v>-383.48670739499062</v>
       </c>
       <c r="Q29" s="29">
         <f>-IF(Q$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*Q$5*Q$26)</f>
-        <v>0</v>
+        <v>-387.67438223974398</v>
       </c>
       <c r="R29" s="29">
         <f>-IF(R$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*R$5*R$26)</f>
-        <v>0</v>
+        <v>-391.90778649380201</v>
       </c>
       <c r="S29" s="29">
         <f>-IF(S$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*S$5*S$26)</f>
-        <v>0</v>
+        <v>-396.18741952231431</v>
       </c>
       <c r="T29" s="29">
         <f>-IF(T$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*T$5*T$26)</f>
-        <v>0</v>
+        <v>-400.51378614349801</v>
       </c>
       <c r="U29" s="29">
         <f>-IF(U$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*U$5*U$26)</f>
-        <v>0</v>
+        <v>-404.88739668818505</v>
       </c>
       <c r="V29" s="29">
         <f>-IF(V$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*V$5*V$26)</f>
-        <v>0</v>
+        <v>-409.30876706001999</v>
       </c>
       <c r="W29" s="29">
         <f>-IF(W$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*W$5*W$26)</f>
-        <v>0</v>
+        <v>-413.77841879631535</v>
       </c>
       <c r="X29" s="29">
         <f>-IF(X$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*X$5*X$26)</f>
-        <v>0</v>
+        <v>-418.2968791295711</v>
       </c>
       <c r="Y29" s="29">
         <f>-IF(Y$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*Y$5*Y$26)</f>
-        <v>0</v>
+        <v>-422.86468104966605</v>
       </c>
       <c r="Z29" s="29">
         <f>-IF(Z$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*Z$5*Z$26)</f>
-        <v>0</v>
+        <v>-427.48236336672841</v>
       </c>
       <c r="AA29" s="29">
         <f>-IF(AA$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*AA$5*AA$26)</f>
-        <v>0</v>
+        <v>-432.15047077469308</v>
       </c>
       <c r="AB29" s="29">
         <f>-IF(AB$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*AB$5*AB$26)</f>
-        <v>0</v>
+        <v>-436.86955391555284</v>
       </c>
       <c r="AC29" s="29">
         <f>-IF(AC$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*AC$5*AC$26)</f>
-        <v>0</v>
+        <v>-441.64016944431063</v>
       </c>
       <c r="AD29" s="29">
         <f>-IF(AD$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*AD$5*AD$26)</f>
-        <v>0</v>
+        <v>-446.46288009464251</v>
       </c>
       <c r="AE29" s="29">
         <f>-IF(AE$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*AE$5*AE$26)</f>
-        <v>0</v>
+        <v>-451.33825474527606</v>
       </c>
       <c r="AF29" s="29">
         <f>-IF(AF$2&gt;Inputs!$G$15,0,Inputs!$G$32/100*AF$5*AF$26)</f>
@@ -26094,103 +26094,103 @@
       <c r="F35" s="24"/>
       <c r="G35" s="31">
         <f>SUM(G28:G34)</f>
-        <v>-172765.32401897499</v>
+        <v>-173113.099705475</v>
       </c>
       <c r="H35" s="31">
         <f t="shared" ref="H35:AJ35" si="5">SUM(H28:H34)</f>
-        <v>-169697.37734685774</v>
+        <v>-170048.95074385434</v>
       </c>
       <c r="I35" s="31">
         <f t="shared" si="5"/>
-        <v>-167159.86386932593</v>
+        <v>-167515.27644781771</v>
       </c>
       <c r="J35" s="31">
         <f t="shared" si="5"/>
-        <v>-165103.26337057885</v>
+        <v>-165462.55705442777</v>
       </c>
       <c r="K35" s="31">
         <f t="shared" si="5"/>
-        <v>-163483.06320487408</v>
+        <v>-163846.28037575062</v>
       </c>
       <c r="L35" s="31">
         <f t="shared" si="5"/>
-        <v>-162259.25841606149</v>
+        <v>-162626.44191844403</v>
       </c>
       <c r="M35" s="31">
         <f t="shared" si="5"/>
-        <v>-161395.90185900655</v>
+        <v>-161767.09500523508</v>
       </c>
       <c r="N35" s="31">
         <f t="shared" si="5"/>
-        <v>-160860.69932293223</v>
+        <v>-161235.94589831759</v>
       </c>
       <c r="O35" s="31">
         <f t="shared" si="5"/>
-        <v>-160624.64515671003</v>
+        <v>-161003.98942469858</v>
       </c>
       <c r="P35" s="31">
         <f t="shared" si="5"/>
-        <v>-160661.69434613094</v>
+        <v>-161045.18105352594</v>
       </c>
       <c r="Q35" s="31">
         <f t="shared" si="5"/>
-        <v>-160948.46739818781</v>
+        <v>-161336.14178042757</v>
       </c>
       <c r="R35" s="31">
         <f t="shared" si="5"/>
-        <v>-161463.98475190054</v>
+        <v>-161855.89253839434</v>
       </c>
       <c r="S35" s="31">
         <f t="shared" si="5"/>
-        <v>-162189.42776326663</v>
+        <v>-162585.61518278896</v>
       </c>
       <c r="T35" s="31">
         <f t="shared" si="5"/>
-        <v>-163107.92360716546</v>
+        <v>-163508.43739330897</v>
       </c>
       <c r="U35" s="31">
         <f t="shared" si="5"/>
-        <v>-164204.35170476363</v>
+        <v>-164609.23910145182</v>
       </c>
       <c r="V35" s="31">
         <f t="shared" si="5"/>
-        <v>-165465.1695241211</v>
+        <v>-165874.47829118112</v>
       </c>
       <c r="W35" s="31">
         <f t="shared" si="5"/>
-        <v>-166878.25581692869</v>
+        <v>-167292.034235725</v>
       </c>
       <c r="X35" s="31">
         <f t="shared" si="5"/>
-        <v>-168432.76954801998</v>
+        <v>-168851.06642714958</v>
       </c>
       <c r="Y35" s="31">
         <f t="shared" si="5"/>
-        <v>-170119.02294864072</v>
+        <v>-170541.88762969041</v>
       </c>
       <c r="Z35" s="31">
         <f t="shared" si="5"/>
-        <v>-171928.36728136329</v>
+        <v>-172355.84964473004</v>
       </c>
       <c r="AA35" s="31">
         <f t="shared" si="5"/>
-        <v>-143037.61689708984</v>
+        <v>-143469.76736786455</v>
       </c>
       <c r="AB35" s="31">
         <f t="shared" si="5"/>
-        <v>-144696.50343225291</v>
+        <v>-145133.37298616848</v>
       </c>
       <c r="AC35" s="31">
         <f t="shared" si="5"/>
-        <v>-146454.32102878782</v>
+        <v>-146895.96119823214</v>
       </c>
       <c r="AD35" s="31">
         <f t="shared" si="5"/>
-        <v>-148305.64771697632</v>
+        <v>-148752.11059707098</v>
       </c>
       <c r="AE35" s="31">
         <f t="shared" si="5"/>
-        <v>-150245.68107767607</v>
+        <v>-150697.01933242136</v>
       </c>
       <c r="AF35" s="31">
         <f t="shared" si="5"/>
@@ -26221,103 +26221,103 @@
       <c r="F36" s="24"/>
       <c r="G36" s="31">
         <f>IF(G35=0,"",G35)</f>
-        <v>-172765.32401897499</v>
+        <v>-173113.099705475</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" ref="H36:AJ36" si="6">IF(H35=0,"",H35)</f>
-        <v>-169697.37734685774</v>
+        <v>-170048.95074385434</v>
       </c>
       <c r="I36" s="31">
         <f t="shared" si="6"/>
-        <v>-167159.86386932593</v>
+        <v>-167515.27644781771</v>
       </c>
       <c r="J36" s="31">
         <f t="shared" si="6"/>
-        <v>-165103.26337057885</v>
+        <v>-165462.55705442777</v>
       </c>
       <c r="K36" s="31">
         <f t="shared" si="6"/>
-        <v>-163483.06320487408</v>
+        <v>-163846.28037575062</v>
       </c>
       <c r="L36" s="31">
         <f t="shared" si="6"/>
-        <v>-162259.25841606149</v>
+        <v>-162626.44191844403</v>
       </c>
       <c r="M36" s="31">
         <f t="shared" si="6"/>
-        <v>-161395.90185900655</v>
+        <v>-161767.09500523508</v>
       </c>
       <c r="N36" s="31">
         <f t="shared" si="6"/>
-        <v>-160860.69932293223</v>
+        <v>-161235.94589831759</v>
       </c>
       <c r="O36" s="31">
         <f t="shared" si="6"/>
-        <v>-160624.64515671003</v>
+        <v>-161003.98942469858</v>
       </c>
       <c r="P36" s="31">
         <f t="shared" si="6"/>
-        <v>-160661.69434613094</v>
+        <v>-161045.18105352594</v>
       </c>
       <c r="Q36" s="31">
         <f t="shared" si="6"/>
-        <v>-160948.46739818781</v>
+        <v>-161336.14178042757</v>
       </c>
       <c r="R36" s="31">
         <f t="shared" si="6"/>
-        <v>-161463.98475190054</v>
+        <v>-161855.89253839434</v>
       </c>
       <c r="S36" s="31">
         <f t="shared" si="6"/>
-        <v>-162189.42776326663</v>
+        <v>-162585.61518278896</v>
       </c>
       <c r="T36" s="31">
         <f t="shared" si="6"/>
-        <v>-163107.92360716546</v>
+        <v>-163508.43739330897</v>
       </c>
       <c r="U36" s="31">
         <f t="shared" si="6"/>
-        <v>-164204.35170476363</v>
+        <v>-164609.23910145182</v>
       </c>
       <c r="V36" s="31">
         <f t="shared" si="6"/>
-        <v>-165465.1695241211</v>
+        <v>-165874.47829118112</v>
       </c>
       <c r="W36" s="31">
         <f t="shared" si="6"/>
-        <v>-166878.25581692869</v>
+        <v>-167292.034235725</v>
       </c>
       <c r="X36" s="31">
         <f t="shared" si="6"/>
-        <v>-168432.76954801998</v>
+        <v>-168851.06642714958</v>
       </c>
       <c r="Y36" s="31">
         <f t="shared" si="6"/>
-        <v>-170119.02294864072</v>
+        <v>-170541.88762969041</v>
       </c>
       <c r="Z36" s="31">
         <f t="shared" si="6"/>
-        <v>-171928.36728136329</v>
+        <v>-172355.84964473004</v>
       </c>
       <c r="AA36" s="31">
         <f t="shared" si="6"/>
-        <v>-143037.61689708984</v>
+        <v>-143469.76736786455</v>
       </c>
       <c r="AB36" s="31">
         <f t="shared" si="6"/>
-        <v>-144696.50343225291</v>
+        <v>-145133.37298616848</v>
       </c>
       <c r="AC36" s="31">
         <f t="shared" si="6"/>
-        <v>-146454.32102878782</v>
+        <v>-146895.96119823214</v>
       </c>
       <c r="AD36" s="31">
         <f t="shared" si="6"/>
-        <v>-148305.64771697632</v>
+        <v>-148752.11059707098</v>
       </c>
       <c r="AE36" s="31">
         <f t="shared" si="6"/>
-        <v>-150245.68107767607</v>
+        <v>-150697.01933242136</v>
       </c>
       <c r="AF36" s="31" t="str">
         <f t="shared" si="6"/>
@@ -26352,103 +26352,103 @@
       <c r="F37" s="32"/>
       <c r="G37" s="33">
         <f>IF(G$2&gt;Inputs!$G$15,0,G35*100/G5)</f>
-        <v>-4.9677228951131687</v>
+        <v>-4.9777228951131693</v>
       </c>
       <c r="H37" s="33">
         <f>IF(H$2&gt;Inputs!$G$15,0,H35*100/H5)</f>
-        <v>-4.9040267795371513</v>
+        <v>-4.9141867795371512</v>
       </c>
       <c r="I37" s="33">
         <f>IF(I$2&gt;Inputs!$G$15,0,I35*100/I5)</f>
-        <v>-4.8549708952488402</v>
+        <v>-4.8652934552488407</v>
       </c>
       <c r="J37" s="33">
         <f>IF(J$2&gt;Inputs!$G$15,0,J35*100/J5)</f>
-        <v>-4.8193359183685489</v>
+        <v>-4.8298236393285494</v>
       </c>
       <c r="K37" s="33">
         <f>IF(K$2&gt;Inputs!$G$15,0,K35*100/K5)</f>
-        <v>-4.7960226669683657</v>
+        <v>-4.8066781914637264</v>
       </c>
       <c r="L37" s="33">
         <f>IF(L$2&gt;Inputs!$G$15,0,L35*100/L5)</f>
-        <v>-4.784040707972073</v>
+        <v>-4.7948667208593596</v>
       </c>
       <c r="M37" s="33">
         <f>IF(M$2&gt;Inputs!$G$15,0,M35*100/M5)</f>
-        <v>-4.7824980534620378</v>
+        <v>-4.7934972825555198</v>
       </c>
       <c r="N37" s="33">
         <f>IF(N$2&gt;Inputs!$G$15,0,N35*100/N5)</f>
-        <v>-4.7905918424132672</v>
+        <v>-4.8017670591722457</v>
       </c>
       <c r="O37" s="33">
         <f>IF(O$2&gt;Inputs!$G$15,0,O35*100/O5)</f>
-        <v>-4.8075999138032355</v>
+        <v>-4.8189539340303567</v>
       </c>
       <c r="P37" s="33">
         <f>IF(P$2&gt;Inputs!$G$15,0,P35*100/P5)</f>
-        <v>-4.8328731860266254</v>
+        <v>-4.8444088705773813</v>
       </c>
       <c r="Q37" s="33">
         <f>IF(Q$2&gt;Inputs!$G$15,0,Q35*100/Q5)</f>
-        <v>-4.8658287656671897</v>
+        <v>-4.8775490211707577</v>
       </c>
       <c r="R37" s="33">
         <f>IF(R$2&gt;Inputs!$G$15,0,R35*100/R5)</f>
-        <v>-4.9059437160264485</v>
+        <v>-4.9178514956180734</v>
       </c>
       <c r="S37" s="33">
         <f>IF(S$2&gt;Inputs!$G$15,0,S35*100/S5)</f>
-        <v>-4.9527494224550095</v>
+        <v>-4.9648477265200999</v>
       </c>
       <c r="T37" s="33">
         <f>IF(T$2&gt;Inputs!$G$15,0,T35*100/T5)</f>
-        <v>-5.0058264975437536</v>
+        <v>-5.018118374473886</v>
       </c>
       <c r="U37" s="33">
         <f>IF(U$2&gt;Inputs!$G$15,0,U35*100/U5)</f>
-        <v>-5.0648001746696609</v>
+        <v>-5.0772887216306763</v>
       </c>
       <c r="V37" s="33">
         <f>IF(V$2&gt;Inputs!$G$15,0,V35*100/V5)</f>
-        <v>-5.1293361433095273</v>
+        <v>-5.1420245070219179</v>
       </c>
       <c r="W37" s="33">
         <f>IF(W$2&gt;Inputs!$G$15,0,W35*100/W5)</f>
-        <v>-5.1991367839835405</v>
+        <v>-5.2120281615153301</v>
       </c>
       <c r="X37" s="33">
         <f>IF(X$2&gt;Inputs!$G$15,0,X35*100/X5)</f>
-        <v>-5.273937764714856</v>
+        <v>-5.2870354042871543</v>
       </c>
       <c r="Y37" s="33">
         <f>IF(Y$2&gt;Inputs!$G$15,0,Y35*100/Y5)</f>
-        <v>-5.3535049645311421</v>
+        <v>-5.3668121663365964</v>
       </c>
       <c r="Z37" s="33">
         <f>IF(Z$2&gt;Inputs!$G$15,0,Z35*100/Z5)</f>
-        <v>-5.4376316928264732</v>
+        <v>-5.4511518098608169</v>
       </c>
       <c r="AA37" s="33">
         <f>IF(AA$2&gt;Inputs!$G$15,0,AA35*100/AA5)</f>
-        <v>-4.5466281278646097</v>
+        <v>-4.5603645667715007</v>
       </c>
       <c r="AB37" s="33">
         <f>IF(AB$2&gt;Inputs!$G$15,0,AB35*100/AB5)</f>
-        <v>-4.622470245887734</v>
+        <v>-4.6364264678171363</v>
       </c>
       <c r="AC37" s="33">
         <f>IF(AC$2&gt;Inputs!$G$15,0,AC35*100/AC5)</f>
-        <v>-4.7021361157415225</v>
+        <v>-4.7163156372217951</v>
       </c>
       <c r="AD37" s="33">
         <f>IF(AD$2&gt;Inputs!$G$15,0,AD35*100/AD5)</f>
-        <v>-4.7855032581314072</v>
+        <v>-4.799909651955363</v>
       </c>
       <c r="AE37" s="33">
         <f>IF(AE$2&gt;Inputs!$G$15,0,AE35*100/AE5)</f>
-        <v>-4.8724662801425653</v>
+        <v>-4.887103176267706</v>
       </c>
       <c r="AF37" s="33">
         <f>IF(AF$2&gt;Inputs!$G$15,0,AF35*100/AF5)</f>
@@ -26485,107 +26485,107 @@
       </c>
       <c r="G39" s="31">
         <f t="shared" ref="G39:AJ39" si="7">G23+G35</f>
-        <v>807392.97838957736</v>
+        <v>807049.17673904763</v>
       </c>
       <c r="H39" s="31">
         <f t="shared" si="7"/>
-        <v>826144.92488000798</v>
+        <v>825797.32551898155</v>
       </c>
       <c r="I39" s="31">
         <f t="shared" si="7"/>
-        <v>844583.0113287014</v>
+        <v>844231.57278617984</v>
       </c>
       <c r="J39" s="31">
         <f t="shared" si="7"/>
-        <v>862759.98489143583</v>
+        <v>862404.66524355707</v>
       </c>
       <c r="K39" s="31">
         <f t="shared" si="7"/>
-        <v>880723.63323533698</v>
+        <v>880364.39010043058</v>
       </c>
       <c r="L39" s="31">
         <f t="shared" si="7"/>
-        <v>898517.28513575648</v>
+        <v>898154.0756693444</v>
       </c>
       <c r="M39" s="31">
         <f t="shared" si="7"/>
-        <v>916180.26108193723</v>
+        <v>915813.04197167896</v>
       </c>
       <c r="N39" s="31">
         <f t="shared" si="7"/>
-        <v>933748.27889159089</v>
+        <v>933377.00635217561</v>
       </c>
       <c r="O39" s="31">
         <f t="shared" si="7"/>
-        <v>951253.81883452379</v>
+        <v>950878.44860250549</v>
       </c>
       <c r="P39" s="31">
         <f t="shared" si="7"/>
-        <v>962982.00787099812</v>
+        <v>962602.49519957323</v>
       </c>
       <c r="Q39" s="31">
         <f t="shared" si="7"/>
-        <v>974728.6933166245</v>
+        <v>974344.99297035497</v>
       </c>
       <c r="R39" s="31">
         <f t="shared" si="7"/>
-        <v>992262.931436655</v>
+        <v>991874.99768613139</v>
       </c>
       <c r="S39" s="31">
         <f t="shared" si="7"/>
-        <v>1009838.3383667018</v>
+        <v>1009446.1249831497</v>
       </c>
       <c r="T39" s="31">
         <f t="shared" si="7"/>
-        <v>1027475.5282394541</v>
+        <v>1027078.9884892808</v>
       </c>
       <c r="U39" s="31">
         <f t="shared" si="7"/>
-        <v>1045193.4186867966</v>
+        <v>1044792.5053260785</v>
       </c>
       <c r="V39" s="31">
         <f t="shared" si="7"/>
-        <v>1063009.4058698099</v>
+        <v>1062604.07113872</v>
       </c>
       <c r="W39" s="31">
         <f t="shared" si="7"/>
-        <v>1080939.5220850199</v>
+        <v>1080529.7177021937</v>
       </c>
       <c r="X39" s="31">
         <f t="shared" si="7"/>
-        <v>1098998.5776904263</v>
+        <v>1098584.2548472672</v>
       </c>
       <c r="Y39" s="31">
         <f t="shared" si="7"/>
-        <v>1115970.0579750068</v>
+        <v>1115551.1673299272</v>
       </c>
       <c r="Z39" s="31">
         <f t="shared" si="7"/>
-        <v>1127108.042222705</v>
+        <v>1126684.5338953084</v>
       </c>
       <c r="AA39" s="31">
         <f t="shared" si="7"/>
-        <v>142677.6581478288</v>
+        <v>142249.48171302432</v>
       </c>
       <c r="AB39" s="31">
         <f t="shared" si="7"/>
-        <v>148078.72320083401</v>
+        <v>147645.82768288866</v>
       </c>
       <c r="AC39" s="31">
         <f t="shared" si="7"/>
-        <v>153556.29698943323</v>
+        <v>153118.63085595914</v>
       </c>
       <c r="AD39" s="31">
         <f t="shared" si="7"/>
-        <v>159120.16116229954</v>
+        <v>158677.67231817511</v>
       </c>
       <c r="AE39" s="31">
         <f t="shared" si="7"/>
-        <v>163973.28843527008</v>
+        <v>163523.93719850993</v>
       </c>
       <c r="AF39" s="31">
         <f t="shared" si="7"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG39" s="31">
         <f t="shared" si="7"/>
@@ -26653,83 +26653,83 @@
       <c r="D41" s="32"/>
       <c r="E41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",AVERAGE(G41:AJ41))</f>
-        <v>3.6534742494249528</v>
+        <v>3.6519377834175213</v>
       </c>
       <c r="F41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",MIN(G41:AJ41))</f>
-        <v>3.0479989821211237</v>
+        <v>3.046601676794912</v>
       </c>
       <c r="G41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(G$2&gt;Inputs!$G$52,"N/A",(G39+SUM(G47:G48))/-G85))</f>
-        <v>3.0479989821211237</v>
+        <v>3.046601676794912</v>
       </c>
       <c r="H41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(H$2&gt;Inputs!$G$52,"N/A",(H39+SUM(H47:H48))/-H85))</f>
-        <v>3.1242120970597602</v>
+        <v>3.1227993567840762</v>
       </c>
       <c r="I41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(I$2&gt;Inputs!$G$52,"N/A",(I39+SUM(I47:I48))/-I85))</f>
-        <v>3.1991495976802899</v>
+        <v>3.197721253905486</v>
       </c>
       <c r="J41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(J$2&gt;Inputs!$G$52,"N/A",(J39+SUM(J47:J48))/-J85))</f>
-        <v>3.2730258630632028</v>
+        <v>3.2715817453990681</v>
       </c>
       <c r="K41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(K$2&gt;Inputs!$G$52,"N/A",(K39+SUM(K47:K48))/-K85))</f>
-        <v>3.3460351155506523</v>
+        <v>3.3445750517463151</v>
       </c>
       <c r="L41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(L$2&gt;Inputs!$G$52,"N/A",(L39+SUM(L47:L48))/-L85))</f>
-        <v>3.4183534553111032</v>
+        <v>3.4168772712347146</v>
       </c>
       <c r="M41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(M$2&gt;Inputs!$G$52,"N/A",(M39+SUM(M47:M48))/-M85))</f>
-        <v>3.4901406917258191</v>
+        <v>3.4886482113440058</v>
       </c>
       <c r="N41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(N$2&gt;Inputs!$G$52,"N/A",(N39+SUM(N47:N48))/-N85))</f>
-        <v>3.5615419919190776</v>
+        <v>3.5600330372761846</v>
       </c>
       <c r="O41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(O$2&gt;Inputs!$G$52,"N/A",(O39+SUM(O47:O48))/-O85))</f>
-        <v>3.6326893647219207</v>
+        <v>3.6311637559190184</v>
       </c>
       <c r="P41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(P$2&gt;Inputs!$G$52,"N/A",(P39+SUM(P47:P48))/-P85))</f>
-        <v>3.9138261453105243</v>
+        <v>3.9122837004841839</v>
       </c>
       <c r="Q41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(Q$2&gt;Inputs!$G$52,"N/A",(Q39+SUM(Q47:Q48))/-Q85))</f>
-        <v>3.7181628691651407</v>
+        <v>3.7166034044659875</v>
       </c>
       <c r="R41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(R$2&gt;Inputs!$G$52,"N/A",(R39+SUM(R47:R48))/-R85))</f>
-        <v>3.7894268793245796</v>
+        <v>3.7878502088956023</v>
       </c>
       <c r="S41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(S$2&gt;Inputs!$G$52,"N/A",(S39+SUM(S47:S48))/-S85))</f>
-        <v>3.8608582109538867</v>
+        <v>3.8592641469085147</v>
       </c>
       <c r="T41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(T$2&gt;Inputs!$G$52,"N/A",(T39+SUM(T47:T48))/-T85))</f>
-        <v>3.9325406456095422</v>
+        <v>3.9309289980094855</v>
       </c>
       <c r="U41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(U$2&gt;Inputs!$G$52,"N/A",(U39+SUM(U47:U48))/-U85))</f>
-        <v>4.004551069797909</v>
+        <v>4.0029216466307496</v>
       </c>
       <c r="V41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(V$2&gt;Inputs!$G$52,"N/A",(V39+SUM(V47:V48))/-V85))</f>
-        <v>4.0769601863457394</v>
+        <v>4.0753127935022855</v>
       </c>
       <c r="W41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(W$2&gt;Inputs!$G$52,"N/A",(W39+SUM(W47:W48))/-W85))</f>
-        <v>4.1498331549557053</v>
+        <v>4.1481675962070907</v>
       </c>
       <c r="X41" s="33">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(X$2&gt;Inputs!$G$52,"N/A",(X39+SUM(X47:X48))/-X85))</f>
-        <v>4.2232301690331733</v>
+        <v>4.2215462460077156</v>
       </c>
       <c r="Y41" s="33" t="str">
         <f>IF(OR(Inputs!$G$51=0,Inputs!$G$51=""),"N/A",IF(Y$2&gt;Inputs!$G$52,"N/A",(Y39+SUM(Y47:Y48))/-Y85))</f>
@@ -27048,107 +27048,107 @@
       <c r="F44" s="24"/>
       <c r="G44" s="31">
         <f>G39+G43</f>
-        <v>634142.97838957736</v>
+        <v>633799.17673904763</v>
       </c>
       <c r="H44" s="31">
         <f t="shared" ref="H44:AJ44" si="10">H39+H43</f>
-        <v>657990.65811731922</v>
+        <v>657643.0587562928</v>
       </c>
       <c r="I44" s="31">
         <f t="shared" si="10"/>
-        <v>681881.17912993557</v>
+        <v>681529.74058741401</v>
       </c>
       <c r="J44" s="31">
         <f t="shared" si="10"/>
-        <v>705892.25767606765</v>
+        <v>705536.93802818889</v>
       </c>
       <c r="K44" s="31">
         <f t="shared" si="10"/>
-        <v>730098.39835220424</v>
+        <v>729739.15521729784</v>
       </c>
       <c r="L44" s="31">
         <f t="shared" si="10"/>
-        <v>754571.51704811561</v>
+        <v>754208.30758170364</v>
       </c>
       <c r="M44" s="31">
         <f t="shared" si="10"/>
-        <v>779381.52246547281</v>
+        <v>779014.30335521454</v>
       </c>
       <c r="N44" s="31">
         <f t="shared" si="10"/>
-        <v>804596.86180928512</v>
+        <v>804225.58926986984</v>
       </c>
       <c r="O44" s="31">
         <f t="shared" si="10"/>
-        <v>830285.03579376789</v>
+        <v>829909.6655617496</v>
       </c>
       <c r="P44" s="31">
         <f t="shared" si="10"/>
-        <v>850768.64325470047</v>
+        <v>850389.13058327558</v>
       </c>
       <c r="Q44" s="31">
         <f t="shared" si="10"/>
-        <v>871883.62641449727</v>
+        <v>871499.92606822774</v>
       </c>
       <c r="R44" s="31">
         <f t="shared" si="10"/>
-        <v>899441.94308869005</v>
+        <v>899054.00933816645</v>
       </c>
       <c r="S44" s="31">
         <f t="shared" si="10"/>
-        <v>927743.11407169059</v>
+        <v>927350.90068813844</v>
       </c>
       <c r="T44" s="31">
         <f t="shared" si="10"/>
-        <v>956856.87148110336</v>
+        <v>956460.33173093002</v>
       </c>
       <c r="U44" s="31">
         <f t="shared" si="10"/>
-        <v>986854.68919267238</v>
+        <v>986453.77583195432</v>
       </c>
       <c r="V44" s="31">
         <f t="shared" si="10"/>
-        <v>1017810.1985484082</v>
+        <v>1017404.8638173183</v>
       </c>
       <c r="W44" s="31">
         <f t="shared" si="10"/>
-        <v>1049799.6034884313</v>
+        <v>1049389.7991056051</v>
       </c>
       <c r="X44" s="31">
         <f t="shared" si="10"/>
-        <v>1082902.0980293876</v>
+        <v>1082487.7751862286</v>
       </c>
       <c r="Y44" s="31">
         <f t="shared" si="10"/>
-        <v>1115970.0579750068</v>
+        <v>1115551.1673299272</v>
       </c>
       <c r="Z44" s="31">
         <f t="shared" si="10"/>
-        <v>1127108.042222705</v>
+        <v>1126684.5338953084</v>
       </c>
       <c r="AA44" s="31">
         <f t="shared" si="10"/>
-        <v>142677.6581478288</v>
+        <v>142249.48171302432</v>
       </c>
       <c r="AB44" s="31">
         <f t="shared" si="10"/>
-        <v>148078.72320083401</v>
+        <v>147645.82768288866</v>
       </c>
       <c r="AC44" s="31">
         <f t="shared" si="10"/>
-        <v>153556.29698943323</v>
+        <v>153118.63085595914</v>
       </c>
       <c r="AD44" s="31">
         <f t="shared" si="10"/>
-        <v>159120.16116229954</v>
+        <v>158677.67231817511</v>
       </c>
       <c r="AE44" s="31">
         <f t="shared" si="10"/>
-        <v>163973.28843527008</v>
+        <v>163523.93719850993</v>
       </c>
       <c r="AF44" s="31">
         <f t="shared" si="10"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG44" s="31">
         <f t="shared" si="10"/>
@@ -27399,7 +27399,7 @@
       </c>
       <c r="AE47" s="29">
         <f t="shared" si="12"/>
-        <v>80629.772028171865</v>
+        <v>80828.473826683039</v>
       </c>
       <c r="AF47" s="29">
         <f t="shared" si="12"/>
@@ -27561,107 +27561,107 @@
       <c r="F49" s="289"/>
       <c r="G49" s="31">
         <f>G44+SUM(G46:G48)</f>
-        <v>503902.344840687</v>
+        <v>503558.54319015727</v>
       </c>
       <c r="H49" s="31">
         <f t="shared" ref="H49:AJ49" si="14">H44+SUM(H46:H48)</f>
-        <v>522654.29133111762</v>
+        <v>522306.6919700912</v>
       </c>
       <c r="I49" s="31">
         <f t="shared" si="14"/>
-        <v>541092.37777981092</v>
+        <v>540740.93923728936</v>
       </c>
       <c r="J49" s="31">
         <f t="shared" si="14"/>
-        <v>559269.35134254536</v>
+        <v>558914.03169466672</v>
       </c>
       <c r="K49" s="31">
         <f t="shared" si="14"/>
-        <v>577232.99968644651</v>
+        <v>576873.75655154022</v>
       </c>
       <c r="L49" s="31">
         <f t="shared" si="14"/>
-        <v>595026.65158686601</v>
+        <v>594663.44212045404</v>
       </c>
       <c r="M49" s="31">
         <f t="shared" si="14"/>
-        <v>612689.62753304688</v>
+        <v>612322.40842278861</v>
       </c>
       <c r="N49" s="31">
         <f t="shared" si="14"/>
-        <v>630257.64534270042</v>
+        <v>629886.37280328525</v>
       </c>
       <c r="O49" s="31">
         <f t="shared" si="14"/>
-        <v>647763.18528563343</v>
+        <v>647387.81505361514</v>
       </c>
       <c r="P49" s="31">
         <f t="shared" si="14"/>
-        <v>716935.81876655214</v>
+        <v>716556.30609512725</v>
       </c>
       <c r="Q49" s="31">
         <f t="shared" si="14"/>
-        <v>668793.61532328965</v>
+        <v>668409.91497702012</v>
       </c>
       <c r="R49" s="31">
         <f t="shared" si="14"/>
-        <v>686327.85344332014</v>
+        <v>685939.91969279654</v>
       </c>
       <c r="S49" s="31">
         <f t="shared" si="14"/>
-        <v>703903.260373367</v>
+        <v>703511.04698981484</v>
       </c>
       <c r="T49" s="31">
         <f t="shared" si="14"/>
-        <v>721540.45024611941</v>
+        <v>721143.91049594595</v>
       </c>
       <c r="U49" s="31">
         <f t="shared" si="14"/>
-        <v>739258.34069346171</v>
+        <v>738857.42733274365</v>
       </c>
       <c r="V49" s="31">
         <f t="shared" si="14"/>
-        <v>757074.32787647506</v>
+        <v>756668.99314538518</v>
       </c>
       <c r="W49" s="31">
         <f t="shared" si="14"/>
-        <v>775004.444091685</v>
+        <v>774594.6397088588</v>
       </c>
       <c r="X49" s="31">
         <f t="shared" si="14"/>
-        <v>793063.49969709129</v>
+        <v>792649.17685393221</v>
       </c>
       <c r="Y49" s="31">
         <f t="shared" si="14"/>
-        <v>1179104.2636383409</v>
+        <v>1178685.3729932613</v>
       </c>
       <c r="Z49" s="31">
         <f t="shared" si="14"/>
-        <v>1127108.042222705</v>
+        <v>1126684.5338953084</v>
       </c>
       <c r="AA49" s="31">
         <f t="shared" si="14"/>
-        <v>142677.6581478288</v>
+        <v>142249.48171302432</v>
       </c>
       <c r="AB49" s="31">
         <f t="shared" si="14"/>
-        <v>148078.72320083401</v>
+        <v>147645.82768288866</v>
       </c>
       <c r="AC49" s="31">
         <f t="shared" si="14"/>
-        <v>153556.29698943323</v>
+        <v>153118.63085595914</v>
       </c>
       <c r="AD49" s="31">
         <f t="shared" si="14"/>
-        <v>159120.16116229954</v>
+        <v>158677.67231817511</v>
       </c>
       <c r="AE49" s="31">
         <f t="shared" si="14"/>
-        <v>244603.06046344194</v>
+        <v>244352.41102519297</v>
       </c>
       <c r="AF49" s="31">
         <f t="shared" si="14"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG49" s="31">
         <f t="shared" si="14"/>
@@ -27701,7 +27701,7 @@
       </c>
       <c r="F52" s="29">
         <f>-(Inputs!$G$26-Inputs!G69-$F$82)</f>
-        <v>-3371652.866580395</v>
+        <v>-3371851.5683789058</v>
       </c>
       <c r="G52" s="29">
         <v>0</v>
@@ -27804,107 +27804,107 @@
       <c r="F53" s="27"/>
       <c r="G53" s="30">
         <f>G49</f>
-        <v>503902.344840687</v>
+        <v>503558.54319015727</v>
       </c>
       <c r="H53" s="30">
         <f t="shared" ref="H53:AJ53" si="15">H49</f>
-        <v>522654.29133111762</v>
+        <v>522306.6919700912</v>
       </c>
       <c r="I53" s="30">
         <f t="shared" si="15"/>
-        <v>541092.37777981092</v>
+        <v>540740.93923728936</v>
       </c>
       <c r="J53" s="30">
         <f t="shared" si="15"/>
-        <v>559269.35134254536</v>
+        <v>558914.03169466672</v>
       </c>
       <c r="K53" s="30">
         <f t="shared" si="15"/>
-        <v>577232.99968644651</v>
+        <v>576873.75655154022</v>
       </c>
       <c r="L53" s="30">
         <f t="shared" si="15"/>
-        <v>595026.65158686601</v>
+        <v>594663.44212045404</v>
       </c>
       <c r="M53" s="30">
         <f t="shared" si="15"/>
-        <v>612689.62753304688</v>
+        <v>612322.40842278861</v>
       </c>
       <c r="N53" s="30">
         <f t="shared" si="15"/>
-        <v>630257.64534270042</v>
+        <v>629886.37280328525</v>
       </c>
       <c r="O53" s="30">
         <f t="shared" si="15"/>
-        <v>647763.18528563343</v>
+        <v>647387.81505361514</v>
       </c>
       <c r="P53" s="30">
         <f t="shared" si="15"/>
-        <v>716935.81876655214</v>
+        <v>716556.30609512725</v>
       </c>
       <c r="Q53" s="30">
         <f t="shared" si="15"/>
-        <v>668793.61532328965</v>
+        <v>668409.91497702012</v>
       </c>
       <c r="R53" s="30">
         <f t="shared" si="15"/>
-        <v>686327.85344332014</v>
+        <v>685939.91969279654</v>
       </c>
       <c r="S53" s="30">
         <f t="shared" si="15"/>
-        <v>703903.260373367</v>
+        <v>703511.04698981484</v>
       </c>
       <c r="T53" s="30">
         <f t="shared" si="15"/>
-        <v>721540.45024611941</v>
+        <v>721143.91049594595</v>
       </c>
       <c r="U53" s="30">
         <f t="shared" si="15"/>
-        <v>739258.34069346171</v>
+        <v>738857.42733274365</v>
       </c>
       <c r="V53" s="30">
         <f t="shared" si="15"/>
-        <v>757074.32787647506</v>
+        <v>756668.99314538518</v>
       </c>
       <c r="W53" s="30">
         <f t="shared" si="15"/>
-        <v>775004.444091685</v>
+        <v>774594.6397088588</v>
       </c>
       <c r="X53" s="30">
         <f t="shared" si="15"/>
-        <v>793063.49969709129</v>
+        <v>792649.17685393221</v>
       </c>
       <c r="Y53" s="30">
         <f t="shared" si="15"/>
-        <v>1179104.2636383409</v>
+        <v>1178685.3729932613</v>
       </c>
       <c r="Z53" s="30">
         <f t="shared" si="15"/>
-        <v>1127108.042222705</v>
+        <v>1126684.5338953084</v>
       </c>
       <c r="AA53" s="30">
         <f t="shared" si="15"/>
-        <v>142677.6581478288</v>
+        <v>142249.48171302432</v>
       </c>
       <c r="AB53" s="30">
         <f t="shared" si="15"/>
-        <v>148078.72320083401</v>
+        <v>147645.82768288866</v>
       </c>
       <c r="AC53" s="30">
         <f t="shared" si="15"/>
-        <v>153556.29698943323</v>
+        <v>153118.63085595914</v>
       </c>
       <c r="AD53" s="30">
         <f t="shared" si="15"/>
-        <v>159120.16116229954</v>
+        <v>158677.67231817511</v>
       </c>
       <c r="AE53" s="30">
         <f t="shared" si="15"/>
-        <v>244603.06046344194</v>
+        <v>244352.41102519297</v>
       </c>
       <c r="AF53" s="30">
         <f t="shared" si="15"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG53" s="30">
         <f t="shared" si="15"/>
@@ -27932,111 +27932,111 @@
       <c r="E54" s="348"/>
       <c r="F54" s="29">
         <f t="shared" ref="F54:AJ54" si="16">SUM(F52:F53)</f>
-        <v>-3371652.866580395</v>
+        <v>-3371851.5683789058</v>
       </c>
       <c r="G54" s="29">
         <f t="shared" si="16"/>
-        <v>503902.344840687</v>
+        <v>503558.54319015727</v>
       </c>
       <c r="H54" s="29">
         <f t="shared" si="16"/>
-        <v>522654.29133111762</v>
+        <v>522306.6919700912</v>
       </c>
       <c r="I54" s="29">
         <f t="shared" si="16"/>
-        <v>541092.37777981092</v>
+        <v>540740.93923728936</v>
       </c>
       <c r="J54" s="29">
         <f t="shared" si="16"/>
-        <v>559269.35134254536</v>
+        <v>558914.03169466672</v>
       </c>
       <c r="K54" s="29">
         <f t="shared" si="16"/>
-        <v>577232.99968644651</v>
+        <v>576873.75655154022</v>
       </c>
       <c r="L54" s="29">
         <f t="shared" si="16"/>
-        <v>595026.65158686601</v>
+        <v>594663.44212045404</v>
       </c>
       <c r="M54" s="29">
         <f t="shared" si="16"/>
-        <v>612689.62753304688</v>
+        <v>612322.40842278861</v>
       </c>
       <c r="N54" s="29">
         <f t="shared" si="16"/>
-        <v>630257.64534270042</v>
+        <v>629886.37280328525</v>
       </c>
       <c r="O54" s="29">
         <f t="shared" si="16"/>
-        <v>647763.18528563343</v>
+        <v>647387.81505361514</v>
       </c>
       <c r="P54" s="29">
         <f t="shared" si="16"/>
-        <v>716935.81876655214</v>
+        <v>716556.30609512725</v>
       </c>
       <c r="Q54" s="29">
         <f t="shared" si="16"/>
-        <v>668793.61532328965</v>
+        <v>668409.91497702012</v>
       </c>
       <c r="R54" s="29">
         <f t="shared" si="16"/>
-        <v>686327.85344332014</v>
+        <v>685939.91969279654</v>
       </c>
       <c r="S54" s="29">
         <f t="shared" si="16"/>
-        <v>703903.260373367</v>
+        <v>703511.04698981484</v>
       </c>
       <c r="T54" s="29">
         <f t="shared" si="16"/>
-        <v>721540.45024611941</v>
+        <v>721143.91049594595</v>
       </c>
       <c r="U54" s="29">
         <f t="shared" si="16"/>
-        <v>739258.34069346171</v>
+        <v>738857.42733274365</v>
       </c>
       <c r="V54" s="29">
         <f t="shared" si="16"/>
-        <v>757074.32787647506</v>
+        <v>756668.99314538518</v>
       </c>
       <c r="W54" s="29">
         <f t="shared" si="16"/>
-        <v>775004.444091685</v>
+        <v>774594.6397088588</v>
       </c>
       <c r="X54" s="29">
         <f t="shared" si="16"/>
-        <v>793063.49969709129</v>
+        <v>792649.17685393221</v>
       </c>
       <c r="Y54" s="29">
         <f t="shared" si="16"/>
-        <v>1179104.2636383409</v>
+        <v>1178685.3729932613</v>
       </c>
       <c r="Z54" s="29">
         <f t="shared" si="16"/>
-        <v>1127108.042222705</v>
+        <v>1126684.5338953084</v>
       </c>
       <c r="AA54" s="29">
         <f t="shared" si="16"/>
-        <v>142677.6581478288</v>
+        <v>142249.48171302432</v>
       </c>
       <c r="AB54" s="29">
         <f t="shared" si="16"/>
-        <v>148078.72320083401</v>
+        <v>147645.82768288866</v>
       </c>
       <c r="AC54" s="29">
         <f t="shared" si="16"/>
-        <v>153556.29698943323</v>
+        <v>153118.63085595914</v>
       </c>
       <c r="AD54" s="29">
         <f t="shared" si="16"/>
-        <v>159120.16116229954</v>
+        <v>158677.67231817511</v>
       </c>
       <c r="AE54" s="29">
         <f t="shared" si="16"/>
-        <v>244603.06046344194</v>
+        <v>244352.41102519297</v>
       </c>
       <c r="AF54" s="29">
         <f t="shared" si="16"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG54" s="29">
         <f t="shared" si="16"/>
@@ -28065,123 +28065,123 @@
       <c r="F55" s="60"/>
       <c r="G55" s="331">
         <f>IF(ISERROR(IRR($F54:G54)),"NA",IRR($F54:G54))</f>
-        <v>-0.85054738290666443</v>
+        <v>-0.85065815235981623</v>
       </c>
       <c r="H55" s="331">
         <f>IF(ISERROR(IRR($F54:H54)),"NA",IRR($F54:H54))</f>
-        <v>-0.52452653138527872</v>
+        <v>-0.52473228577743258</v>
       </c>
       <c r="I55" s="331">
         <f>IF(ISERROR(IRR($F54:I54)),"NA",IRR($F54:I54))</f>
-        <v>-0.3007021176193545</v>
+        <v>-0.30092547618662713</v>
       </c>
       <c r="J55" s="331">
         <f>IF(ISERROR(IRR($F54:J54)),"NA",IRR($F54:J54))</f>
-        <v>-0.15953073376141436</v>
+        <v>-0.15974807726122853</v>
       </c>
       <c r="K55" s="331">
         <f>IF(ISERROR(IRR($F54:K54)),"NA",IRR($F54:K54))</f>
-        <v>-6.7896493708758499E-2</v>
+        <v>-6.8101909925190829E-2</v>
       </c>
       <c r="L55" s="331">
         <f>IF(ISERROR(IRR($F54:L54)),"NA",IRR($F54:L54))</f>
-        <v>-6.0089129658231766E-3</v>
+        <v>-6.201853358988707E-3</v>
       </c>
       <c r="M55" s="331">
         <f>IF(ISERROR(IRR($F54:M54)),"NA",IRR($F54:M54))</f>
-        <v>3.7313447239604836E-2</v>
+        <v>3.7131954902112074E-2</v>
       </c>
       <c r="N55" s="331">
         <f>IF(ISERROR(IRR($F54:N54)),"NA",IRR($F54:N54))</f>
-        <v>6.8567949215863955E-2</v>
+        <v>6.8396516330873736E-2</v>
       </c>
       <c r="O55" s="331">
         <f>IF(ISERROR(IRR($F54:O54)),"NA",IRR($F54:O54))</f>
-        <v>9.1687589376368672E-2</v>
+        <v>9.1524860844879985E-2</v>
       </c>
       <c r="P55" s="331">
         <f>IF(ISERROR(IRR($F54:P54)),"NA",IRR($F54:P54))</f>
-        <v>0.11037127717439743</v>
+        <v>0.1102172028713555</v>
       </c>
       <c r="Q55" s="331">
         <f>IF(ISERROR(IRR($F54:Q54)),"NA",IRR($F54:Q54))</f>
-        <v>0.12336491166503971</v>
+        <v>0.12321679814608522</v>
       </c>
       <c r="R55" s="331">
         <f>IF(ISERROR(IRR($F54:R54)),"NA",IRR($F54:R54))</f>
-        <v>0.13354844988918679</v>
+        <v>0.13340559521557283</v>
       </c>
       <c r="S55" s="331">
         <f>IF(ISERROR(IRR($F54:S54)),"NA",IRR($F54:S54))</f>
-        <v>0.14162079421383056</v>
+        <v>0.14148256191935715</v>
       </c>
       <c r="T55" s="331">
         <f>IF(ISERROR(IRR($F54:T54)),"NA",IRR($F54:T54))</f>
-        <v>0.14808367554805257</v>
+        <v>0.14794950364596526</v>
       </c>
       <c r="U55" s="331">
         <f>IF(ISERROR(IRR($F54:U54)),"NA",IRR($F54:U54))</f>
-        <v>0.1533033145990208</v>
+        <v>0.15317271241534813</v>
       </c>
       <c r="V55" s="331">
         <f>IF(ISERROR(IRR($F54:V54)),"NA",IRR($F54:V54))</f>
-        <v>0.1575512217786883</v>
+        <v>0.15742376266643365</v>
       </c>
       <c r="W55" s="331">
         <f>IF(ISERROR(IRR($F54:W54)),"NA",IRR($F54:W54))</f>
-        <v>0.16103159454223404</v>
+        <v>0.16090690773601213</v>
       </c>
       <c r="X55" s="331">
         <f>IF(ISERROR(IRR($F54:X54)),"NA",IRR($F54:X54))</f>
-        <v>0.16390002074533849</v>
+        <v>0.1637777836350307</v>
       </c>
       <c r="Y55" s="331">
         <f>IF(ISERROR(IRR($F54:Y54)),"NA",IRR($F54:Y54))</f>
-        <v>0.16731223633254011</v>
+        <v>0.16719360481181611</v>
       </c>
       <c r="Z55" s="331">
         <f>IF(ISERROR(IRR($F54:Z54)),"NA",IRR($F54:Z54))</f>
-        <v>0.16991377919162809</v>
+        <v>0.16979791087202734</v>
       </c>
       <c r="AA55" s="331">
         <f>IF(ISERROR(IRR($F54:AA54)),"NA",IRR($F54:AA54))</f>
-        <v>0.17018552898396933</v>
+        <v>0.17006925413994978</v>
       </c>
       <c r="AB55" s="331">
         <f>IF(ISERROR(IRR($F54:AB54)),"NA",IRR($F54:AB54))</f>
-        <v>0.17042490095888874</v>
+        <v>0.17030831268021451</v>
       </c>
       <c r="AC55" s="331">
         <f>IF(ISERROR(IRR($F54:AC54)),"NA",IRR($F54:AC54))</f>
-        <v>0.17063562773512353</v>
+        <v>0.17051880158531785</v>
       </c>
       <c r="AD55" s="331">
         <f>IF(ISERROR(IRR($F54:AD54)),"NA",IRR($F54:AD54))</f>
-        <v>0.17082104973526357</v>
+        <v>0.17070404678333095</v>
       </c>
       <c r="AE55" s="331">
         <f>IF(ISERROR(IRR($F54:AE54)),"NA",IRR($F54:AE54))</f>
-        <v>0.17106284054280474</v>
+        <v>0.17094605637644467</v>
       </c>
       <c r="AF55" s="331">
         <f>IF(ISERROR(IRR($F54:AF54)),"NA",IRR($F54:AF54))</f>
-        <v>0.17106284054280474</v>
+        <v>0.17094605637644467</v>
       </c>
       <c r="AG55" s="331">
         <f>IF(ISERROR(IRR($F54:AG54)),"NA",IRR($F54:AG54))</f>
-        <v>0.17106284054280474</v>
+        <v>0.17094605637644467</v>
       </c>
       <c r="AH55" s="331">
         <f>IF(ISERROR(IRR($F54:AH54)),"NA",IRR($F54:AH54))</f>
-        <v>0.17106284054280474</v>
+        <v>0.17094605637644467</v>
       </c>
       <c r="AI55" s="331">
         <f>IF(ISERROR(IRR($F54:AI54)),"NA",IRR($F54:AI54))</f>
-        <v>0.17106284054280474</v>
+        <v>0.17094605637644467</v>
       </c>
       <c r="AJ55" s="331">
         <f>IF(ISERROR(IRR($F54:AJ54)),"NA",IRR($F54:AJ54))</f>
-        <v>0.17106284054280474</v>
+        <v>0.17094605637644467</v>
       </c>
     </row>
     <row r="56" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -28231,87 +28231,87 @@
       <c r="F57" s="296"/>
       <c r="G57" s="30">
         <f t="shared" ref="G57:AJ57" si="17">-G136</f>
-        <v>-3054195.9625600972</v>
+        <v>-3054297.5946585461</v>
       </c>
       <c r="H57" s="30">
         <f t="shared" si="17"/>
-        <v>-607656.72199424554</v>
+        <v>-607660.86247063137</v>
       </c>
       <c r="I57" s="30">
         <f t="shared" si="17"/>
-        <v>-386916.43066357792</v>
+        <v>-386919.89469019172</v>
       </c>
       <c r="J57" s="30">
         <f t="shared" si="17"/>
-        <v>-253778.78764333198</v>
+        <v>-253781.8436749769</v>
       </c>
       <c r="K57" s="30">
         <f t="shared" si="17"/>
-        <v>-251871.75003325718</v>
+        <v>-251874.80022086174</v>
       </c>
       <c r="L57" s="30">
         <f t="shared" si="17"/>
-        <v>-151863.72575426794</v>
+        <v>-151866.46947129193</v>
       </c>
       <c r="M57" s="30">
         <f t="shared" si="17"/>
-        <v>-52772.070197002977</v>
+        <v>-52774.510251621607</v>
       </c>
       <c r="N57" s="30">
         <f t="shared" si="17"/>
-        <v>-52772.070197002977</v>
+        <v>-52774.510251621607</v>
       </c>
       <c r="O57" s="30">
         <f t="shared" si="17"/>
-        <v>-52796.836919211739</v>
+        <v>-52799.277049726996</v>
       </c>
       <c r="P57" s="30">
         <f t="shared" si="17"/>
-        <v>-156172.07019700296</v>
+        <v>-156174.5102516216</v>
       </c>
       <c r="Q57" s="30">
         <f t="shared" si="17"/>
-        <v>-218236.83691921172</v>
+        <v>-218239.27704972698</v>
       </c>
       <c r="R57" s="30">
         <f t="shared" si="17"/>
-        <v>-151987.91268159705</v>
+        <v>-151990.3525886389</v>
       </c>
       <c r="S57" s="30">
         <f t="shared" si="17"/>
-        <v>-112307.07940380581</v>
+        <v>-112309.5193867443</v>
       </c>
       <c r="T57" s="30">
         <f t="shared" si="17"/>
-        <v>-112282.31268159705</v>
+        <v>-112284.75258863892</v>
       </c>
       <c r="U57" s="30">
         <f t="shared" si="17"/>
-        <v>-82527.879403805811</v>
+        <v>-82530.319386744304</v>
       </c>
       <c r="V57" s="30">
         <f t="shared" si="17"/>
-        <v>-29381.276999836933</v>
+        <v>-29383.645374307671</v>
       </c>
       <c r="W57" s="30">
         <f t="shared" si="17"/>
-        <v>-6038.6413180768131</v>
+        <v>-6040.9381599764311</v>
       </c>
       <c r="X57" s="30">
         <f t="shared" si="17"/>
-        <v>-6038.6413180768131</v>
+        <v>-6040.9381599764311</v>
       </c>
       <c r="Y57" s="30">
         <f t="shared" si="17"/>
-        <v>-6038.6413180768131</v>
+        <v>-6040.9381599764311</v>
       </c>
       <c r="Z57" s="30">
         <f t="shared" si="17"/>
-        <v>-113838.64131807681</v>
+        <v>-113840.93815997643</v>
       </c>
       <c r="AA57" s="30">
         <f t="shared" si="17"/>
-        <v>-175499.32065903841</v>
+        <v>-175500.46907998822</v>
       </c>
       <c r="AB57" s="30">
         <f t="shared" si="17"/>
@@ -28359,107 +28359,107 @@
       <c r="F58" s="61"/>
       <c r="G58" s="29">
         <f>IF(Inputs!$G$73="No",0,(G$44+G$57))</f>
-        <v>-2420052.9841705197</v>
+        <v>-2420498.4179194984</v>
       </c>
       <c r="H58" s="29">
         <f>IF(Inputs!$G$73="No",0,(H$44+H$57))</f>
-        <v>50333.936123073683</v>
+        <v>49982.196285661426</v>
       </c>
       <c r="I58" s="29">
         <f>IF(Inputs!$G$73="No",0,(I$44+I$57))</f>
-        <v>294964.74846635765</v>
+        <v>294609.84589722229</v>
       </c>
       <c r="J58" s="29">
         <f>IF(Inputs!$G$73="No",0,(J$44+J$57))</f>
-        <v>452113.47003273567</v>
+        <v>451755.09435321199</v>
       </c>
       <c r="K58" s="29">
         <f>IF(Inputs!$G$73="No",0,(K$44+K$57))</f>
-        <v>478226.64831894706</v>
+        <v>477864.3549964361</v>
       </c>
       <c r="L58" s="29">
         <f>IF(Inputs!$G$73="No",0,(L$44+L$57))</f>
-        <v>602707.79129384761</v>
+        <v>602341.83811041177</v>
       </c>
       <c r="M58" s="29">
         <f>IF(Inputs!$G$73="No",0,(M$44+M$57))</f>
-        <v>726609.45226846985</v>
+        <v>726239.79310359294</v>
       </c>
       <c r="N58" s="29">
         <f>IF(Inputs!$G$73="No",0,(N$44+N$57))</f>
-        <v>751824.79161228216</v>
+        <v>751451.07901824825</v>
       </c>
       <c r="O58" s="29">
         <f>IF(Inputs!$G$73="No",0,(O$44+O$57))</f>
-        <v>777488.19887455611</v>
+        <v>777110.38851202256</v>
       </c>
       <c r="P58" s="29">
         <f>IF(Inputs!$G$73="No",0,(P$44+P$57))</f>
-        <v>694596.5730576975</v>
+        <v>694214.62033165398</v>
       </c>
       <c r="Q58" s="29">
         <f>IF(Inputs!$G$73="No",0,(Q$44+Q$57))</f>
-        <v>653646.7894952856</v>
+        <v>653260.6490185007</v>
       </c>
       <c r="R58" s="29">
         <f>IF(Inputs!$G$73="No",0,(R$44+R$57))</f>
-        <v>747454.030407093</v>
+        <v>747063.65674952755</v>
       </c>
       <c r="S58" s="29">
         <f>IF(Inputs!$G$73="No",0,(S$44+S$57))</f>
-        <v>815436.03466788481</v>
+        <v>815041.3813013942</v>
       </c>
       <c r="T58" s="29">
         <f>IF(Inputs!$G$73="No",0,(T$44+T$57))</f>
-        <v>844574.55879950628</v>
+        <v>844175.5791422911</v>
       </c>
       <c r="U58" s="29">
         <f>IF(Inputs!$G$73="No",0,(U$44+U$57))</f>
-        <v>904326.80978886655</v>
+        <v>903923.45644521003</v>
       </c>
       <c r="V58" s="29">
         <f>IF(Inputs!$G$73="No",0,(V$44+V$57))</f>
-        <v>988428.92154857132</v>
+        <v>988021.2184430107</v>
       </c>
       <c r="W58" s="29">
         <f>IF(Inputs!$G$73="No",0,(W$44+W$57))</f>
-        <v>1043760.9621703546</v>
+        <v>1043348.8609456287</v>
       </c>
       <c r="X58" s="29">
         <f>IF(Inputs!$G$73="No",0,(X$44+X$57))</f>
-        <v>1076863.4567113109</v>
+        <v>1076446.8370262522</v>
       </c>
       <c r="Y58" s="29">
         <f>IF(Inputs!$G$73="No",0,(Y$44+Y$57))</f>
-        <v>1109931.41665693</v>
+        <v>1109510.2291699508</v>
       </c>
       <c r="Z58" s="29">
         <f>IF(Inputs!$G$73="No",0,(Z$44+Z$57))</f>
-        <v>1013269.4009046282</v>
+        <v>1012843.595735332</v>
       </c>
       <c r="AA58" s="29">
         <f>IF(Inputs!$G$73="No",0,(AA$44+AA$57))</f>
-        <v>-32821.662511209608</v>
+        <v>-33250.987366963906</v>
       </c>
       <c r="AB58" s="29">
         <f>IF(Inputs!$G$73="No",0,(AB$44+AB$57))</f>
-        <v>44590.723200834007</v>
+        <v>44157.827682888659</v>
       </c>
       <c r="AC58" s="29">
         <f>IF(Inputs!$G$73="No",0,(AC$44+AC$57))</f>
-        <v>91463.496989433246</v>
+        <v>91025.830855959153</v>
       </c>
       <c r="AD58" s="29">
         <f>IF(Inputs!$G$73="No",0,(AD$44+AD$57))</f>
-        <v>97027.361162299552</v>
+        <v>96584.872318175127</v>
       </c>
       <c r="AE58" s="29">
         <f>IF(Inputs!$G$73="No",0,(AE$44+AE$57))</f>
-        <v>132926.88843527008</v>
+        <v>132477.53719850993</v>
       </c>
       <c r="AF58" s="29">
         <f>IF(Inputs!$G$73="No",0,(AF$44+AF$57))</f>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG58" s="29">
         <f>IF(Inputs!$G$73="No",0,(AG$44+AG$57))</f>
@@ -28553,59 +28553,59 @@
       </c>
       <c r="M60" s="29">
         <f t="shared" si="18"/>
-        <v>184903.06233291165</v>
+        <v>182294.70482703811</v>
       </c>
       <c r="N60" s="29">
         <f t="shared" si="18"/>
-        <v>751824.79161228216</v>
+        <v>751451.07901824825</v>
       </c>
       <c r="O60" s="29">
         <f t="shared" si="18"/>
-        <v>777488.19887455611</v>
+        <v>777110.38851202256</v>
       </c>
       <c r="P60" s="29">
         <f t="shared" si="18"/>
-        <v>694596.5730576975</v>
+        <v>694214.62033165398</v>
       </c>
       <c r="Q60" s="29">
         <f t="shared" si="18"/>
-        <v>653646.7894952856</v>
+        <v>653260.6490185007</v>
       </c>
       <c r="R60" s="29">
         <f t="shared" si="18"/>
-        <v>747454.030407093</v>
+        <v>747063.65674952755</v>
       </c>
       <c r="S60" s="29">
         <f t="shared" si="18"/>
-        <v>815436.03466788481</v>
+        <v>815041.3813013942</v>
       </c>
       <c r="T60" s="29">
         <f t="shared" si="18"/>
-        <v>844574.55879950628</v>
+        <v>844175.5791422911</v>
       </c>
       <c r="U60" s="29">
         <f t="shared" si="18"/>
-        <v>904326.80978886655</v>
+        <v>903923.45644521003</v>
       </c>
       <c r="V60" s="29">
         <f t="shared" si="18"/>
-        <v>988428.92154857132</v>
+        <v>988021.2184430107</v>
       </c>
       <c r="W60" s="29">
         <f t="shared" si="18"/>
-        <v>1043760.9621703546</v>
+        <v>1043348.8609456287</v>
       </c>
       <c r="X60" s="29">
         <f t="shared" si="18"/>
-        <v>1076863.4567113109</v>
+        <v>1076446.8370262522</v>
       </c>
       <c r="Y60" s="29">
         <f t="shared" si="18"/>
-        <v>1109931.41665693</v>
+        <v>1109510.2291699508</v>
       </c>
       <c r="Z60" s="29">
         <f t="shared" si="18"/>
-        <v>1013269.4009046282</v>
+        <v>1012843.595735332</v>
       </c>
       <c r="AA60" s="29">
         <f t="shared" si="18"/>
@@ -28613,23 +28613,23 @@
       </c>
       <c r="AB60" s="29">
         <f t="shared" si="18"/>
-        <v>11769.060689624399</v>
+        <v>10906.840315924754</v>
       </c>
       <c r="AC60" s="29">
         <f t="shared" si="18"/>
-        <v>91463.496989433246</v>
+        <v>91025.830855959153</v>
       </c>
       <c r="AD60" s="29">
         <f t="shared" si="18"/>
-        <v>97027.361162299552</v>
+        <v>96584.872318175127</v>
       </c>
       <c r="AE60" s="29">
         <f t="shared" si="18"/>
-        <v>132926.88843527008</v>
+        <v>132477.53719850993</v>
       </c>
       <c r="AF60" s="29">
         <f t="shared" si="18"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG60" s="29">
         <f t="shared" si="18"/>
@@ -28687,59 +28687,59 @@
       </c>
       <c r="M61" s="29">
         <f t="shared" si="19"/>
-        <v>184903.06233291165</v>
+        <v>182294.70482703811</v>
       </c>
       <c r="N61" s="29">
         <f t="shared" si="19"/>
-        <v>751824.79161228216</v>
+        <v>751451.07901824825</v>
       </c>
       <c r="O61" s="29">
         <f t="shared" si="19"/>
-        <v>777488.19887455611</v>
+        <v>777110.38851202256</v>
       </c>
       <c r="P61" s="29">
         <f t="shared" si="19"/>
-        <v>694596.5730576975</v>
+        <v>694214.62033165398</v>
       </c>
       <c r="Q61" s="29">
         <f t="shared" si="19"/>
-        <v>653646.7894952856</v>
+        <v>653260.6490185007</v>
       </c>
       <c r="R61" s="29">
         <f t="shared" si="19"/>
-        <v>747454.030407093</v>
+        <v>747063.65674952755</v>
       </c>
       <c r="S61" s="29">
         <f t="shared" si="19"/>
-        <v>815436.03466788481</v>
+        <v>815041.3813013942</v>
       </c>
       <c r="T61" s="29">
         <f t="shared" si="19"/>
-        <v>844574.55879950628</v>
+        <v>844175.5791422911</v>
       </c>
       <c r="U61" s="29">
         <f t="shared" si="19"/>
-        <v>904326.80978886655</v>
+        <v>903923.45644521003</v>
       </c>
       <c r="V61" s="29">
         <f t="shared" si="19"/>
-        <v>988428.92154857132</v>
+        <v>988021.2184430107</v>
       </c>
       <c r="W61" s="29">
         <f t="shared" si="19"/>
-        <v>1043760.9621703546</v>
+        <v>1043348.8609456287</v>
       </c>
       <c r="X61" s="29">
         <f t="shared" si="19"/>
-        <v>1076863.4567113109</v>
+        <v>1076446.8370262522</v>
       </c>
       <c r="Y61" s="29">
         <f t="shared" si="19"/>
-        <v>1109931.41665693</v>
+        <v>1109510.2291699508</v>
       </c>
       <c r="Z61" s="29">
         <f t="shared" si="19"/>
-        <v>1013269.4009046282</v>
+        <v>1012843.595735332</v>
       </c>
       <c r="AA61" s="29">
         <f t="shared" si="19"/>
@@ -28747,23 +28747,23 @@
       </c>
       <c r="AB61" s="29">
         <f t="shared" si="19"/>
-        <v>11769.060689624399</v>
+        <v>10906.840315924754</v>
       </c>
       <c r="AC61" s="29">
         <f t="shared" si="19"/>
-        <v>91463.496989433246</v>
+        <v>91025.830855959153</v>
       </c>
       <c r="AD61" s="29">
         <f t="shared" si="19"/>
-        <v>97027.361162299552</v>
+        <v>96584.872318175127</v>
       </c>
       <c r="AE61" s="29">
         <f t="shared" si="19"/>
-        <v>132926.88843527008</v>
+        <v>132477.53719850993</v>
       </c>
       <c r="AF61" s="29">
         <f t="shared" si="19"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG61" s="29">
         <f t="shared" si="19"/>
@@ -28849,59 +28849,59 @@
       </c>
       <c r="M63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(M$60+M$64)*Inputs!$G$74)</f>
-        <v>-59215.205712114956</v>
+        <v>-58379.879220858951</v>
       </c>
       <c r="N63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(N$60+N$64)*Inputs!$G$74)</f>
-        <v>-240771.88951383336</v>
+        <v>-240652.20805559398</v>
       </c>
       <c r="O63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(O$60+O$64)*Inputs!$G$74)</f>
-        <v>-248990.59568957656</v>
+        <v>-248869.60192097523</v>
       </c>
       <c r="P63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(P$60+P$64)*Inputs!$G$74)</f>
-        <v>-222444.5525217276</v>
+        <v>-222322.23216121216</v>
       </c>
       <c r="Q63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(Q$60+Q$64)*Inputs!$G$74)</f>
-        <v>-209330.38433586521</v>
+        <v>-209206.72284817483</v>
       </c>
       <c r="R63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(R$60+R$64)*Inputs!$G$74)</f>
-        <v>-239372.15323787153</v>
+        <v>-239247.13607403619</v>
       </c>
       <c r="S63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(S$60+S$64)*Inputs!$G$74)</f>
-        <v>-261143.39010239008</v>
+        <v>-261017.00236177148</v>
       </c>
       <c r="T63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(T$60+T$64)*Inputs!$G$74)</f>
-        <v>-270475.00245554186</v>
+        <v>-270347.22922031872</v>
       </c>
       <c r="U63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(U$60+U$64)*Inputs!$G$74)</f>
-        <v>-289610.6608348845</v>
+        <v>-289481.48692657851</v>
       </c>
       <c r="V63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(V$60+V$64)*Inputs!$G$74)</f>
-        <v>-316544.36212592991</v>
+        <v>-316413.7952063742</v>
       </c>
       <c r="W63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(W$60+W$64)*Inputs!$G$74)</f>
-        <v>-334264.44813505601</v>
+        <v>-334132.47271783755</v>
       </c>
       <c r="X63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(X$60+X$64)*Inputs!$G$74)</f>
-        <v>-344865.52201179729</v>
+        <v>-344732.09955765726</v>
       </c>
       <c r="Y63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(Y$60+Y$64)*Inputs!$G$74)</f>
-        <v>-355455.53618438181</v>
+        <v>-355320.65089167672</v>
       </c>
       <c r="Z63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(Z$60+Z$64)*Inputs!$G$74)</f>
-        <v>-324499.52563970716</v>
+        <v>-324363.16153424006</v>
       </c>
       <c r="AA63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AA$60+AA$64)*Inputs!$G$74)</f>
@@ -28909,23 +28909,23 @@
       </c>
       <c r="AB63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AB$60+AB$64)*Inputs!$G$74)</f>
-        <v>-3769.0416858522135</v>
+        <v>-3492.9156111749016</v>
       </c>
       <c r="AC63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AC$60+AC$64)*Inputs!$G$74)</f>
-        <v>-29291.184910865995</v>
+        <v>-29151.022331620919</v>
       </c>
       <c r="AD63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AD$60+AD$64)*Inputs!$G$74)</f>
-        <v>-31073.012412226428</v>
+        <v>-30931.305359895581</v>
       </c>
       <c r="AE63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AE$60+AE$64)*Inputs!$G$74)</f>
-        <v>-42569.83602139524</v>
+        <v>-42425.931287822801</v>
       </c>
       <c r="AF63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AF$60+AF$64)*Inputs!$G$74)</f>
-        <v>-1.8641003407537937E-13</v>
+        <v>-2.7961505111306905E-13</v>
       </c>
       <c r="AG63" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AG$60+AG$64)*Inputs!$G$74)</f>
@@ -28974,59 +28974,59 @@
       </c>
       <c r="M64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(M$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!M$21,0))*Inputs!$G$76)</f>
-        <v>-15716.760298297491</v>
+        <v>-15495.049910298239</v>
       </c>
       <c r="N64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(N$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!N$21,0))*Inputs!$G$76)</f>
-        <v>-63905.107287043989</v>
+        <v>-63873.341716551105</v>
       </c>
       <c r="O64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(O$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!O$21,0))*Inputs!$G$76)</f>
-        <v>-66086.496904337269</v>
+        <v>-66054.383023521921</v>
       </c>
       <c r="P64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(P$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!P$21,0))*Inputs!$G$76)</f>
-        <v>-59040.708709904291</v>
+        <v>-59008.242728190591</v>
       </c>
       <c r="Q64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(Q$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!Q$21,0))*Inputs!$G$76)</f>
-        <v>-55559.977107099279</v>
+        <v>-55527.155166572564</v>
       </c>
       <c r="R64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(R$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!R$21,0))*Inputs!$G$76)</f>
-        <v>-63533.592584602913</v>
+        <v>-63500.410823709848</v>
       </c>
       <c r="S64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(S$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!S$21,0))*Inputs!$G$76)</f>
-        <v>-69312.062946770209</v>
+        <v>-69278.517410618515</v>
       </c>
       <c r="T64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(T$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!T$21,0))*Inputs!$G$76)</f>
-        <v>-71788.83749795804</v>
+        <v>-71754.924227094743</v>
       </c>
       <c r="U64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(U$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!U$21,0))*Inputs!$G$76)</f>
-        <v>-76867.778832053664</v>
+        <v>-76833.493797842864</v>
       </c>
       <c r="V64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(V$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!V$21,0))*Inputs!$G$76)</f>
-        <v>-84016.458331628572</v>
+        <v>-83981.803567655908</v>
       </c>
       <c r="W64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(W$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!W$21,0))*Inputs!$G$76)</f>
-        <v>-88719.681784480141</v>
+        <v>-88684.653180378446</v>
       </c>
       <c r="X64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(X$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!X$21,0))*Inputs!$G$76)</f>
-        <v>-91533.393820461439</v>
+        <v>-91497.981147231447</v>
       </c>
       <c r="Y64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(Y$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!Y$21,0))*Inputs!$G$76)</f>
-        <v>-94344.170415839064</v>
+        <v>-94308.369479445828</v>
       </c>
       <c r="Z64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(Z$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!Z$21,0))*Inputs!$G$76)</f>
-        <v>-86127.899076893402</v>
+        <v>-86091.705637503226</v>
       </c>
       <c r="AA64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AA$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!AA$21,0))*Inputs!$G$76)</f>
@@ -29034,23 +29034,23 @@
       </c>
       <c r="AB64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AB$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!AB$21,0))*Inputs!$G$76)</f>
-        <v>-1000.370158618074</v>
+        <v>-927.08142685360417</v>
       </c>
       <c r="AC64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AC$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!AC$21,0))*Inputs!$G$76)</f>
-        <v>-7774.3972441018268</v>
+        <v>-7737.1956227565288</v>
       </c>
       <c r="AD64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AD$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!AD$21,0))*Inputs!$G$76)</f>
-        <v>-8247.3256987954628</v>
+        <v>-8209.714147044886</v>
       </c>
       <c r="AE64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AE$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!AE$21,0))*Inputs!$G$76)</f>
-        <v>-11298.785516997958</v>
+        <v>-11260.590661873344</v>
       </c>
       <c r="AF64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AF$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!AF$21,0))*Inputs!$G$76)</f>
-        <v>-4.94765117764473E-14</v>
+        <v>-7.421476766467095E-14</v>
       </c>
       <c r="AG64" s="29">
         <f>IF(Inputs!$G$73="No",0,-(AG$61-IF(AND(Inputs!$Q$38="Cash",Inputs!$Q$40="No"),'Cash Flow'!AG$21,0))*Inputs!$G$76)</f>
@@ -29100,23 +29100,23 @@
       </c>
       <c r="M65" s="29">
         <f>IF(AND(Inputs!$Q$19="Cost-Based",Inputs!$Q$20="Cash Grant",M$2=1),Inputs!$Q$23,IF(Inputs!$G$75="as generated",'Cash Flow'!M$166,-M$173))</f>
-        <v>59215.205712114956</v>
+        <v>58379.879220858951</v>
       </c>
       <c r="N65" s="29">
         <f>IF(AND(Inputs!$Q$19="Cost-Based",Inputs!$Q$20="Cash Grant",N$2=1),Inputs!$Q$23,IF(Inputs!$G$75="as generated",'Cash Flow'!N$166,-N$173))</f>
-        <v>240771.88951383336</v>
+        <v>240652.20805559398</v>
       </c>
       <c r="O65" s="29">
         <f>IF(AND(Inputs!$Q$19="Cost-Based",Inputs!$Q$20="Cash Grant",O$2=1),Inputs!$Q$23,IF(Inputs!$G$75="as generated",'Cash Flow'!O$166,-O$173))</f>
-        <v>248990.59568957656</v>
+        <v>248869.60192097523</v>
       </c>
       <c r="P65" s="29">
         <f>IF(AND(Inputs!$Q$19="Cost-Based",Inputs!$Q$20="Cash Grant",P$2=1),Inputs!$Q$23,IF(Inputs!$G$75="as generated",'Cash Flow'!P$166,-P$173))</f>
-        <v>222444.5525217276</v>
+        <v>222322.23216121216</v>
       </c>
       <c r="Q65" s="29">
         <f>IF(AND(Inputs!$Q$19="Cost-Based",Inputs!$Q$20="Cash Grant",Q$2=1),Inputs!$Q$23,IF(Inputs!$G$75="as generated",'Cash Flow'!Q$166,-Q$173))</f>
-        <v>195777.75656274756</v>
+        <v>196976.07864135967</v>
       </c>
       <c r="R65" s="29">
         <f>IF(AND(Inputs!$Q$19="Cost-Based",Inputs!$Q$20="Cash Grant",R$2=1),Inputs!$Q$23,IF(Inputs!$G$75="as generated",'Cash Flow'!R$166,-R$173))</f>
@@ -29333,111 +29333,111 @@
       <c r="E67" s="29"/>
       <c r="F67" s="31">
         <f t="shared" ref="F67:AJ67" si="20">F54+SUM(F63:F66)</f>
-        <v>-3371652.866580395</v>
+        <v>-3371851.5683789058</v>
       </c>
       <c r="G67" s="31">
         <f>G54+SUM(G63:G66)</f>
-        <v>503902.344840687</v>
+        <v>503558.54319015727</v>
       </c>
       <c r="H67" s="31">
         <f t="shared" si="20"/>
-        <v>522654.29133111762</v>
+        <v>522306.6919700912</v>
       </c>
       <c r="I67" s="31">
         <f t="shared" si="20"/>
-        <v>541092.37777981092</v>
+        <v>540740.93923728936</v>
       </c>
       <c r="J67" s="31">
         <f t="shared" si="20"/>
-        <v>559269.35134254536</v>
+        <v>558914.03169466672</v>
       </c>
       <c r="K67" s="31">
         <f t="shared" si="20"/>
-        <v>577232.99968644651</v>
+        <v>576873.75655154022</v>
       </c>
       <c r="L67" s="31">
         <f t="shared" si="20"/>
-        <v>595026.65158686601</v>
+        <v>594663.44212045404</v>
       </c>
       <c r="M67" s="31">
         <f t="shared" si="20"/>
-        <v>596972.86723474937</v>
+        <v>596827.35851249041</v>
       </c>
       <c r="N67" s="31">
         <f t="shared" si="20"/>
-        <v>566352.53805565648</v>
+        <v>566013.03108673415</v>
       </c>
       <c r="O67" s="31">
         <f t="shared" si="20"/>
-        <v>581676.68838129612</v>
+        <v>581333.43203009327</v>
       </c>
       <c r="P67" s="31">
         <f t="shared" si="20"/>
-        <v>657895.1100566478</v>
+        <v>657548.06336693664</v>
       </c>
       <c r="Q67" s="31">
         <f t="shared" si="20"/>
-        <v>599681.01044307277</v>
+        <v>600652.11560363241</v>
       </c>
       <c r="R67" s="31">
         <f t="shared" si="20"/>
-        <v>383422.10762084567</v>
+        <v>383192.3727950505</v>
       </c>
       <c r="S67" s="31">
         <f t="shared" si="20"/>
-        <v>373447.80732420669</v>
+        <v>373215.52721742482</v>
       </c>
       <c r="T67" s="31">
         <f t="shared" si="20"/>
-        <v>379276.6102926195</v>
+        <v>379041.75704853248</v>
       </c>
       <c r="U67" s="31">
         <f t="shared" si="20"/>
-        <v>372779.90102652356</v>
+        <v>372542.44660832227</v>
       </c>
       <c r="V67" s="31">
         <f t="shared" si="20"/>
-        <v>356513.50741891656</v>
+        <v>356273.39437135507</v>
       </c>
       <c r="W67" s="31">
         <f t="shared" si="20"/>
-        <v>352020.31417214882</v>
+        <v>351777.51381064282</v>
       </c>
       <c r="X67" s="31">
         <f t="shared" si="20"/>
-        <v>356664.58386483253</v>
+        <v>356419.09614904353</v>
       </c>
       <c r="Y67" s="31">
         <f t="shared" si="20"/>
-        <v>729304.55703811999</v>
+        <v>729056.3526221388</v>
       </c>
       <c r="Z67" s="31">
         <f t="shared" si="20"/>
-        <v>716480.61750610441</v>
+        <v>716229.66672356508</v>
       </c>
       <c r="AA67" s="31">
         <f t="shared" si="20"/>
-        <v>142677.6581478288</v>
+        <v>142249.48171302432</v>
       </c>
       <c r="AB67" s="31">
         <f t="shared" si="20"/>
-        <v>143309.31135636373</v>
+        <v>143225.83064486017</v>
       </c>
       <c r="AC67" s="31">
         <f t="shared" si="20"/>
-        <v>116490.71483446541</v>
+        <v>116230.4129015817</v>
       </c>
       <c r="AD67" s="31">
         <f t="shared" si="20"/>
-        <v>119799.82305127765</v>
+        <v>119536.65281123464</v>
       </c>
       <c r="AE67" s="31">
         <f t="shared" si="20"/>
-        <v>190734.43892504874</v>
+        <v>190665.88907549682</v>
       </c>
       <c r="AF67" s="31">
         <f t="shared" si="20"/>
-        <v>3.4619006328284738E-13</v>
+        <v>5.1928509492427103E-13</v>
       </c>
       <c r="AG67" s="31">
         <f t="shared" si="20"/>
@@ -29466,123 +29466,123 @@
       <c r="F68" s="31"/>
       <c r="G68" s="331">
         <f>IF(ISERROR(IRR($F67:G67)),"NA",IRR($F67:G67))</f>
-        <v>-0.85054738290666443</v>
+        <v>-0.85065815235981623</v>
       </c>
       <c r="H68" s="331">
         <f>IF(ISERROR(IRR($F67:H67)),"NA",IRR($F67:H67))</f>
-        <v>-0.52452653138527872</v>
+        <v>-0.52473228577743258</v>
       </c>
       <c r="I68" s="331">
         <f>IF(ISERROR(IRR($F67:I67)),"NA",IRR($F67:I67))</f>
-        <v>-0.3007021176193545</v>
+        <v>-0.30092547618662713</v>
       </c>
       <c r="J68" s="331">
         <f>IF(ISERROR(IRR($F67:J67)),"NA",IRR($F67:J67))</f>
-        <v>-0.15953073376141436</v>
+        <v>-0.15974807726122853</v>
       </c>
       <c r="K68" s="331">
         <f>IF(ISERROR(IRR($F67:K67)),"NA",IRR($F67:K67))</f>
-        <v>-6.7896493708758499E-2</v>
+        <v>-6.8101909925190829E-2</v>
       </c>
       <c r="L68" s="331">
         <f>IF(ISERROR(IRR($F67:L67)),"NA",IRR($F67:L67))</f>
-        <v>-6.0089129658231766E-3</v>
+        <v>-6.201853358988707E-3</v>
       </c>
       <c r="M68" s="331">
         <f>IF(ISERROR(IRR($F67:M67)),"NA",IRR($F67:M67))</f>
-        <v>3.637075460553163E-2</v>
+        <v>3.6201859870044428E-2</v>
       </c>
       <c r="N68" s="331">
         <f>IF(ISERROR(IRR($F67:N67)),"NA",IRR($F67:N67))</f>
-        <v>6.5032465700804121E-2</v>
+        <v>6.4870011562908836E-2</v>
       </c>
       <c r="O68" s="331">
         <f>IF(ISERROR(IRR($F67:O67)),"NA",IRR($F67:O67))</f>
-        <v>8.666611882549069E-2</v>
+        <v>8.6510220369468316E-2</v>
       </c>
       <c r="P68" s="331">
         <f>IF(ISERROR(IRR($F67:P67)),"NA",IRR($F67:P67))</f>
-        <v>0.10477092525838883</v>
+        <v>0.10462254560186612</v>
       </c>
       <c r="Q68" s="331">
         <f>IF(ISERROR(IRR($F67:Q67)),"NA",IRR($F67:Q67))</f>
-        <v>0.11719880854922615</v>
+        <v>0.11708082561430722</v>
       </c>
       <c r="R68" s="331">
         <f>IF(ISERROR(IRR($F67:R67)),"NA",IRR($F67:R67))</f>
-        <v>0.12348588784606185</v>
+        <v>0.12336876655400308</v>
       </c>
       <c r="S68" s="331">
         <f>IF(ISERROR(IRR($F67:S67)),"NA",IRR($F67:S67))</f>
-        <v>0.12849834907149127</v>
+        <v>0.12838225573080542</v>
       </c>
       <c r="T68" s="331">
         <f>IF(ISERROR(IRR($F67:T67)),"NA",IRR($F67:T67))</f>
-        <v>0.13268351093242692</v>
+        <v>0.13256864023169501</v>
       </c>
       <c r="U68" s="331">
         <f>IF(ISERROR(IRR($F67:U67)),"NA",IRR($F67:U67))</f>
-        <v>0.13607891962268859</v>
+        <v>0.13596524984509628</v>
       </c>
       <c r="V68" s="331">
         <f>IF(ISERROR(IRR($F67:V67)),"NA",IRR($F67:V67))</f>
-        <v>0.13877489160113154</v>
+        <v>0.13866228607410536</v>
       </c>
       <c r="W68" s="331">
         <f>IF(ISERROR(IRR($F67:W67)),"NA",IRR($F67:W67))</f>
-        <v>0.14099651931398793</v>
+        <v>0.14088492497081706</v>
       </c>
       <c r="X68" s="331">
         <f>IF(ISERROR(IRR($F67:X67)),"NA",IRR($F67:X67))</f>
-        <v>0.14288140018472451</v>
+        <v>0.1427708072771916</v>
       </c>
       <c r="Y68" s="331">
         <f>IF(ISERROR(IRR($F67:Y67)),"NA",IRR($F67:Y67))</f>
-        <v>0.14605519286323898</v>
+        <v>0.14594754414249134</v>
       </c>
       <c r="Z68" s="331">
         <f>IF(ISERROR(IRR($F67:Z67)),"NA",IRR($F67:Z67))</f>
-        <v>0.14858888330759368</v>
+        <v>0.14848362806738247</v>
       </c>
       <c r="AA68" s="331">
         <f>IF(ISERROR(IRR($F67:AA67)),"NA",IRR($F67:AA67))</f>
-        <v>0.14901175569919389</v>
+        <v>0.1489058074056262</v>
       </c>
       <c r="AB68" s="331">
         <f>IF(ISERROR(IRR($F67:AB67)),"NA",IRR($F67:AB67))</f>
-        <v>0.14937736194131102</v>
+        <v>0.14927173531825622</v>
       </c>
       <c r="AC68" s="331">
         <f>IF(ISERROR(IRR($F67:AC67)),"NA",IRR($F67:AC67))</f>
-        <v>0.14963356127419414</v>
+        <v>0.14952775920033456</v>
       </c>
       <c r="AD68" s="331">
         <f>IF(ISERROR(IRR($F67:AD67)),"NA",IRR($F67:AD67))</f>
-        <v>0.14986101492502568</v>
+        <v>0.14975508765074008</v>
       </c>
       <c r="AE68" s="331">
         <f>IF(ISERROR(IRR($F67:AE67)),"NA",IRR($F67:AE67))</f>
-        <v>0.15017314138294102</v>
+        <v>0.15006764381260651</v>
       </c>
       <c r="AF68" s="331">
         <f>IF(ISERROR(IRR($F67:AF67)),"NA",IRR($F67:AF67))</f>
-        <v>0.15017314138294102</v>
+        <v>0.15006764381260651</v>
       </c>
       <c r="AG68" s="331">
         <f>IF(ISERROR(IRR($F67:AG67)),"NA",IRR($F67:AG67))</f>
-        <v>0.15017314138294102</v>
+        <v>0.15006764381260651</v>
       </c>
       <c r="AH68" s="331">
         <f>IF(ISERROR(IRR($F67:AH67)),"NA",IRR($F67:AH67))</f>
-        <v>0.15017314138294102</v>
+        <v>0.15006764381260651</v>
       </c>
       <c r="AI68" s="331">
         <f>IF(ISERROR(IRR($F67:AI67)),"NA",IRR($F67:AI67))</f>
-        <v>0.15017314138294102</v>
+        <v>0.15006764381260651</v>
       </c>
       <c r="AJ68" s="331">
         <f>IF(ISERROR(IRR($F67:AJ67)),"NA",IRR($F67:AJ67))</f>
-        <v>0.15017314138294102</v>
+        <v>0.15006764381260651</v>
       </c>
     </row>
     <row r="69" spans="2:36" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -29629,7 +29629,7 @@
       <c r="C70" s="732"/>
       <c r="D70" s="467">
         <f>IRR(F54:AJ54)</f>
-        <v>0.17106284054280474</v>
+        <v>0.17094605637644467</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="411" t="s">
@@ -29670,7 +29670,7 @@
       <c r="C71" s="469"/>
       <c r="D71" s="467">
         <f>IRR(F67:AJ67)</f>
-        <v>0.15017314138294102</v>
+        <v>0.15006764381260651</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="413" t="s">
@@ -29712,7 +29712,7 @@
       <c r="C72" s="734"/>
       <c r="D72" s="470">
         <f>NPV(Inputs!$G$62,'Cash Flow'!F67:AJ67)</f>
-        <v>2801.411742365422</v>
+        <v>1094.5334120010107</v>
       </c>
       <c r="G72" s="412">
         <f>AVERAGE(R204:S204)</f>
@@ -31433,11 +31433,11 @@
       </c>
       <c r="D99" s="460">
         <f t="shared" ref="D99:D106" si="25">C99/$C$110</f>
-        <v>0.63626147898460117</v>
+        <v>0.63623985601389299</v>
       </c>
       <c r="E99" s="225">
         <f>($C$110-$C$112)*IF(Inputs!$P$70="No",1,(1-Inputs!$P$71))*D99</f>
-        <v>1706151.9743815234</v>
+        <v>1706157.2028158407</v>
       </c>
       <c r="F99" s="226"/>
       <c r="G99" s="227">
@@ -31649,11 +31649,11 @@
       </c>
       <c r="D101" s="460">
         <f t="shared" si="25"/>
-        <v>9.2360537271958226E-2</v>
+        <v>9.2357398453629627E-2</v>
       </c>
       <c r="E101" s="225">
         <f>($C$110-$C$112)*IF(Inputs!$P$70="No",1,(1-Inputs!$P$71))*D101</f>
-        <v>247667.22208764049</v>
+        <v>247667.98105391234</v>
       </c>
       <c r="F101" s="221"/>
       <c r="G101" s="227">
@@ -31997,11 +31997,11 @@
       </c>
       <c r="D104" s="460">
         <f t="shared" si="25"/>
-        <v>0.17958993358436323</v>
+        <v>0.17958383032650205</v>
       </c>
       <c r="E104" s="225">
         <f>($C$110-$C$112)*IF(Inputs!$P$70="No",1,(1-Inputs!$P$71))*D104</f>
-        <v>481575.15405930101</v>
+        <v>481576.62982705177</v>
       </c>
       <c r="F104" s="221"/>
       <c r="G104" s="227">
@@ -32115,15 +32115,15 @@
       </c>
       <c r="C105" s="225">
         <f>IF(Inputs!$G$18="Simple",Inputs!$G$26*Inputs!$X$73,IF(Inputs!$G$18="Intermediate",SUMPRODUCT(Inputs!$G$20:$G$24,Inputs!$X$74:$X$78),'Complex Inputs'!$L$121))</f>
-        <v>263326.4332901974</v>
+        <v>263425.784189453</v>
       </c>
       <c r="D105" s="460">
         <f t="shared" si="25"/>
-        <v>4.5038834919613149E-2</v>
+        <v>4.505429650619474E-2</v>
       </c>
       <c r="E105" s="225">
         <f>($C$110-$C$112)*IF(Inputs!$P$70="No",1,(1-Inputs!$P$71))*D105</f>
-        <v>120772.82636153625</v>
+        <v>120818.76319952862</v>
       </c>
       <c r="F105" s="221"/>
       <c r="G105" s="227">
@@ -32342,7 +32342,7 @@
       <c r="D107" s="460"/>
       <c r="E107" s="225">
         <f>($C$110-$C$112)*IF(Inputs!$P$70="No",0,Inputs!$P$71)</f>
-        <v>2681526.4332901975</v>
+        <v>2681625.7841894533</v>
       </c>
       <c r="F107" s="221"/>
       <c r="G107" s="227">
@@ -32442,15 +32442,15 @@
       </c>
       <c r="C108" s="471">
         <f>IF(Inputs!$G$18="Simple",Inputs!$G$26*Inputs!$Z$73,IF(Inputs!$G$18="Intermediate",SUMPRODUCT(Inputs!$G$20:$G$24,Inputs!$Z$74:$Z$78),'Complex Inputs'!$N$121))</f>
-        <v>273326.4332901974</v>
+        <v>273425.784189453</v>
       </c>
       <c r="D108" s="472">
         <f>C108/$C$110</f>
-        <v>4.6749215239464223E-2</v>
+        <v>4.6764618699780471E-2</v>
       </c>
       <c r="E108" s="471">
         <f>($C$110-$C$112)*IF(Inputs!$P$70="No",1,(1-Inputs!$P$71))*D108</f>
-        <v>125359.25640019625</v>
+        <v>125405.20729311957</v>
       </c>
       <c r="F108" s="221"/>
       <c r="G108" s="228"/>
@@ -32531,15 +32531,15 @@
       </c>
       <c r="C110" s="230">
         <f>SUM(C99:C108)</f>
-        <v>5846652.866580395</v>
+        <v>5846851.5683789067</v>
       </c>
       <c r="D110" s="460">
         <f>SUM(D99:D108)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="E110" s="230">
         <f>SUM(E99:E108)</f>
-        <v>5363052.866580395</v>
+        <v>5363251.5683789067</v>
       </c>
       <c r="F110" s="221"/>
       <c r="G110" s="228"/>
@@ -32786,32 +32786,32 @@
       <c r="D116" s="221"/>
       <c r="E116" s="230">
         <f>SUM(G116:AJ116)</f>
-        <v>1706151.9743815234</v>
+        <v>1706157.2028158405</v>
       </c>
       <c r="F116" s="230"/>
       <c r="G116" s="231">
         <f>$E99*G99</f>
-        <v>341230.39487630472</v>
+        <v>341231.44056316814</v>
       </c>
       <c r="H116" s="231">
         <f t="shared" ref="H116:AJ116" si="29">$E99*H99</f>
-        <v>545968.63180208753</v>
+        <v>545970.30490106903</v>
       </c>
       <c r="I116" s="231">
         <f t="shared" si="29"/>
-        <v>327581.17908125249</v>
+        <v>327582.18294064142</v>
       </c>
       <c r="J116" s="231">
         <f t="shared" si="29"/>
-        <v>196548.70744875149</v>
+        <v>196549.30976438485</v>
       </c>
       <c r="K116" s="231">
         <f t="shared" si="29"/>
-        <v>196548.70744875149</v>
+        <v>196549.30976438485</v>
       </c>
       <c r="L116" s="231">
         <f t="shared" si="29"/>
-        <v>98274.353724375746</v>
+        <v>98274.654882192423</v>
       </c>
       <c r="M116" s="231">
         <f t="shared" si="29"/>
@@ -33050,72 +33050,72 @@
       <c r="D118" s="221"/>
       <c r="E118" s="230">
         <f t="shared" si="30"/>
-        <v>247667.22208764049</v>
+        <v>247667.98105391237</v>
       </c>
       <c r="F118" s="230"/>
       <c r="G118" s="231">
         <f t="shared" ref="G118:AJ118" si="32">$E101*G101</f>
-        <v>12383.361104382026</v>
+        <v>12383.399052695619</v>
       </c>
       <c r="H118" s="231">
         <f t="shared" si="32"/>
-        <v>23528.386098325846</v>
+        <v>23528.458200121673</v>
       </c>
       <c r="I118" s="231">
         <f t="shared" si="32"/>
-        <v>21175.547488493263</v>
+        <v>21175.612380109505</v>
       </c>
       <c r="J118" s="231">
         <f t="shared" si="32"/>
-        <v>19070.376100748319</v>
+        <v>19070.434541151251</v>
       </c>
       <c r="K118" s="231">
         <f t="shared" si="32"/>
-        <v>17163.338490673486</v>
+        <v>17163.391087036125</v>
       </c>
       <c r="L118" s="231">
         <f t="shared" si="32"/>
-        <v>15429.667936060003</v>
+        <v>15429.715219658739</v>
       </c>
       <c r="M118" s="231">
         <f t="shared" si="32"/>
-        <v>14612.366103170789</v>
+        <v>14612.410882180828</v>
       </c>
       <c r="N118" s="231">
         <f t="shared" si="32"/>
-        <v>14612.366103170789</v>
+        <v>14612.410882180828</v>
       </c>
       <c r="O118" s="231">
         <f t="shared" si="32"/>
-        <v>14637.132825379553</v>
+        <v>14637.177680286219</v>
       </c>
       <c r="P118" s="231">
         <f t="shared" si="32"/>
-        <v>14612.366103170789</v>
+        <v>14612.410882180828</v>
       </c>
       <c r="Q118" s="231">
         <f t="shared" si="32"/>
-        <v>14637.132825379553</v>
+        <v>14637.177680286219</v>
       </c>
       <c r="R118" s="231">
         <f t="shared" si="32"/>
-        <v>14612.366103170789</v>
+        <v>14612.410882180828</v>
       </c>
       <c r="S118" s="231">
         <f t="shared" si="32"/>
-        <v>14637.132825379553</v>
+        <v>14637.177680286219</v>
       </c>
       <c r="T118" s="231">
         <f t="shared" si="32"/>
-        <v>14612.366103170789</v>
+        <v>14612.410882180828</v>
       </c>
       <c r="U118" s="231">
         <f t="shared" si="32"/>
-        <v>14637.132825379553</v>
+        <v>14637.177680286219</v>
       </c>
       <c r="V118" s="231">
         <f t="shared" si="32"/>
-        <v>7306.1830515853944</v>
+        <v>7306.2054410904138</v>
       </c>
       <c r="W118" s="231">
         <f t="shared" si="32"/>
@@ -33446,72 +33446,72 @@
       <c r="D121" s="221"/>
       <c r="E121" s="230">
         <f t="shared" si="30"/>
-        <v>481575.1540593009</v>
+        <v>481576.62982705183</v>
       </c>
       <c r="F121" s="230"/>
       <c r="G121" s="231">
         <f t="shared" ref="G121:AJ121" si="35">$E104*G104</f>
-        <v>16036.452630174725</v>
+        <v>16036.501773240825</v>
       </c>
       <c r="H121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="I121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="J121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="K121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="L121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="M121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="N121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="O121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="P121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="Q121" s="231">
         <f t="shared" si="35"/>
-        <v>32121.062775755374</v>
+        <v>32121.16120946435</v>
       </c>
       <c r="R121" s="231">
         <f t="shared" si="35"/>
-        <v>32072.905260349449</v>
+        <v>32073.00354648165</v>
       </c>
       <c r="S121" s="231">
         <f t="shared" si="35"/>
-        <v>32072.905260349449</v>
+        <v>32073.00354648165</v>
       </c>
       <c r="T121" s="231">
         <f t="shared" si="35"/>
-        <v>32072.905260349449</v>
+        <v>32073.00354648165</v>
       </c>
       <c r="U121" s="231">
         <f t="shared" si="35"/>
-        <v>32072.905260349449</v>
+        <v>32073.00354648165</v>
       </c>
       <c r="V121" s="231">
         <f t="shared" si="35"/>
-        <v>16036.452630174725</v>
+        <v>16036.501773240825</v>
       </c>
       <c r="W121" s="231">
         <f t="shared" si="35"/>
@@ -33578,92 +33578,92 @@
       <c r="D122" s="221"/>
       <c r="E122" s="230">
         <f t="shared" si="30"/>
-        <v>120772.82636153627</v>
+        <v>120818.76319952862</v>
       </c>
       <c r="F122" s="230"/>
       <c r="G122" s="231">
         <f t="shared" ref="G122:AJ122" si="36">$E105*G105</f>
-        <v>3019.3206590384066</v>
+        <v>3020.4690799882155</v>
       </c>
       <c r="H122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="I122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="J122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="K122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="L122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="M122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="N122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="O122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="P122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="Q122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="R122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="S122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="T122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="U122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="V122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="W122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="X122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="Y122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="Z122" s="231">
         <f t="shared" si="36"/>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="AA122" s="231">
         <f t="shared" si="36"/>
-        <v>3019.3206590384066</v>
+        <v>3020.4690799882155</v>
       </c>
       <c r="AB122" s="231">
         <f t="shared" si="36"/>
@@ -33842,12 +33842,12 @@
       <c r="D124" s="221"/>
       <c r="E124" s="230">
         <f t="shared" si="30"/>
-        <v>2681526.4332901975</v>
+        <v>2681625.7841894533</v>
       </c>
       <c r="F124" s="230"/>
       <c r="G124" s="231">
         <f t="shared" si="37"/>
-        <v>2681526.4332901975</v>
+        <v>2681625.7841894533</v>
       </c>
       <c r="H124" s="231">
         <f t="shared" si="37"/>
@@ -33974,7 +33974,7 @@
       <c r="D125" s="233"/>
       <c r="E125" s="234">
         <f>E108</f>
-        <v>125359.25640019625</v>
+        <v>125405.20729311957</v>
       </c>
       <c r="F125" s="230"/>
       <c r="G125" s="232"/>
@@ -34016,7 +34016,7 @@
       <c r="D126" s="221"/>
       <c r="E126" s="230">
         <f>SUM(E116:E125)</f>
-        <v>5363052.8665803941</v>
+        <v>5363251.5683789058</v>
       </c>
       <c r="F126" s="235" t="str">
         <f>IF(ROUND(E126,0)=ROUND(E110,0),"OK","error")</f>
@@ -34956,87 +34956,87 @@
       <c r="F136" s="264"/>
       <c r="G136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",G$2&lt;=Inputs!$G$15),SUM('Cash Flow'!G116:G124)+G131+G134,0)</f>
-        <v>3054195.9625600972</v>
+        <v>3054297.5946585461</v>
       </c>
       <c r="H136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",H$2&lt;=Inputs!$G$15),SUM('Cash Flow'!H116:H124)+H131+H134,0)</f>
-        <v>607656.72199424554</v>
+        <v>607660.86247063137</v>
       </c>
       <c r="I136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",I$2&lt;=Inputs!$G$15),SUM('Cash Flow'!I116:I124)+I131+I134,0)</f>
-        <v>386916.43066357792</v>
+        <v>386919.89469019172</v>
       </c>
       <c r="J136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",J$2&lt;=Inputs!$G$15),SUM('Cash Flow'!J116:J124)+J131+J134,0)</f>
-        <v>253778.78764333198</v>
+        <v>253781.8436749769</v>
       </c>
       <c r="K136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",K$2&lt;=Inputs!$G$15),SUM('Cash Flow'!K116:K124)+K131+K134,0)</f>
-        <v>251871.75003325718</v>
+        <v>251874.80022086174</v>
       </c>
       <c r="L136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",L$2&lt;=Inputs!$G$15),SUM('Cash Flow'!L116:L124)+L131+L134,0)</f>
-        <v>151863.72575426794</v>
+        <v>151866.46947129193</v>
       </c>
       <c r="M136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",M$2&lt;=Inputs!$G$15),SUM('Cash Flow'!M116:M124)+M131+M134,0)</f>
-        <v>52772.070197002977</v>
+        <v>52774.510251621607</v>
       </c>
       <c r="N136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",N$2&lt;=Inputs!$G$15),SUM('Cash Flow'!N116:N124)+N131+N134,0)</f>
-        <v>52772.070197002977</v>
+        <v>52774.510251621607</v>
       </c>
       <c r="O136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",O$2&lt;=Inputs!$G$15),SUM('Cash Flow'!O116:O124)+O131+O134,0)</f>
-        <v>52796.836919211739</v>
+        <v>52799.277049726996</v>
       </c>
       <c r="P136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",P$2&lt;=Inputs!$G$15),SUM('Cash Flow'!P116:P124)+P131+P134,0)</f>
-        <v>156172.07019700296</v>
+        <v>156174.5102516216</v>
       </c>
       <c r="Q136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",Q$2&lt;=Inputs!$G$15),SUM('Cash Flow'!Q116:Q124)+Q131+Q134,0)</f>
-        <v>218236.83691921172</v>
+        <v>218239.27704972698</v>
       </c>
       <c r="R136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",R$2&lt;=Inputs!$G$15),SUM('Cash Flow'!R116:R124)+R131+R134,0)</f>
-        <v>151987.91268159705</v>
+        <v>151990.3525886389</v>
       </c>
       <c r="S136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",S$2&lt;=Inputs!$G$15),SUM('Cash Flow'!S116:S124)+S131+S134,0)</f>
-        <v>112307.07940380581</v>
+        <v>112309.5193867443</v>
       </c>
       <c r="T136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",T$2&lt;=Inputs!$G$15),SUM('Cash Flow'!T116:T124)+T131+T134,0)</f>
-        <v>112282.31268159705</v>
+        <v>112284.75258863892</v>
       </c>
       <c r="U136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",U$2&lt;=Inputs!$G$15),SUM('Cash Flow'!U116:U124)+U131+U134,0)</f>
-        <v>82527.879403805811</v>
+        <v>82530.319386744304</v>
       </c>
       <c r="V136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",V$2&lt;=Inputs!$G$15),SUM('Cash Flow'!V116:V124)+V131+V134,0)</f>
-        <v>29381.276999836933</v>
+        <v>29383.645374307671</v>
       </c>
       <c r="W136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",W$2&lt;=Inputs!$G$15),SUM('Cash Flow'!W116:W124)+W131+W134,0)</f>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="X136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",X$2&lt;=Inputs!$G$15),SUM('Cash Flow'!X116:X124)+X131+X134,0)</f>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="Y136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",Y$2&lt;=Inputs!$G$15),SUM('Cash Flow'!Y116:Y124)+Y131+Y134,0)</f>
-        <v>6038.6413180768131</v>
+        <v>6040.9381599764311</v>
       </c>
       <c r="Z136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",Z$2&lt;=Inputs!$G$15),SUM('Cash Flow'!Z116:Z124)+Z131+Z134,0)</f>
-        <v>113838.64131807681</v>
+        <v>113840.93815997643</v>
       </c>
       <c r="AA136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",AA$2&lt;=Inputs!$G$15),SUM('Cash Flow'!AA116:AA124)+AA131+AA134,0)</f>
-        <v>175499.32065903841</v>
+        <v>175500.46907998822</v>
       </c>
       <c r="AB136" s="237">
         <f>IF(AND(Inputs!$G$73="Yes",AB$2&lt;=Inputs!$G$15),SUM('Cash Flow'!AB116:AB124)+AB131+AB134,0)</f>
@@ -35122,87 +35122,87 @@
       <c r="F138" s="264"/>
       <c r="G138" s="239">
         <f>G136*Inputs!$G$78</f>
-        <v>1237712.9138274794</v>
+        <v>1237754.1002353758</v>
       </c>
       <c r="H138" s="239">
         <f>H136*Inputs!$G$78</f>
-        <v>246252.88658816801</v>
+        <v>246254.56451622336</v>
       </c>
       <c r="I138" s="239">
         <f>I136*Inputs!$G$78</f>
-        <v>156797.88352641495</v>
+        <v>156799.2873232002</v>
       </c>
       <c r="J138" s="239">
         <f>J136*Inputs!$G$78</f>
-        <v>102843.85369246028</v>
+        <v>102845.09214928439</v>
       </c>
       <c r="K138" s="239">
         <f>K136*Inputs!$G$78</f>
-        <v>102071.02670097747</v>
+        <v>102072.26278950422</v>
       </c>
       <c r="L138" s="239">
         <f>L136*Inputs!$G$78</f>
-        <v>61542.774861917082</v>
+        <v>61543.886753241051</v>
       </c>
       <c r="M138" s="239">
         <f>M136*Inputs!$G$78</f>
-        <v>21385.881447335458</v>
+        <v>21386.870279469655</v>
       </c>
       <c r="N138" s="239">
         <f>N136*Inputs!$G$78</f>
-        <v>21385.881447335458</v>
+        <v>21386.870279469655</v>
       </c>
       <c r="O138" s="239">
         <f>O136*Inputs!$G$78</f>
-        <v>21395.918161510555</v>
+        <v>21396.907024401866</v>
       </c>
       <c r="P138" s="239">
         <f>P136*Inputs!$G$78</f>
-        <v>63288.731447335449</v>
+        <v>63289.72027946965</v>
       </c>
       <c r="Q138" s="239">
         <f>Q136*Inputs!$G$78</f>
-        <v>88440.478161510546</v>
+        <v>88441.467024401863</v>
       </c>
       <c r="R138" s="239">
         <f>R136*Inputs!$G$78</f>
-        <v>61593.101614217208</v>
+        <v>61594.090386545911</v>
       </c>
       <c r="S138" s="239">
         <f>S136*Inputs!$G$78</f>
-        <v>45512.443928392306</v>
+        <v>45513.432731478126</v>
       </c>
       <c r="T138" s="239">
         <f>T136*Inputs!$G$78</f>
-        <v>45502.407214217201</v>
+        <v>45503.395986545926</v>
       </c>
       <c r="U138" s="239">
         <f>U136*Inputs!$G$78</f>
-        <v>33444.423128392307</v>
+        <v>33445.411931478127</v>
       </c>
       <c r="V138" s="239">
         <f>V136*Inputs!$G$78</f>
-        <v>11906.762504183916</v>
+        <v>11907.722287938184</v>
       </c>
       <c r="W138" s="239">
         <f>W136*Inputs!$G$78</f>
-        <v>2447.1593941506285</v>
+        <v>2448.0901893304485</v>
       </c>
       <c r="X138" s="239">
         <f>X136*Inputs!$G$78</f>
-        <v>2447.1593941506285</v>
+        <v>2448.0901893304485</v>
       </c>
       <c r="Y138" s="239">
         <f>Y136*Inputs!$G$78</f>
-        <v>2447.1593941506285</v>
+        <v>2448.0901893304485</v>
       </c>
       <c r="Z138" s="239">
         <f>Z136*Inputs!$G$78</f>
-        <v>46133.109394150626</v>
+        <v>46134.040189330452</v>
       </c>
       <c r="AA138" s="239">
         <f>AA136*Inputs!$G$78</f>
-        <v>71121.099697075319</v>
+        <v>71121.565094665231</v>
       </c>
       <c r="AB138" s="239">
         <f>AB136*Inputs!$G$78</f>
@@ -35401,107 +35401,107 @@
       <c r="F143" s="260"/>
       <c r="G143" s="239">
         <f>G58</f>
-        <v>-2420052.9841705197</v>
+        <v>-2420498.4179194984</v>
       </c>
       <c r="H143" s="239">
         <f t="shared" ref="H143:AJ143" si="42">H58</f>
-        <v>50333.936123073683</v>
+        <v>49982.196285661426</v>
       </c>
       <c r="I143" s="239">
         <f t="shared" si="42"/>
-        <v>294964.74846635765</v>
+        <v>294609.84589722229</v>
       </c>
       <c r="J143" s="239">
         <f t="shared" si="42"/>
-        <v>452113.47003273567</v>
+        <v>451755.09435321199</v>
       </c>
       <c r="K143" s="239">
         <f t="shared" si="42"/>
-        <v>478226.64831894706</v>
+        <v>477864.3549964361</v>
       </c>
       <c r="L143" s="239">
         <f t="shared" si="42"/>
-        <v>602707.79129384761</v>
+        <v>602341.83811041177</v>
       </c>
       <c r="M143" s="239">
         <f t="shared" si="42"/>
-        <v>726609.45226846985</v>
+        <v>726239.79310359294</v>
       </c>
       <c r="N143" s="239">
         <f t="shared" si="42"/>
-        <v>751824.79161228216</v>
+        <v>751451.07901824825</v>
       </c>
       <c r="O143" s="239">
         <f t="shared" si="42"/>
-        <v>777488.19887455611</v>
+        <v>777110.38851202256</v>
       </c>
       <c r="P143" s="239">
         <f t="shared" si="42"/>
-        <v>694596.5730576975</v>
+        <v>694214.62033165398</v>
       </c>
       <c r="Q143" s="239">
         <f t="shared" si="42"/>
-        <v>653646.7894952856</v>
+        <v>653260.6490185007</v>
       </c>
       <c r="R143" s="239">
         <f t="shared" si="42"/>
-        <v>747454.030407093</v>
+        <v>747063.65674952755</v>
       </c>
       <c r="S143" s="239">
         <f t="shared" si="42"/>
-        <v>815436.03466788481</v>
+        <v>815041.3813013942</v>
       </c>
       <c r="T143" s="239">
         <f t="shared" si="42"/>
-        <v>844574.55879950628</v>
+        <v>844175.5791422911</v>
       </c>
       <c r="U143" s="239">
         <f t="shared" si="42"/>
-        <v>904326.80978886655</v>
+        <v>903923.45644521003</v>
       </c>
       <c r="V143" s="239">
         <f t="shared" si="42"/>
-        <v>988428.92154857132</v>
+        <v>988021.2184430107</v>
       </c>
       <c r="W143" s="239">
         <f t="shared" si="42"/>
-        <v>1043760.9621703546</v>
+        <v>1043348.8609456287</v>
       </c>
       <c r="X143" s="239">
         <f t="shared" si="42"/>
-        <v>1076863.4567113109</v>
+        <v>1076446.8370262522</v>
       </c>
       <c r="Y143" s="239">
         <f t="shared" si="42"/>
-        <v>1109931.41665693</v>
+        <v>1109510.2291699508</v>
       </c>
       <c r="Z143" s="239">
         <f t="shared" si="42"/>
-        <v>1013269.4009046282</v>
+        <v>1012843.595735332</v>
       </c>
       <c r="AA143" s="239">
         <f t="shared" si="42"/>
-        <v>-32821.662511209608</v>
+        <v>-33250.987366963906</v>
       </c>
       <c r="AB143" s="239">
         <f t="shared" si="42"/>
-        <v>44590.723200834007</v>
+        <v>44157.827682888659</v>
       </c>
       <c r="AC143" s="239">
         <f t="shared" si="42"/>
-        <v>91463.496989433246</v>
+        <v>91025.830855959153</v>
       </c>
       <c r="AD143" s="239">
         <f t="shared" si="42"/>
-        <v>97027.361162299552</v>
+        <v>96584.872318175127</v>
       </c>
       <c r="AE143" s="239">
         <f t="shared" si="42"/>
-        <v>132926.88843527008</v>
+        <v>132477.53719850993</v>
       </c>
       <c r="AF143" s="239">
         <f t="shared" si="42"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG143" s="239">
         <f t="shared" si="42"/>
@@ -35609,27 +35609,27 @@
       </c>
       <c r="H146" s="239">
         <f>G149</f>
-        <v>2420052.9841705197</v>
+        <v>2420498.4179194984</v>
       </c>
       <c r="I146" s="239">
         <f t="shared" ref="I146:AJ146" si="43">H149</f>
-        <v>2369719.0480474462</v>
+        <v>2370516.2216338371</v>
       </c>
       <c r="J146" s="239">
         <f t="shared" si="43"/>
-        <v>2074754.2995810886</v>
+        <v>2075906.3757366147</v>
       </c>
       <c r="K146" s="239">
         <f t="shared" si="43"/>
-        <v>1622640.8295483529</v>
+        <v>1624151.2813834026</v>
       </c>
       <c r="L146" s="239">
         <f t="shared" si="43"/>
-        <v>1144414.1812294058</v>
+        <v>1146286.9263869666</v>
       </c>
       <c r="M146" s="239">
         <f t="shared" si="43"/>
-        <v>541706.3899355582</v>
+        <v>543945.08827655483</v>
       </c>
       <c r="N146" s="239">
         <f t="shared" si="43"/>
@@ -35689,7 +35689,7 @@
       </c>
       <c r="AB146" s="239">
         <f t="shared" si="43"/>
-        <v>32821.662511209608</v>
+        <v>33250.987366963906</v>
       </c>
       <c r="AC146" s="239">
         <f t="shared" si="43"/>
@@ -35734,7 +35734,7 @@
       <c r="F147" s="260"/>
       <c r="G147" s="239">
         <f>IF(G$143&gt;0,0,-G$143)</f>
-        <v>2420052.9841705197</v>
+        <v>2420498.4179194984</v>
       </c>
       <c r="H147" s="239">
         <f t="shared" ref="H147:AJ147" si="44">IF(H$143&gt;0,0,-H$143)</f>
@@ -35814,7 +35814,7 @@
       </c>
       <c r="AA147" s="239">
         <f t="shared" si="44"/>
-        <v>32821.662511209608</v>
+        <v>33250.987366963906</v>
       </c>
       <c r="AB147" s="239">
         <f t="shared" si="44"/>
@@ -35867,27 +35867,27 @@
       </c>
       <c r="H148" s="239">
         <f t="shared" si="45"/>
-        <v>-50333.936123073683</v>
+        <v>-49982.196285661426</v>
       </c>
       <c r="I148" s="239">
         <f t="shared" si="45"/>
-        <v>-294964.74846635765</v>
+        <v>-294609.84589722229</v>
       </c>
       <c r="J148" s="239">
         <f t="shared" si="45"/>
-        <v>-452113.47003273567</v>
+        <v>-451755.09435321199</v>
       </c>
       <c r="K148" s="239">
         <f t="shared" si="45"/>
-        <v>-478226.64831894706</v>
+        <v>-477864.3549964361</v>
       </c>
       <c r="L148" s="239">
         <f t="shared" si="45"/>
-        <v>-602707.79129384761</v>
+        <v>-602341.83811041177</v>
       </c>
       <c r="M148" s="239">
         <f>IF(M$143&lt;=0,0,-MIN(M$143,L$149))</f>
-        <v>-541706.3899355582</v>
+        <v>-543945.08827655483</v>
       </c>
       <c r="N148" s="239">
         <f t="shared" ref="N148:AJ148" si="46">IF(N$143&lt;=0,0,-MIN(N$143,M$149))</f>
@@ -35947,7 +35947,7 @@
       </c>
       <c r="AB148" s="239">
         <f t="shared" si="46"/>
-        <v>-32821.662511209608</v>
+        <v>-33250.987366963906</v>
       </c>
       <c r="AC148" s="239">
         <f t="shared" si="46"/>
@@ -35992,27 +35992,27 @@
       <c r="F149" s="260"/>
       <c r="G149" s="239">
         <f>SUM(G146:G148)</f>
-        <v>2420052.9841705197</v>
+        <v>2420498.4179194984</v>
       </c>
       <c r="H149" s="239">
         <f t="shared" ref="H149:AJ149" si="47">SUM(H146:H148)</f>
-        <v>2369719.0480474462</v>
+        <v>2370516.2216338371</v>
       </c>
       <c r="I149" s="239">
         <f t="shared" si="47"/>
-        <v>2074754.2995810886</v>
+        <v>2075906.3757366147</v>
       </c>
       <c r="J149" s="239">
         <f t="shared" si="47"/>
-        <v>1622640.8295483529</v>
+        <v>1624151.2813834026</v>
       </c>
       <c r="K149" s="239">
         <f t="shared" si="47"/>
-        <v>1144414.1812294058</v>
+        <v>1146286.9263869666</v>
       </c>
       <c r="L149" s="239">
         <f t="shared" si="47"/>
-        <v>541706.3899355582</v>
+        <v>543945.08827655483</v>
       </c>
       <c r="M149" s="239">
         <f t="shared" si="47"/>
@@ -36072,7 +36072,7 @@
       </c>
       <c r="AA149" s="239">
         <f t="shared" si="47"/>
-        <v>32821.662511209608</v>
+        <v>33250.987366963906</v>
       </c>
       <c r="AB149" s="239">
         <f t="shared" si="47"/>
@@ -36182,59 +36182,59 @@
       </c>
       <c r="M151" s="239">
         <f t="shared" si="48"/>
-        <v>184903.06233291165</v>
+        <v>182294.70482703811</v>
       </c>
       <c r="N151" s="239">
         <f t="shared" si="48"/>
-        <v>751824.79161228216</v>
+        <v>751451.07901824825</v>
       </c>
       <c r="O151" s="239">
         <f t="shared" si="48"/>
-        <v>777488.19887455611</v>
+        <v>777110.38851202256</v>
       </c>
       <c r="P151" s="239">
         <f t="shared" si="48"/>
-        <v>694596.5730576975</v>
+        <v>694214.62033165398</v>
       </c>
       <c r="Q151" s="239">
         <f t="shared" si="48"/>
-        <v>653646.7894952856</v>
+        <v>653260.6490185007</v>
       </c>
       <c r="R151" s="239">
         <f t="shared" si="48"/>
-        <v>747454.030407093</v>
+        <v>747063.65674952755</v>
       </c>
       <c r="S151" s="239">
         <f t="shared" si="48"/>
-        <v>815436.03466788481</v>
+        <v>815041.3813013942</v>
       </c>
       <c r="T151" s="239">
         <f t="shared" si="48"/>
-        <v>844574.55879950628</v>
+        <v>844175.5791422911</v>
       </c>
       <c r="U151" s="239">
         <f t="shared" si="48"/>
-        <v>904326.80978886655</v>
+        <v>903923.45644521003</v>
       </c>
       <c r="V151" s="239">
         <f t="shared" si="48"/>
-        <v>988428.92154857132</v>
+        <v>988021.2184430107</v>
       </c>
       <c r="W151" s="239">
         <f t="shared" si="48"/>
-        <v>1043760.9621703546</v>
+        <v>1043348.8609456287</v>
       </c>
       <c r="X151" s="239">
         <f t="shared" si="48"/>
-        <v>1076863.4567113109</v>
+        <v>1076446.8370262522</v>
       </c>
       <c r="Y151" s="239">
         <f t="shared" si="48"/>
-        <v>1109931.41665693</v>
+        <v>1109510.2291699508</v>
       </c>
       <c r="Z151" s="239">
         <f t="shared" si="48"/>
-        <v>1013269.4009046282</v>
+        <v>1012843.595735332</v>
       </c>
       <c r="AA151" s="239">
         <f t="shared" si="48"/>
@@ -36242,23 +36242,23 @@
       </c>
       <c r="AB151" s="239">
         <f t="shared" si="48"/>
-        <v>11769.060689624399</v>
+        <v>10906.840315924754</v>
       </c>
       <c r="AC151" s="239">
         <f t="shared" si="48"/>
-        <v>91463.496989433246</v>
+        <v>91025.830855959153</v>
       </c>
       <c r="AD151" s="239">
         <f t="shared" si="48"/>
-        <v>97027.361162299552</v>
+        <v>96584.872318175127</v>
       </c>
       <c r="AE151" s="239">
         <f t="shared" si="48"/>
-        <v>132926.88843527008</v>
+        <v>132477.53719850993</v>
       </c>
       <c r="AF151" s="239">
         <f t="shared" si="48"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG151" s="239">
         <f t="shared" si="48"/>
@@ -36366,27 +36366,27 @@
       </c>
       <c r="H154" s="239">
         <f>G157</f>
-        <v>2420052.9841705197</v>
+        <v>2420498.4179194984</v>
       </c>
       <c r="I154" s="239">
         <f t="shared" ref="I154:AJ154" si="49">H157</f>
-        <v>2369719.0480474462</v>
+        <v>2370516.2216338371</v>
       </c>
       <c r="J154" s="239">
         <f t="shared" si="49"/>
-        <v>2074754.2995810886</v>
+        <v>2075906.3757366147</v>
       </c>
       <c r="K154" s="239">
         <f t="shared" si="49"/>
-        <v>1622640.8295483529</v>
+        <v>1624151.2813834026</v>
       </c>
       <c r="L154" s="239">
         <f t="shared" si="49"/>
-        <v>1144414.1812294058</v>
+        <v>1146286.9263869666</v>
       </c>
       <c r="M154" s="239">
         <f t="shared" si="49"/>
-        <v>541706.3899355582</v>
+        <v>543945.08827655483</v>
       </c>
       <c r="N154" s="239">
         <f t="shared" si="49"/>
@@ -36446,7 +36446,7 @@
       </c>
       <c r="AB154" s="239">
         <f t="shared" si="49"/>
-        <v>32821.662511209608</v>
+        <v>33250.987366963906</v>
       </c>
       <c r="AC154" s="239">
         <f t="shared" si="49"/>
@@ -36491,7 +36491,7 @@
       <c r="F155" s="260"/>
       <c r="G155" s="239">
         <f>IF(G$143&gt;0,0,-G$143)</f>
-        <v>2420052.9841705197</v>
+        <v>2420498.4179194984</v>
       </c>
       <c r="H155" s="239">
         <f t="shared" ref="H155:AJ155" si="50">IF(H$143&gt;0,0,-H$143)</f>
@@ -36571,7 +36571,7 @@
       </c>
       <c r="AA155" s="239">
         <f t="shared" si="50"/>
-        <v>32821.662511209608</v>
+        <v>33250.987366963906</v>
       </c>
       <c r="AB155" s="239">
         <f t="shared" si="50"/>
@@ -36624,27 +36624,27 @@
       </c>
       <c r="H156" s="239">
         <f t="shared" si="51"/>
-        <v>-50333.936123073683</v>
+        <v>-49982.196285661426</v>
       </c>
       <c r="I156" s="239">
         <f t="shared" si="51"/>
-        <v>-294964.74846635765</v>
+        <v>-294609.84589722229</v>
       </c>
       <c r="J156" s="239">
         <f t="shared" si="51"/>
-        <v>-452113.47003273567</v>
+        <v>-451755.09435321199</v>
       </c>
       <c r="K156" s="239">
         <f t="shared" si="51"/>
-        <v>-478226.64831894706</v>
+        <v>-477864.3549964361</v>
       </c>
       <c r="L156" s="239">
         <f t="shared" si="51"/>
-        <v>-602707.79129384761</v>
+        <v>-602341.83811041177</v>
       </c>
       <c r="M156" s="239">
         <f t="shared" si="51"/>
-        <v>-541706.3899355582</v>
+        <v>-543945.08827655483</v>
       </c>
       <c r="N156" s="239">
         <f t="shared" si="51"/>
@@ -36704,7 +36704,7 @@
       </c>
       <c r="AB156" s="239">
         <f t="shared" si="51"/>
-        <v>-32821.662511209608</v>
+        <v>-33250.987366963906</v>
       </c>
       <c r="AC156" s="239">
         <f t="shared" si="51"/>
@@ -36749,27 +36749,27 @@
       <c r="F157" s="260"/>
       <c r="G157" s="239">
         <f>SUM(G154:G156)</f>
-        <v>2420052.9841705197</v>
+        <v>2420498.4179194984</v>
       </c>
       <c r="H157" s="239">
         <f t="shared" ref="H157:AJ157" si="52">SUM(H154:H156)</f>
-        <v>2369719.0480474462</v>
+        <v>2370516.2216338371</v>
       </c>
       <c r="I157" s="239">
         <f t="shared" si="52"/>
-        <v>2074754.2995810886</v>
+        <v>2075906.3757366147</v>
       </c>
       <c r="J157" s="239">
         <f t="shared" si="52"/>
-        <v>1622640.8295483529</v>
+        <v>1624151.2813834026</v>
       </c>
       <c r="K157" s="239">
         <f t="shared" si="52"/>
-        <v>1144414.1812294058</v>
+        <v>1146286.9263869666</v>
       </c>
       <c r="L157" s="239">
         <f t="shared" si="52"/>
-        <v>541706.3899355582</v>
+        <v>543945.08827655483</v>
       </c>
       <c r="M157" s="239">
         <f t="shared" si="52"/>
@@ -36829,7 +36829,7 @@
       </c>
       <c r="AA157" s="239">
         <f t="shared" si="52"/>
-        <v>32821.662511209608</v>
+        <v>33250.987366963906</v>
       </c>
       <c r="AB157" s="239">
         <f t="shared" si="52"/>
@@ -36939,59 +36939,59 @@
       </c>
       <c r="M159" s="239">
         <f t="shared" si="53"/>
-        <v>184903.06233291165</v>
+        <v>182294.70482703811</v>
       </c>
       <c r="N159" s="239">
         <f t="shared" si="53"/>
-        <v>751824.79161228216</v>
+        <v>751451.07901824825</v>
       </c>
       <c r="O159" s="239">
         <f t="shared" si="53"/>
-        <v>777488.19887455611</v>
+        <v>777110.38851202256</v>
       </c>
       <c r="P159" s="239">
         <f t="shared" si="53"/>
-        <v>694596.5730576975</v>
+        <v>694214.62033165398</v>
       </c>
       <c r="Q159" s="239">
         <f t="shared" si="53"/>
-        <v>653646.7894952856</v>
+        <v>653260.6490185007</v>
       </c>
       <c r="R159" s="239">
         <f t="shared" si="53"/>
-        <v>747454.030407093</v>
+        <v>747063.65674952755</v>
       </c>
       <c r="S159" s="239">
         <f t="shared" si="53"/>
-        <v>815436.03466788481</v>
+        <v>815041.3813013942</v>
       </c>
       <c r="T159" s="239">
         <f t="shared" si="53"/>
-        <v>844574.55879950628</v>
+        <v>844175.5791422911</v>
       </c>
       <c r="U159" s="239">
         <f t="shared" si="53"/>
-        <v>904326.80978886655</v>
+        <v>903923.45644521003</v>
       </c>
       <c r="V159" s="239">
         <f t="shared" si="53"/>
-        <v>988428.92154857132</v>
+        <v>988021.2184430107</v>
       </c>
       <c r="W159" s="239">
         <f t="shared" si="53"/>
-        <v>1043760.9621703546</v>
+        <v>1043348.8609456287</v>
       </c>
       <c r="X159" s="239">
         <f t="shared" si="53"/>
-        <v>1076863.4567113109</v>
+        <v>1076446.8370262522</v>
       </c>
       <c r="Y159" s="239">
         <f t="shared" si="53"/>
-        <v>1109931.41665693</v>
+        <v>1109510.2291699508</v>
       </c>
       <c r="Z159" s="239">
         <f t="shared" si="53"/>
-        <v>1013269.4009046282</v>
+        <v>1012843.595735332</v>
       </c>
       <c r="AA159" s="239">
         <f t="shared" si="53"/>
@@ -36999,23 +36999,23 @@
       </c>
       <c r="AB159" s="239">
         <f t="shared" si="53"/>
-        <v>11769.060689624399</v>
+        <v>10906.840315924754</v>
       </c>
       <c r="AC159" s="239">
         <f t="shared" si="53"/>
-        <v>91463.496989433246</v>
+        <v>91025.830855959153</v>
       </c>
       <c r="AD159" s="239">
         <f t="shared" si="53"/>
-        <v>97027.361162299552</v>
+        <v>96584.872318175127</v>
       </c>
       <c r="AE159" s="239">
         <f t="shared" si="53"/>
-        <v>132926.88843527008</v>
+        <v>132477.53719850993</v>
       </c>
       <c r="AF159" s="239">
         <f t="shared" si="53"/>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG159" s="239">
         <f t="shared" si="53"/>
@@ -37682,59 +37682,59 @@
       </c>
       <c r="M169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!M63)</f>
-        <v>-59215.205712114956</v>
+        <v>-58379.879220858951</v>
       </c>
       <c r="N169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!N63)</f>
-        <v>-240771.88951383336</v>
+        <v>-240652.20805559398</v>
       </c>
       <c r="O169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!O63)</f>
-        <v>-248990.59568957656</v>
+        <v>-248869.60192097523</v>
       </c>
       <c r="P169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!P63)</f>
-        <v>-222444.5525217276</v>
+        <v>-222322.23216121216</v>
       </c>
       <c r="Q169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!Q63)</f>
-        <v>-209330.38433586521</v>
+        <v>-209206.72284817483</v>
       </c>
       <c r="R169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!R63)</f>
-        <v>-239372.15323787153</v>
+        <v>-239247.13607403619</v>
       </c>
       <c r="S169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!S63)</f>
-        <v>-261143.39010239008</v>
+        <v>-261017.00236177148</v>
       </c>
       <c r="T169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!T63)</f>
-        <v>-270475.00245554186</v>
+        <v>-270347.22922031872</v>
       </c>
       <c r="U169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!U63)</f>
-        <v>-289610.6608348845</v>
+        <v>-289481.48692657851</v>
       </c>
       <c r="V169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!V63)</f>
-        <v>-316544.36212592991</v>
+        <v>-316413.7952063742</v>
       </c>
       <c r="W169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!W63)</f>
-        <v>-334264.44813505601</v>
+        <v>-334132.47271783755</v>
       </c>
       <c r="X169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!X63)</f>
-        <v>-344865.52201179729</v>
+        <v>-344732.09955765726</v>
       </c>
       <c r="Y169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!Y63)</f>
-        <v>-355455.53618438181</v>
+        <v>-355320.65089167672</v>
       </c>
       <c r="Z169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!Z63)</f>
-        <v>-324499.52563970716</v>
+        <v>-324363.16153424006</v>
       </c>
       <c r="AA169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!AA63)</f>
@@ -37742,23 +37742,23 @@
       </c>
       <c r="AB169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!AB63)</f>
-        <v>-3769.0416858522135</v>
+        <v>-3492.9156111749016</v>
       </c>
       <c r="AC169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!AC63)</f>
-        <v>-29291.184910865995</v>
+        <v>-29151.022331620919</v>
       </c>
       <c r="AD169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!AD63)</f>
-        <v>-31073.012412226428</v>
+        <v>-30931.305359895581</v>
       </c>
       <c r="AE169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!AE63)</f>
-        <v>-42569.83602139524</v>
+        <v>-42425.931287822801</v>
       </c>
       <c r="AF169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!AF63)</f>
-        <v>-1.8641003407537937E-13</v>
+        <v>-2.7961505111306905E-13</v>
       </c>
       <c r="AG169" s="239">
         <f>IF(Inputs!$G$75="as generated","N/A",'Cash Flow'!AG63)</f>
@@ -37851,19 +37851,19 @@
       </c>
       <c r="N171" s="239">
         <f>IF(Inputs!$G$75="as generated",0,M174)</f>
-        <v>907984.79428788507</v>
+        <v>908820.12077914109</v>
       </c>
       <c r="O171" s="239">
         <f>IF(Inputs!$G$75="as generated",0,N174)</f>
-        <v>667212.90477405174</v>
+        <v>668167.91272354708</v>
       </c>
       <c r="P171" s="239">
         <f>IF(Inputs!$G$75="as generated",0,O174)</f>
-        <v>418222.30908447516</v>
+        <v>419298.31080257182</v>
       </c>
       <c r="Q171" s="239">
         <f>IF(Inputs!$G$75="as generated",0,P174)</f>
-        <v>195777.75656274756</v>
+        <v>196976.07864135967</v>
       </c>
       <c r="R171" s="239">
         <f>IF(Inputs!$G$75="as generated",0,Q174)</f>
@@ -38105,23 +38105,23 @@
       </c>
       <c r="M173" s="239">
         <f>IF(Inputs!$G$75="as generated",0,IF(M$169&lt;0,MAX(M$169,-L$174),0))</f>
-        <v>-59215.205712114956</v>
+        <v>-58379.879220858951</v>
       </c>
       <c r="N173" s="239">
         <f>IF(Inputs!$G$75="as generated",0,IF(N$169&lt;0,MAX(N$169,-M$174),0))</f>
-        <v>-240771.88951383336</v>
+        <v>-240652.20805559398</v>
       </c>
       <c r="O173" s="239">
         <f>IF(Inputs!$G$75="as generated",0,IF(O$169&lt;0,MAX(O$169,-N$174),0))</f>
-        <v>-248990.59568957656</v>
+        <v>-248869.60192097523</v>
       </c>
       <c r="P173" s="239">
         <f>IF(Inputs!$G$75="as generated",0,IF(P$169&lt;0,MAX(P$169,-O$174),0))</f>
-        <v>-222444.5525217276</v>
+        <v>-222322.23216121216</v>
       </c>
       <c r="Q173" s="239">
         <f>IF(Inputs!$G$75="as generated",0,IF(Q$169&lt;0,MAX(Q$169,-P$174),0))</f>
-        <v>-195777.75656274756</v>
+        <v>-196976.07864135967</v>
       </c>
       <c r="R173" s="239">
         <f>IF(Inputs!$G$75="as generated",0,IF(R$169&lt;0,MAX(R$169,-Q$174),0))</f>
@@ -38236,19 +38236,19 @@
       </c>
       <c r="M174" s="239">
         <f t="shared" si="55"/>
-        <v>907984.79428788507</v>
+        <v>908820.12077914109</v>
       </c>
       <c r="N174" s="239">
         <f t="shared" si="55"/>
-        <v>667212.90477405174</v>
+        <v>668167.91272354708</v>
       </c>
       <c r="O174" s="239">
         <f t="shared" si="55"/>
-        <v>418222.30908447516</v>
+        <v>419298.31080257182</v>
       </c>
       <c r="P174" s="239">
         <f t="shared" si="55"/>
-        <v>195777.75656274756</v>
+        <v>196976.07864135967</v>
       </c>
       <c r="Q174" s="239">
         <f t="shared" si="55"/>
@@ -38942,59 +38942,59 @@
       </c>
       <c r="M183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!M64)</f>
-        <v>-15716.760298297491</v>
+        <v>-15495.049910298239</v>
       </c>
       <c r="N183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!N64)</f>
-        <v>-63905.107287043989</v>
+        <v>-63873.341716551105</v>
       </c>
       <c r="O183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!O64)</f>
-        <v>-66086.496904337269</v>
+        <v>-66054.383023521921</v>
       </c>
       <c r="P183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!P64)</f>
-        <v>-59040.708709904291</v>
+        <v>-59008.242728190591</v>
       </c>
       <c r="Q183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!Q64)</f>
-        <v>-55559.977107099279</v>
+        <v>-55527.155166572564</v>
       </c>
       <c r="R183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!R64)</f>
-        <v>-63533.592584602913</v>
+        <v>-63500.410823709848</v>
       </c>
       <c r="S183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!S64)</f>
-        <v>-69312.062946770209</v>
+        <v>-69278.517410618515</v>
       </c>
       <c r="T183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!T64)</f>
-        <v>-71788.83749795804</v>
+        <v>-71754.924227094743</v>
       </c>
       <c r="U183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!U64)</f>
-        <v>-76867.778832053664</v>
+        <v>-76833.493797842864</v>
       </c>
       <c r="V183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!V64)</f>
-        <v>-84016.458331628572</v>
+        <v>-83981.803567655908</v>
       </c>
       <c r="W183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!W64)</f>
-        <v>-88719.681784480141</v>
+        <v>-88684.653180378446</v>
       </c>
       <c r="X183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!X64)</f>
-        <v>-91533.393820461439</v>
+        <v>-91497.981147231447</v>
       </c>
       <c r="Y183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!Y64)</f>
-        <v>-94344.170415839064</v>
+        <v>-94308.369479445828</v>
       </c>
       <c r="Z183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!Z64)</f>
-        <v>-86127.899076893402</v>
+        <v>-86091.705637503226</v>
       </c>
       <c r="AA183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!AA64)</f>
@@ -39002,23 +39002,23 @@
       </c>
       <c r="AB183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!AB64)</f>
-        <v>-1000.370158618074</v>
+        <v>-927.08142685360417</v>
       </c>
       <c r="AC183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!AC64)</f>
-        <v>-7774.3972441018268</v>
+        <v>-7737.1956227565288</v>
       </c>
       <c r="AD183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!AD64)</f>
-        <v>-8247.3256987954628</v>
+        <v>-8209.714147044886</v>
       </c>
       <c r="AE183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!AE64)</f>
-        <v>-11298.785516997958</v>
+        <v>-11260.590661873344</v>
       </c>
       <c r="AF183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!AF64)</f>
-        <v>-4.94765117764473E-14</v>
+        <v>-7.421476766467095E-14</v>
       </c>
       <c r="AG183" s="239">
         <f>IF(Inputs!$G$77="as generated","N/A",'Cash Flow'!AG64)</f>
@@ -39716,107 +39716,107 @@
       </c>
       <c r="G192" s="256">
         <f>F197</f>
-        <v>203652.86658039485</v>
+        <v>203851.56837890603</v>
       </c>
       <c r="H192" s="256">
         <f t="shared" ref="H192:AJ192" si="58">G197</f>
-        <v>261097.31102483929</v>
+        <v>261296.01282335047</v>
       </c>
       <c r="I192" s="256">
         <f t="shared" si="58"/>
-        <v>318541.75546928373</v>
+        <v>318740.45726779493</v>
       </c>
       <c r="J192" s="256">
         <f t="shared" si="58"/>
-        <v>375986.19991372817</v>
+        <v>376184.90171223937</v>
       </c>
       <c r="K192" s="256">
         <f t="shared" si="58"/>
-        <v>433430.64435817261</v>
+        <v>433629.34615668381</v>
       </c>
       <c r="L192" s="256">
         <f t="shared" si="58"/>
-        <v>490875.08880261704</v>
+        <v>491073.79060112825</v>
       </c>
       <c r="M192" s="256">
         <f t="shared" si="58"/>
-        <v>548319.53324706154</v>
+        <v>548518.23504557274</v>
       </c>
       <c r="N192" s="256">
         <f t="shared" si="58"/>
-        <v>605763.97769150604</v>
+        <v>605962.67949001724</v>
       </c>
       <c r="O192" s="256">
         <f t="shared" si="58"/>
-        <v>663208.42213595053</v>
+        <v>663407.12393446174</v>
       </c>
       <c r="P192" s="256">
         <f t="shared" si="58"/>
-        <v>720652.86658039503</v>
+        <v>720851.56837890623</v>
       </c>
       <c r="Q192" s="256">
         <f t="shared" si="58"/>
-        <v>203652.86658039503</v>
+        <v>203851.56837890623</v>
       </c>
       <c r="R192" s="256">
         <f t="shared" si="58"/>
-        <v>263541.7554692839</v>
+        <v>263740.45726779511</v>
       </c>
       <c r="S192" s="256">
         <f t="shared" si="58"/>
-        <v>323430.64435817278</v>
+        <v>323629.34615668398</v>
       </c>
       <c r="T192" s="256">
         <f t="shared" si="58"/>
-        <v>383319.53324706166</v>
+        <v>383518.23504557286</v>
       </c>
       <c r="U192" s="256">
         <f t="shared" si="58"/>
-        <v>443208.42213595053</v>
+        <v>443407.12393446174</v>
       </c>
       <c r="V192" s="256">
         <f t="shared" si="58"/>
-        <v>503097.31102483941</v>
+        <v>503296.01282335061</v>
       </c>
       <c r="W192" s="256">
         <f t="shared" si="58"/>
-        <v>562986.19991372828</v>
+        <v>563184.90171223949</v>
       </c>
       <c r="X192" s="256">
         <f t="shared" si="58"/>
-        <v>622875.08880261716</v>
+        <v>623073.79060112836</v>
       </c>
       <c r="Y192" s="256">
         <f t="shared" si="58"/>
-        <v>682763.97769150604</v>
+        <v>682962.67949001724</v>
       </c>
       <c r="Z192" s="256">
         <f t="shared" si="58"/>
-        <v>619629.77202817192</v>
+        <v>619828.47382668313</v>
       </c>
       <c r="AA192" s="256">
         <f t="shared" si="58"/>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AB192" s="256">
         <f t="shared" si="58"/>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AC192" s="256">
         <f t="shared" si="58"/>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AD192" s="256">
         <f t="shared" si="58"/>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AE192" s="256">
         <f t="shared" si="58"/>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AF192" s="256">
         <f t="shared" si="58"/>
-        <v>5.8207660913467407E-11</v>
+        <v>8.7311491370201111E-11</v>
       </c>
       <c r="AG192" s="256">
         <f t="shared" si="58"/>
@@ -39976,7 +39976,7 @@
       <c r="E194" s="260"/>
       <c r="F194" s="256">
         <f>Inputs!$Q$66</f>
-        <v>80629.772028171865</v>
+        <v>80828.473826683039</v>
       </c>
       <c r="G194" s="256">
         <f>IF(G$2=Inputs!$G$15,-$F$194,0)</f>
@@ -40076,7 +40076,7 @@
       </c>
       <c r="AE194" s="256">
         <f>IF(AE$2=Inputs!$G$15,-$F$194,0)</f>
-        <v>-80629.772028171865</v>
+        <v>-80828.473826683039</v>
       </c>
       <c r="AF194" s="256">
         <f>IF(AF$2=Inputs!$G$15,-$F$194,0)</f>
@@ -40370,107 +40370,107 @@
       <c r="E197" s="260"/>
       <c r="F197" s="256">
         <f>IF(F$2&gt;Inputs!$G$15,0,SUM(F192:F196))</f>
-        <v>203652.86658039485</v>
+        <v>203851.56837890603</v>
       </c>
       <c r="G197" s="256">
         <f>IF(G$2&gt;Inputs!$G$15,0,SUM(G192:G196))</f>
-        <v>261097.31102483929</v>
+        <v>261296.01282335047</v>
       </c>
       <c r="H197" s="256">
         <f>IF(H$2&gt;Inputs!$G$15,0,SUM(H192:H196))</f>
-        <v>318541.75546928373</v>
+        <v>318740.45726779493</v>
       </c>
       <c r="I197" s="256">
         <f>IF(I$2&gt;Inputs!$G$15,0,SUM(I192:I196))</f>
-        <v>375986.19991372817</v>
+        <v>376184.90171223937</v>
       </c>
       <c r="J197" s="256">
         <f>IF(J$2&gt;Inputs!$G$15,0,SUM(J192:J196))</f>
-        <v>433430.64435817261</v>
+        <v>433629.34615668381</v>
       </c>
       <c r="K197" s="256">
         <f>IF(K$2&gt;Inputs!$G$15,0,SUM(K192:K196))</f>
-        <v>490875.08880261704</v>
+        <v>491073.79060112825</v>
       </c>
       <c r="L197" s="256">
         <f>IF(L$2&gt;Inputs!$G$15,0,SUM(L192:L196))</f>
-        <v>548319.53324706154</v>
+        <v>548518.23504557274</v>
       </c>
       <c r="M197" s="256">
         <f>IF(M$2&gt;Inputs!$G$15,0,SUM(M192:M196))</f>
-        <v>605763.97769150604</v>
+        <v>605962.67949001724</v>
       </c>
       <c r="N197" s="256">
         <f>IF(N$2&gt;Inputs!$G$15,0,SUM(N192:N196))</f>
-        <v>663208.42213595053</v>
+        <v>663407.12393446174</v>
       </c>
       <c r="O197" s="256">
         <f>IF(O$2&gt;Inputs!$G$15,0,SUM(O192:O196))</f>
-        <v>720652.86658039503</v>
+        <v>720851.56837890623</v>
       </c>
       <c r="P197" s="256">
         <f>IF(P$2&gt;Inputs!$G$15,0,SUM(P192:P196))</f>
-        <v>203652.86658039503</v>
+        <v>203851.56837890623</v>
       </c>
       <c r="Q197" s="256">
         <f>IF(Q$2&gt;Inputs!$G$15,0,SUM(Q192:Q196))</f>
-        <v>263541.7554692839</v>
+        <v>263740.45726779511</v>
       </c>
       <c r="R197" s="256">
         <f>IF(R$2&gt;Inputs!$G$15,0,SUM(R192:R196))</f>
-        <v>323430.64435817278</v>
+        <v>323629.34615668398</v>
       </c>
       <c r="S197" s="256">
         <f>IF(S$2&gt;Inputs!$G$15,0,SUM(S192:S196))</f>
-        <v>383319.53324706166</v>
+        <v>383518.23504557286</v>
       </c>
       <c r="T197" s="256">
         <f>IF(T$2&gt;Inputs!$G$15,0,SUM(T192:T196))</f>
-        <v>443208.42213595053</v>
+        <v>443407.12393446174</v>
       </c>
       <c r="U197" s="256">
         <f>IF(U$2&gt;Inputs!$G$15,0,SUM(U192:U196))</f>
-        <v>503097.31102483941</v>
+        <v>503296.01282335061</v>
       </c>
       <c r="V197" s="256">
         <f>IF(V$2&gt;Inputs!$G$15,0,SUM(V192:V196))</f>
-        <v>562986.19991372828</v>
+        <v>563184.90171223949</v>
       </c>
       <c r="W197" s="256">
         <f>IF(W$2&gt;Inputs!$G$15,0,SUM(W192:W196))</f>
-        <v>622875.08880261716</v>
+        <v>623073.79060112836</v>
       </c>
       <c r="X197" s="256">
         <f>IF(X$2&gt;Inputs!$G$15,0,SUM(X192:X196))</f>
-        <v>682763.97769150604</v>
+        <v>682962.67949001724</v>
       </c>
       <c r="Y197" s="256">
         <f>IF(Y$2&gt;Inputs!$G$15,0,SUM(Y192:Y196))</f>
-        <v>619629.77202817192</v>
+        <v>619828.47382668313</v>
       </c>
       <c r="Z197" s="256">
         <f>IF(Z$2&gt;Inputs!$G$15,0,SUM(Z192:Z196))</f>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AA197" s="256">
         <f>IF(AA$2&gt;Inputs!$G$15,0,SUM(AA192:AA196))</f>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AB197" s="256">
         <f>IF(AB$2&gt;Inputs!$G$15,0,SUM(AB192:AB196))</f>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AC197" s="256">
         <f>IF(AC$2&gt;Inputs!$G$15,0,SUM(AC192:AC196))</f>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AD197" s="256">
         <f>IF(AD$2&gt;Inputs!$G$15,0,SUM(AD192:AD196))</f>
-        <v>80629.772028171923</v>
+        <v>80828.473826683126</v>
       </c>
       <c r="AE197" s="256">
         <f>IF(AE$2&gt;Inputs!$G$15,0,SUM(AE192:AE196))</f>
-        <v>5.8207660913467407E-11</v>
+        <v>8.7311491370201111E-11</v>
       </c>
       <c r="AF197" s="256">
         <f>IF(AF$2&gt;Inputs!$G$15,0,SUM(AF192:AF196))</f>
@@ -40540,107 +40540,107 @@
       <c r="F199" s="256"/>
       <c r="G199" s="256">
         <f>AVERAGE(G192,G197)*Inputs!$Q$67</f>
-        <v>4647.5017760523415</v>
+        <v>4651.4758120225652</v>
       </c>
       <c r="H199" s="256">
         <f>AVERAGE(H192,H197)*Inputs!$Q$67</f>
-        <v>5796.3906649412311</v>
+        <v>5800.3647009114538</v>
       </c>
       <c r="I199" s="256">
         <f>AVERAGE(I192,I197)*Inputs!$Q$67</f>
-        <v>6945.2795538301189</v>
+        <v>6949.2535898003425</v>
       </c>
       <c r="J199" s="256">
         <f>AVERAGE(J192,J197)*Inputs!$Q$67</f>
-        <v>8094.1684427190085</v>
+        <v>8098.1424786892321</v>
       </c>
       <c r="K199" s="256">
         <f>AVERAGE(K192,K197)*Inputs!$Q$67</f>
-        <v>9243.0573316078953</v>
+        <v>9247.0313675781199</v>
       </c>
       <c r="L199" s="256">
         <f>AVERAGE(L192,L197)*Inputs!$Q$67</f>
-        <v>10391.946220496786</v>
+        <v>10395.92025646701</v>
       </c>
       <c r="M199" s="256">
         <f>AVERAGE(M192,M197)*Inputs!$Q$67</f>
-        <v>11540.835109385676</v>
+        <v>11544.809145355901</v>
       </c>
       <c r="N199" s="256">
         <f>AVERAGE(N192,N197)*Inputs!$Q$67</f>
-        <v>12689.723998274567</v>
+        <v>12693.69803424479</v>
       </c>
       <c r="O199" s="256">
         <f>AVERAGE(O192,O197)*Inputs!$Q$67</f>
-        <v>13838.612887163456</v>
+        <v>13842.58692313368</v>
       </c>
       <c r="P199" s="256">
         <f>AVERAGE(P192,P197)*Inputs!$Q$67</f>
-        <v>9243.0573316079008</v>
+        <v>9247.0313675781254</v>
       </c>
       <c r="Q199" s="256">
         <f>AVERAGE(Q192,Q197)*Inputs!$Q$67</f>
-        <v>4671.9462204967895</v>
+        <v>4675.9202564670131</v>
       </c>
       <c r="R199" s="256">
         <f>AVERAGE(R192,R197)*Inputs!$Q$67</f>
-        <v>5869.7239982745668</v>
+        <v>5873.6980342447914</v>
       </c>
       <c r="S199" s="256">
         <f>AVERAGE(S192,S197)*Inputs!$Q$67</f>
-        <v>7067.5017760523442</v>
+        <v>7071.4758120225688</v>
       </c>
       <c r="T199" s="256">
         <f>AVERAGE(T192,T197)*Inputs!$Q$67</f>
-        <v>8265.2795538301216</v>
+        <v>8269.2535898003462</v>
       </c>
       <c r="U199" s="256">
         <f>AVERAGE(U192,U197)*Inputs!$Q$67</f>
-        <v>9463.057331607899</v>
+        <v>9467.0313675781235</v>
       </c>
       <c r="V199" s="256">
         <f>AVERAGE(V192,V197)*Inputs!$Q$67</f>
-        <v>10660.835109385676</v>
+        <v>10664.809145355901</v>
       </c>
       <c r="W199" s="256">
         <f>AVERAGE(W192,W197)*Inputs!$Q$67</f>
-        <v>11858.612887163456</v>
+        <v>11862.58692313368</v>
       </c>
       <c r="X199" s="256">
         <f>AVERAGE(X192,X197)*Inputs!$Q$67</f>
-        <v>13056.390664941231</v>
+        <v>13060.364700911456</v>
       </c>
       <c r="Y199" s="256">
         <f>AVERAGE(Y192,Y197)*Inputs!$Q$67</f>
-        <v>13023.937497196779</v>
+        <v>13027.911533167004</v>
       </c>
       <c r="Z199" s="256">
         <f>AVERAGE(Z192,Z197)*Inputs!$Q$67</f>
-        <v>7002.5954405634384</v>
+        <v>7006.569476533663</v>
       </c>
       <c r="AA199" s="256">
         <f>AVERAGE(AA192,AA197)*Inputs!$Q$67</f>
-        <v>1612.5954405634384</v>
+        <v>1616.5694765336625</v>
       </c>
       <c r="AB199" s="256">
         <f>AVERAGE(AB192,AB197)*Inputs!$Q$67</f>
-        <v>1612.5954405634384</v>
+        <v>1616.5694765336625</v>
       </c>
       <c r="AC199" s="256">
         <f>AVERAGE(AC192,AC197)*Inputs!$Q$67</f>
-        <v>1612.5954405634384</v>
+        <v>1616.5694765336625</v>
       </c>
       <c r="AD199" s="256">
         <f>AVERAGE(AD192,AD197)*Inputs!$Q$67</f>
-        <v>1612.5954405634384</v>
+        <v>1616.5694765336625</v>
       </c>
       <c r="AE199" s="256">
         <f>AVERAGE(AE192,AE197)*Inputs!$Q$67</f>
-        <v>806.29772028171988</v>
+        <v>808.28473826683216</v>
       </c>
       <c r="AF199" s="256">
         <f>AVERAGE(AF192,AF197)*Inputs!$Q$67</f>
-        <v>5.8207660913467408E-13</v>
+        <v>8.7311491370201108E-13</v>
       </c>
       <c r="AG199" s="256">
         <f>AVERAGE(AG192,AG197)*Inputs!$Q$67</f>
@@ -40765,7 +40765,7 @@
       </c>
       <c r="AE200" s="256">
         <f t="shared" si="59"/>
-        <v>-80629.772028171865</v>
+        <v>-80828.473826683039</v>
       </c>
       <c r="AF200" s="256">
         <f t="shared" si="59"/>
@@ -40921,21 +40921,21 @@
       <c r="F204" s="256"/>
       <c r="G204" s="256">
         <f>$D$72</f>
-        <v>2801.411742365422</v>
+        <v>1094.5334120010107</v>
       </c>
       <c r="H204" s="256"/>
       <c r="I204" s="256"/>
       <c r="J204" s="260"/>
       <c r="K204" s="256">
         <f>$D$72</f>
-        <v>2801.411742365422</v>
+        <v>1094.5334120010107</v>
       </c>
       <c r="L204" s="256"/>
       <c r="M204" s="256"/>
       <c r="N204" s="260"/>
       <c r="O204" s="256">
         <f>$D$72</f>
-        <v>2801.411742365422</v>
+        <v>1094.5334120010107</v>
       </c>
       <c r="P204" s="256"/>
       <c r="Q204" s="256"/>
@@ -40975,7 +40975,7 @@
       </c>
       <c r="G205" s="256">
         <f t="dataTable" ref="G205:G215" dt2D="0" dtr="0" r1="G72"/>
-        <v>-5179688.8397354437</v>
+        <v>-5181921.8174761049</v>
       </c>
       <c r="H205" s="256"/>
       <c r="I205" s="256"/>
@@ -40985,7 +40985,7 @@
       </c>
       <c r="K205" s="256">
         <f t="dataTable" ref="K205:K215" dt2D="0" dtr="0" r1="G72" ca="1"/>
-        <v>-1293173.3828010547</v>
+        <v>-1295094.2498325829</v>
       </c>
       <c r="L205" s="256"/>
       <c r="M205" s="256"/>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="O205" s="256">
         <f t="dataTable" ref="O205:O215" dt2D="0" dtr="0" r1="G72" ca="1"/>
-        <v>-4703.6037906127358</v>
+        <v>-6410.4821177497579</v>
       </c>
       <c r="P205" s="256"/>
       <c r="Q205" s="256"/>
@@ -41028,7 +41028,7 @@
         <v>10</v>
       </c>
       <c r="G206" s="256">
-        <v>-3190253.5037447982</v>
+        <v>-3192486.4814854581</v>
       </c>
       <c r="H206" s="256" t="str">
         <f t="shared" ref="H206:H215" si="60">IF(AND($G206&lt;0,$G207&gt;0),$G206,"")</f>
@@ -41043,7 +41043,7 @@
         <v>21</v>
       </c>
       <c r="K206" s="256">
-        <v>-1123072.6383397651</v>
+        <v>-1124961.1836043117</v>
       </c>
       <c r="L206" s="256" t="str">
         <f t="shared" ref="L206:L215" si="62">IF(AND($K206&lt;0,$K207&gt;0),$K206,"")</f>
@@ -41058,7 +41058,7 @@
         <v>28.1</v>
       </c>
       <c r="O206" s="256">
-        <v>10306.427274953019</v>
+        <v>8599.5489413598934</v>
       </c>
       <c r="P206" s="256" t="str">
         <f>IF(AND($O206&lt;0,$O207&gt;0),$O206,"")</f>
@@ -41066,7 +41066,7 @@
       </c>
       <c r="Q206" s="256">
         <f>IF(AND($O206&gt;0,$O205&lt;0),$O206,"")</f>
-        <v>10306.427274953019</v>
+        <v>8599.5489413598934</v>
       </c>
       <c r="R206" s="256"/>
       <c r="S206" s="256"/>
@@ -41097,11 +41097,11 @@
         <v>20</v>
       </c>
       <c r="G207" s="256">
-        <v>-1293173.3828010547</v>
+        <v>-1295094.2498325829</v>
       </c>
       <c r="H207" s="256">
         <f t="shared" si="60"/>
-        <v>-1293173.3828010547</v>
+        <v>-1295094.2498325829</v>
       </c>
       <c r="I207" s="256" t="str">
         <f t="shared" si="61"/>
@@ -41112,7 +41112,7 @@
         <v>22</v>
       </c>
       <c r="K207" s="256">
-        <v>-955860.99478896172</v>
+        <v>-957740.62303691742</v>
       </c>
       <c r="L207" s="256" t="str">
         <f t="shared" si="62"/>
@@ -41127,7 +41127,7 @@
         <v>28.200000000000003</v>
       </c>
       <c r="O207" s="256">
-        <v>25316.458338953471</v>
+        <v>23609.57999890274</v>
       </c>
       <c r="P207" s="256" t="str">
         <f t="shared" ref="P207:P215" si="66">IF(AND($O207&lt;0,$O208&gt;0),$O207,"")</f>
@@ -41166,7 +41166,7 @@
         <v>30</v>
       </c>
       <c r="G208" s="256">
-        <v>294671.18131568091</v>
+        <v>292997.89909000328</v>
       </c>
       <c r="H208" s="256" t="str">
         <f t="shared" si="60"/>
@@ -41174,14 +41174,14 @@
       </c>
       <c r="I208" s="256">
         <f t="shared" si="61"/>
-        <v>294671.18131568091</v>
+        <v>292997.89909000328</v>
       </c>
       <c r="J208" s="371">
         <f t="shared" si="64"/>
         <v>23</v>
       </c>
       <c r="K208" s="256">
-        <v>-791507.97571746237</v>
+        <v>-793352.8832957109</v>
       </c>
       <c r="L208" s="256" t="str">
         <f t="shared" si="62"/>
@@ -41196,7 +41196,7 @@
         <v>28.300000000000004</v>
       </c>
       <c r="O208" s="256">
-        <v>40326.489401386498</v>
+        <v>38619.611054880123</v>
       </c>
       <c r="P208" s="256" t="str">
         <f t="shared" si="66"/>
@@ -41235,7 +41235,7 @@
         <v>40</v>
       </c>
       <c r="G209" s="256">
-        <v>1707121.1348788142</v>
+        <v>1705580.2038387775</v>
       </c>
       <c r="H209" s="256" t="str">
         <f t="shared" si="60"/>
@@ -41250,7 +41250,7 @@
         <v>24</v>
       </c>
       <c r="K209" s="256">
-        <v>-629758.75463374483</v>
+        <v>-631576.39309641882</v>
       </c>
       <c r="L209" s="256" t="str">
         <f t="shared" si="62"/>
@@ -41265,7 +41265,7 @@
         <v>28.400000000000006</v>
       </c>
       <c r="O209" s="256">
-        <v>55336.520462254732</v>
+        <v>53629.642109292254</v>
       </c>
       <c r="P209" s="256" t="str">
         <f t="shared" si="66"/>
@@ -41304,7 +41304,7 @@
         <v>50</v>
       </c>
       <c r="G210" s="256">
-        <v>3032874.6530314768</v>
+        <v>3031376.1790119396</v>
       </c>
       <c r="H210" s="256" t="str">
         <f t="shared" si="60"/>
@@ -41319,7 +41319,7 @@
         <v>25</v>
       </c>
       <c r="K210" s="256">
-        <v>-469989.83279252227</v>
+        <v>-471769.06885388191</v>
       </c>
       <c r="L210" s="256" t="str">
         <f t="shared" si="62"/>
@@ -41334,7 +41334,7 @@
         <v>28.500000000000007</v>
       </c>
       <c r="O210" s="256">
-        <v>70346.5515215552</v>
+        <v>68639.673162136751</v>
       </c>
       <c r="P210" s="256" t="str">
         <f t="shared" si="66"/>
@@ -41373,7 +41373,7 @@
         <v>60</v>
       </c>
       <c r="G211" s="256">
-        <v>4311765.7774699079</v>
+        <v>4310301.1217542561</v>
       </c>
       <c r="H211" s="256" t="str">
         <f t="shared" si="60"/>
@@ -41388,7 +41388,7 @@
         <v>26</v>
       </c>
       <c r="K211" s="256">
-        <v>-312890.2827406656</v>
+        <v>-314669.51885197934</v>
       </c>
       <c r="L211" s="256" t="str">
         <f t="shared" si="62"/>
@@ -41403,7 +41403,7 @@
         <v>28.600000000000009</v>
       </c>
       <c r="O211" s="256">
-        <v>85356.582579290291</v>
+        <v>83649.704213415302</v>
       </c>
       <c r="P211" s="256" t="str">
         <f t="shared" si="66"/>
@@ -41442,7 +41442,7 @@
         <v>70</v>
       </c>
       <c r="G212" s="256">
-        <v>5557213.3424577108</v>
+        <v>5555785.8648219639</v>
       </c>
       <c r="H212" s="256" t="str">
         <f t="shared" si="60"/>
@@ -41457,7 +41457,7 @@
         <v>27</v>
       </c>
       <c r="K212" s="256">
-        <v>-158019.69278855456</v>
+        <v>-159768.25354345853</v>
       </c>
       <c r="L212" s="256" t="str">
         <f t="shared" si="62"/>
@@ -41472,7 +41472,7 @@
         <v>28.70000000000001</v>
       </c>
       <c r="O212" s="256">
-        <v>100366.61363545945</v>
+        <v>98659.735263128707</v>
       </c>
       <c r="P212" s="256" t="str">
         <f t="shared" si="66"/>
@@ -41511,7 +41511,7 @@
         <v>80</v>
       </c>
       <c r="G213" s="256">
-        <v>6790671.882215457</v>
+        <v>6789271.9174166629</v>
       </c>
       <c r="H213" s="256" t="str">
         <f t="shared" si="60"/>
@@ -41526,11 +41526,11 @@
         <v>28</v>
       </c>
       <c r="K213" s="256">
-        <v>-4703.6037906127358</v>
+        <v>-6410.4821177497579</v>
       </c>
       <c r="L213" s="256">
         <f t="shared" si="62"/>
-        <v>-4703.6037906127358</v>
+        <v>-6410.4821177497579</v>
       </c>
       <c r="M213" s="256" t="str">
         <f t="shared" si="63"/>
@@ -41541,7 +41541,7 @@
         <v>28.800000000000011</v>
       </c>
       <c r="O213" s="256">
-        <v>115376.64469006087</v>
+        <v>113669.76631127455</v>
       </c>
       <c r="P213" s="256" t="str">
         <f t="shared" si="66"/>
@@ -41580,7 +41580,7 @@
         <v>90</v>
       </c>
       <c r="G214" s="256">
-        <v>8005124.8735304633</v>
+        <v>8003724.9069954818</v>
       </c>
       <c r="H214" s="256" t="str">
         <f t="shared" si="60"/>
@@ -41595,7 +41595,7 @@
         <v>29</v>
       </c>
       <c r="K214" s="256">
-        <v>145396.70679456592</v>
+        <v>143689.82840286833</v>
       </c>
       <c r="L214" s="256" t="str">
         <f t="shared" si="62"/>
@@ -41603,14 +41603,14 @@
       </c>
       <c r="M214" s="256">
         <f t="shared" si="63"/>
-        <v>145396.70679456592</v>
+        <v>143689.82840286833</v>
       </c>
       <c r="N214" s="371">
         <f t="shared" si="65"/>
         <v>28.900000000000013</v>
       </c>
       <c r="O214" s="256">
-        <v>130386.67574309791</v>
+        <v>128679.79735785504</v>
       </c>
       <c r="P214" s="256" t="str">
         <f t="shared" si="66"/>
@@ -41649,7 +41649,7 @@
         <v>100</v>
       </c>
       <c r="G215" s="256">
-        <v>9219577.8227764089</v>
+        <v>9218177.8545095026</v>
       </c>
       <c r="H215" s="256" t="str">
         <f t="shared" si="60"/>
@@ -41664,7 +41664,7 @@
         <v>30</v>
       </c>
       <c r="K215" s="256">
-        <v>294671.18131568091</v>
+        <v>292997.89909000328</v>
       </c>
       <c r="L215" s="256" t="str">
         <f t="shared" si="62"/>
@@ -41679,7 +41679,7 @@
         <v>29</v>
       </c>
       <c r="O215" s="256">
-        <v>145396.70679456592</v>
+        <v>143689.82840286833</v>
       </c>
       <c r="P215" s="256" t="str">
         <f t="shared" si="66"/>
@@ -43212,7 +43212,7 @@
       </c>
       <c r="C109" s="107">
         <f>Inputs!$Q$63+Inputs!$Q$66</f>
-        <v>203652.86658039485</v>
+        <v>203851.56837890603</v>
       </c>
       <c r="D109" s="123">
         <v>0</v>
@@ -43227,7 +43227,7 @@
       </c>
       <c r="C110" s="81">
         <f>SUM(C106:C109)</f>
-        <v>465082.86658039485</v>
+        <v>465281.568378906</v>
       </c>
       <c r="D110" s="55">
         <f>SUMPRODUCT(C106:C109,D106:D109)/C110</f>
@@ -43529,7 +43529,7 @@
       </c>
       <c r="C120" s="99">
         <f>C110</f>
-        <v>465082.86658039485</v>
+        <v>465281.568378906</v>
       </c>
       <c r="D120" s="108">
         <f>C110*D110</f>
@@ -43572,7 +43572,7 @@
       </c>
       <c r="N120" s="110">
         <f t="shared" si="4"/>
-        <v>339395.36658039485</v>
+        <v>339594.068378906</v>
       </c>
     </row>
     <row r="121" spans="2:14" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -43581,7 +43581,7 @@
       </c>
       <c r="C121" s="101">
         <f>SUM(C116:C120)</f>
-        <v>10520082.866580395</v>
+        <v>10520281.568378907</v>
       </c>
       <c r="D121" s="101">
         <f>SUM(D116:D120)</f>
@@ -43622,7 +43622,7 @@
       </c>
       <c r="N121" s="101">
         <f t="shared" si="5"/>
-        <v>339395.36658039485</v>
+        <v>339594.068378906</v>
       </c>
     </row>
     <row r="123" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
